--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="903">
   <si>
     <t>alias</t>
   </si>
@@ -819,6 +819,9 @@
     <t>(Mandatory) The run data file model.</t>
   </si>
   <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
+  </si>
+  <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
   </si>
   <si>
@@ -1200,7 +1203,7 @@
     <t>collection date</t>
   </si>
   <si>
-    <t>(Optional) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
     <t>altitude</t>
@@ -1209,6 +1212,90 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Optional) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Optional) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Optional) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>secondary and tertiary recovery methods and start date</t>
+  </si>
+  <si>
+    <t>(Optional) Additional (i.e. secondary, tertiary, etc.) recovery methods deployed for increase of hydrocarbon recovery from resource and start date for each one of them. if "other" is specified, please propose entry in "additional info" field.</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>organism count qpcr information</t>
+  </si>
+  <si>
+    <t>(Optional) If qpcr was used for the cell count, the target gene name, the primer sequence and the cycling conditions should also be provided. (example: 16s rrna; fwd:acgtagctatgacgt rev:gtgctagtcgagtac; initial denaturation:90c_5min; denaturation:90c_2min; annealing:52c_30 sec; elongation:72c_30 sec; 90 c for 1 min; final elongation:72c_5min; 30 cycles) (Units: year)</t>
+  </si>
+  <si>
+    <t>hydrocarbon type produced</t>
+  </si>
+  <si>
+    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+  </si>
+  <si>
+    <t>api gravity</t>
+  </si>
+  <si>
+    <t>(Optional) Api gravity is a measure of how heavy or light a petroleum liquid is compared to water (source: https://en.wikipedia.org/wiki/api_gravity) (e.g. 31.1api) (Units: °C)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -2037,6 +2124,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2076,91 +2166,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Optional) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Optional) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Optional) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Optional) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>secondary and tertiary recovery methods and start date</t>
-  </si>
-  <si>
-    <t>(Optional) Additional (i.e. secondary, tertiary, etc.) recovery methods deployed for increase of hydrocarbon recovery from resource and start date for each one of them. if "other" is specified, please propose entry in "additional info" field.</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>organism count qpcr information</t>
-  </si>
-  <si>
-    <t>(Optional) If qpcr was used for the cell count, the target gene name, the primer sequence and the cycling conditions should also be provided. (example: 16s rrna; fwd:acgtagctatgacgt rev:gtgctagtcgagtac; initial denaturation:90c_5min; denaturation:90c_2min; annealing:52c_30 sec; elongation:72c_30 sec; 90 c for 1 min; final elongation:72c_5min; 30 cycles) (Units: year)</t>
-  </si>
-  <si>
-    <t>hydrocarbon type produced</t>
-  </si>
-  <si>
-    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
-  </si>
-  <si>
-    <t>api gravity</t>
-  </si>
-  <si>
-    <t>(Optional) Api gravity is a measure of how heavy or light a petroleum liquid is compared to water (source: https://en.wikipedia.org/wiki/api_gravity) (e.g. 31.1api) (Units: °C)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -4270,912 +4276,912 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>678</v>
+        <v>391</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>680</v>
+        <v>393</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>682</v>
+        <v>395</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>684</v>
+        <v>397</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>686</v>
+        <v>399</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>688</v>
+        <v>401</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>690</v>
+        <v>403</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>692</v>
+        <v>405</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>694</v>
+        <v>407</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>696</v>
+        <v>409</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>698</v>
+        <v>411</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>700</v>
+        <v>413</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>702</v>
+        <v>415</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>704</v>
+        <v>417</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" spans="1:152" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>679</v>
+        <v>392</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>681</v>
+        <v>394</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>683</v>
+        <v>396</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>685</v>
+        <v>398</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>687</v>
+        <v>400</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>689</v>
+        <v>402</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>691</v>
+        <v>404</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>693</v>
+        <v>406</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>695</v>
+        <v>408</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>697</v>
+        <v>410</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>699</v>
+        <v>412</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>701</v>
+        <v>414</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>703</v>
+        <v>416</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>705</v>
+        <v>418</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="CV2" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="DP2" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="DR2" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="EG2" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="CW2" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="DB2" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="DD2" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="DE2" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="DG2" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="DH2" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="DI2" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="DJ2" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="DL2" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="DM2" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="DN2" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="DO2" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="DR2" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="ED2" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>791</v>
-      </c>
       <c r="EH2" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -5198,7 +5204,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
       <formula1>16srecovered</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE3:BE101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DS3:DS101">
@@ -5211,7 +5217,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:DS288"/>
+  <dimension ref="F1:DS289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5219,1601 +5225,1606 @@
   <sheetData>
     <row r="1" spans="6:123">
       <c r="F1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>390</v>
+        <v>375</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>419</v>
       </c>
       <c r="DS1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="6:123">
       <c r="F2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>391</v>
+        <v>376</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>420</v>
       </c>
       <c r="DS2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="6:123">
       <c r="F3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>392</v>
+        <v>366</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>421</v>
       </c>
       <c r="DS3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="6:123">
       <c r="F4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>393</v>
+        <v>312</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>422</v>
       </c>
       <c r="DS4" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="6:123">
       <c r="F5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>394</v>
+        <v>313</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="6:123">
       <c r="F6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>395</v>
+        <v>314</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="6:123">
       <c r="F7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I7" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>396</v>
+        <v>315</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="6:123">
       <c r="F8" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>397</v>
+        <v>275</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="6:123">
       <c r="F9" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>398</v>
+        <v>276</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="6:123">
       <c r="F10" t="s">
-        <v>276</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>399</v>
+        <v>277</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="6:123">
       <c r="F11" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>400</v>
+        <v>278</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="6:123">
       <c r="F12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>401</v>
+        <v>279</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="6:123">
       <c r="F13" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>402</v>
+        <v>280</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="6:123">
       <c r="F14" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>403</v>
+        <v>281</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="6:123">
       <c r="F15" t="s">
-        <v>281</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>404</v>
+        <v>282</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="6:123">
       <c r="F16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="17" spans="6:43">
+        <v>283</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="6:57">
       <c r="F17" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="6:43">
+        <v>284</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="6:57">
       <c r="F18" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="19" spans="6:43">
+        <v>285</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="6:57">
       <c r="F19" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="20" spans="6:43">
+        <v>286</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="6:57">
       <c r="F20" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="6:43">
+        <v>287</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="6:57">
       <c r="F21" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="22" spans="6:43">
+        <v>288</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="6:57">
       <c r="F22" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="23" spans="6:43">
+        <v>289</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="6:57">
       <c r="F23" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="6:43">
+        <v>290</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="6:57">
       <c r="F24" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="6:43">
+        <v>291</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="6:57">
       <c r="F25" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="26" spans="6:43">
+        <v>292</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="6:57">
       <c r="F26" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="27" spans="6:43">
+        <v>293</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="6:57">
       <c r="F27" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="28" spans="6:43">
+        <v>294</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="6:57">
       <c r="F28" t="s">
-        <v>294</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="29" spans="6:43">
+        <v>295</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="6:57">
       <c r="F29" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="30" spans="6:43">
+        <v>296</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="6:57">
       <c r="F30" t="s">
-        <v>296</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="31" spans="6:43">
-      <c r="AQ31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="6:43">
-      <c r="AQ32" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="33" spans="43:43">
-      <c r="AQ33" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="34" spans="43:43">
-      <c r="AQ34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="35" spans="43:43">
-      <c r="AQ35" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="36" spans="43:43">
-      <c r="AQ36" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="37" spans="43:43">
-      <c r="AQ37" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="38" spans="43:43">
-      <c r="AQ38" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="43:43">
-      <c r="AQ39" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="40" spans="43:43">
-      <c r="AQ40" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="41" spans="43:43">
-      <c r="AQ41" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="43:43">
-      <c r="AQ42" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="43" spans="43:43">
-      <c r="AQ43" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="44" spans="43:43">
-      <c r="AQ44" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="45" spans="43:43">
-      <c r="AQ45" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="46" spans="43:43">
-      <c r="AQ46" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="47" spans="43:43">
-      <c r="AQ47" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="48" spans="43:43">
-      <c r="AQ48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="49" spans="43:43">
-      <c r="AQ49" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="50" spans="43:43">
-      <c r="AQ50" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="51" spans="43:43">
-      <c r="AQ51" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="52" spans="43:43">
-      <c r="AQ52" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="53" spans="43:43">
-      <c r="AQ53" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="43:43">
-      <c r="AQ54" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="55" spans="43:43">
-      <c r="AQ55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="56" spans="43:43">
-      <c r="AQ56" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="57" spans="43:43">
-      <c r="AQ57" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="58" spans="43:43">
-      <c r="AQ58" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="59" spans="43:43">
-      <c r="AQ59" t="s">
+        <v>297</v>
+      </c>
+      <c r="BE30" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="60" spans="43:43">
-      <c r="AQ60" t="s">
+    <row r="31" spans="6:57">
+      <c r="BE31" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="61" spans="43:43">
-      <c r="AQ61" t="s">
+    <row r="32" spans="6:57">
+      <c r="BE32" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="43:43">
-      <c r="AQ62" t="s">
+    <row r="33" spans="57:57">
+      <c r="BE33" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="63" spans="43:43">
-      <c r="AQ63" t="s">
+    <row r="34" spans="57:57">
+      <c r="BE34" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="43:43">
-      <c r="AQ64" t="s">
+    <row r="35" spans="57:57">
+      <c r="BE35" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="43:43">
-      <c r="AQ65" t="s">
+    <row r="36" spans="57:57">
+      <c r="BE36" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="43:43">
-      <c r="AQ66" t="s">
+    <row r="37" spans="57:57">
+      <c r="BE37" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="67" spans="43:43">
-      <c r="AQ67" t="s">
+    <row r="38" spans="57:57">
+      <c r="BE38" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="68" spans="43:43">
-      <c r="AQ68" t="s">
+    <row r="39" spans="57:57">
+      <c r="BE39" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="69" spans="43:43">
-      <c r="AQ69" t="s">
+    <row r="40" spans="57:57">
+      <c r="BE40" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="70" spans="43:43">
-      <c r="AQ70" t="s">
+    <row r="41" spans="57:57">
+      <c r="BE41" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="43:43">
-      <c r="AQ71" t="s">
+    <row r="42" spans="57:57">
+      <c r="BE42" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="72" spans="43:43">
-      <c r="AQ72" t="s">
+    <row r="43" spans="57:57">
+      <c r="BE43" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="73" spans="43:43">
-      <c r="AQ73" t="s">
+    <row r="44" spans="57:57">
+      <c r="BE44" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="74" spans="43:43">
-      <c r="AQ74" t="s">
+    <row r="45" spans="57:57">
+      <c r="BE45" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="75" spans="43:43">
-      <c r="AQ75" t="s">
+    <row r="46" spans="57:57">
+      <c r="BE46" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="76" spans="43:43">
-      <c r="AQ76" t="s">
+    <row r="47" spans="57:57">
+      <c r="BE47" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="77" spans="43:43">
-      <c r="AQ77" t="s">
+    <row r="48" spans="57:57">
+      <c r="BE48" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="43:43">
-      <c r="AQ78" t="s">
+    <row r="49" spans="57:57">
+      <c r="BE49" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="79" spans="43:43">
-      <c r="AQ79" t="s">
+    <row r="50" spans="57:57">
+      <c r="BE50" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="80" spans="43:43">
-      <c r="AQ80" t="s">
+    <row r="51" spans="57:57">
+      <c r="BE51" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="43:43">
-      <c r="AQ81" t="s">
+    <row r="52" spans="57:57">
+      <c r="BE52" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="82" spans="43:43">
-      <c r="AQ82" t="s">
+    <row r="53" spans="57:57">
+      <c r="BE53" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="43:43">
-      <c r="AQ83" t="s">
+    <row r="54" spans="57:57">
+      <c r="BE54" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="84" spans="43:43">
-      <c r="AQ84" t="s">
+    <row r="55" spans="57:57">
+      <c r="BE55" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="85" spans="43:43">
-      <c r="AQ85" t="s">
+    <row r="56" spans="57:57">
+      <c r="BE56" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="43:43">
-      <c r="AQ86" t="s">
+    <row r="57" spans="57:57">
+      <c r="BE57" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="87" spans="43:43">
-      <c r="AQ87" t="s">
+    <row r="58" spans="57:57">
+      <c r="BE58" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="88" spans="43:43">
-      <c r="AQ88" t="s">
+    <row r="59" spans="57:57">
+      <c r="BE59" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="89" spans="43:43">
-      <c r="AQ89" t="s">
+    <row r="60" spans="57:57">
+      <c r="BE60" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="90" spans="43:43">
-      <c r="AQ90" t="s">
+    <row r="61" spans="57:57">
+      <c r="BE61" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="91" spans="43:43">
-      <c r="AQ91" t="s">
+    <row r="62" spans="57:57">
+      <c r="BE62" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="92" spans="43:43">
-      <c r="AQ92" t="s">
+    <row r="63" spans="57:57">
+      <c r="BE63" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="93" spans="43:43">
-      <c r="AQ93" t="s">
+    <row r="64" spans="57:57">
+      <c r="BE64" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="94" spans="43:43">
-      <c r="AQ94" t="s">
+    <row r="65" spans="57:57">
+      <c r="BE65" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="95" spans="43:43">
-      <c r="AQ95" t="s">
+    <row r="66" spans="57:57">
+      <c r="BE66" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="96" spans="43:43">
-      <c r="AQ96" t="s">
+    <row r="67" spans="57:57">
+      <c r="BE67" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="97" spans="43:43">
-      <c r="AQ97" t="s">
+    <row r="68" spans="57:57">
+      <c r="BE68" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="98" spans="43:43">
-      <c r="AQ98" t="s">
+    <row r="69" spans="57:57">
+      <c r="BE69" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="99" spans="43:43">
-      <c r="AQ99" t="s">
+    <row r="70" spans="57:57">
+      <c r="BE70" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="100" spans="43:43">
-      <c r="AQ100" t="s">
+    <row r="71" spans="57:57">
+      <c r="BE71" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="101" spans="43:43">
-      <c r="AQ101" t="s">
+    <row r="72" spans="57:57">
+      <c r="BE72" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="102" spans="43:43">
-      <c r="AQ102" t="s">
+    <row r="73" spans="57:57">
+      <c r="BE73" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="103" spans="43:43">
-      <c r="AQ103" t="s">
+    <row r="74" spans="57:57">
+      <c r="BE74" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="104" spans="43:43">
-      <c r="AQ104" t="s">
+    <row r="75" spans="57:57">
+      <c r="BE75" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="43:43">
-      <c r="AQ105" t="s">
+    <row r="76" spans="57:57">
+      <c r="BE76" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="106" spans="43:43">
-      <c r="AQ106" t="s">
+    <row r="77" spans="57:57">
+      <c r="BE77" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="107" spans="43:43">
-      <c r="AQ107" t="s">
+    <row r="78" spans="57:57">
+      <c r="BE78" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="108" spans="43:43">
-      <c r="AQ108" t="s">
+    <row r="79" spans="57:57">
+      <c r="BE79" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="109" spans="43:43">
-      <c r="AQ109" t="s">
+    <row r="80" spans="57:57">
+      <c r="BE80" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="110" spans="43:43">
-      <c r="AQ110" t="s">
+    <row r="81" spans="57:57">
+      <c r="BE81" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="111" spans="43:43">
-      <c r="AQ111" t="s">
+    <row r="82" spans="57:57">
+      <c r="BE82" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="43:43">
-      <c r="AQ112" t="s">
+    <row r="83" spans="57:57">
+      <c r="BE83" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="113" spans="43:43">
-      <c r="AQ113" t="s">
+    <row r="84" spans="57:57">
+      <c r="BE84" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="114" spans="43:43">
-      <c r="AQ114" t="s">
+    <row r="85" spans="57:57">
+      <c r="BE85" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="115" spans="43:43">
-      <c r="AQ115" t="s">
+    <row r="86" spans="57:57">
+      <c r="BE86" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="116" spans="43:43">
-      <c r="AQ116" t="s">
+    <row r="87" spans="57:57">
+      <c r="BE87" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="117" spans="43:43">
-      <c r="AQ117" t="s">
+    <row r="88" spans="57:57">
+      <c r="BE88" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="118" spans="43:43">
-      <c r="AQ118" t="s">
+    <row r="89" spans="57:57">
+      <c r="BE89" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="119" spans="43:43">
-      <c r="AQ119" t="s">
+    <row r="90" spans="57:57">
+      <c r="BE90" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="120" spans="43:43">
-      <c r="AQ120" t="s">
+    <row r="91" spans="57:57">
+      <c r="BE91" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="121" spans="43:43">
-      <c r="AQ121" t="s">
+    <row r="92" spans="57:57">
+      <c r="BE92" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="122" spans="43:43">
-      <c r="AQ122" t="s">
+    <row r="93" spans="57:57">
+      <c r="BE93" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="123" spans="43:43">
-      <c r="AQ123" t="s">
+    <row r="94" spans="57:57">
+      <c r="BE94" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="124" spans="43:43">
-      <c r="AQ124" t="s">
+    <row r="95" spans="57:57">
+      <c r="BE95" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="125" spans="43:43">
-      <c r="AQ125" t="s">
+    <row r="96" spans="57:57">
+      <c r="BE96" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="126" spans="43:43">
-      <c r="AQ126" t="s">
+    <row r="97" spans="57:57">
+      <c r="BE97" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="127" spans="43:43">
-      <c r="AQ127" t="s">
+    <row r="98" spans="57:57">
+      <c r="BE98" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="128" spans="43:43">
-      <c r="AQ128" t="s">
+    <row r="99" spans="57:57">
+      <c r="BE99" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="43:43">
-      <c r="AQ129" t="s">
+    <row r="100" spans="57:57">
+      <c r="BE100" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="130" spans="43:43">
-      <c r="AQ130" t="s">
+    <row r="101" spans="57:57">
+      <c r="BE101" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="131" spans="43:43">
-      <c r="AQ131" t="s">
+    <row r="102" spans="57:57">
+      <c r="BE102" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="132" spans="43:43">
-      <c r="AQ132" t="s">
+    <row r="103" spans="57:57">
+      <c r="BE103" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="43:43">
-      <c r="AQ133" t="s">
+    <row r="104" spans="57:57">
+      <c r="BE104" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="134" spans="43:43">
-      <c r="AQ134" t="s">
+    <row r="105" spans="57:57">
+      <c r="BE105" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="135" spans="43:43">
-      <c r="AQ135" t="s">
+    <row r="106" spans="57:57">
+      <c r="BE106" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="136" spans="43:43">
-      <c r="AQ136" t="s">
+    <row r="107" spans="57:57">
+      <c r="BE107" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="137" spans="43:43">
-      <c r="AQ137" t="s">
+    <row r="108" spans="57:57">
+      <c r="BE108" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="138" spans="43:43">
-      <c r="AQ138" t="s">
+    <row r="109" spans="57:57">
+      <c r="BE109" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="139" spans="43:43">
-      <c r="AQ139" t="s">
+    <row r="110" spans="57:57">
+      <c r="BE110" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="140" spans="43:43">
-      <c r="AQ140" t="s">
+    <row r="111" spans="57:57">
+      <c r="BE111" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="141" spans="43:43">
-      <c r="AQ141" t="s">
+    <row r="112" spans="57:57">
+      <c r="BE112" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="142" spans="43:43">
-      <c r="AQ142" t="s">
+    <row r="113" spans="57:57">
+      <c r="BE113" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="143" spans="43:43">
-      <c r="AQ143" t="s">
+    <row r="114" spans="57:57">
+      <c r="BE114" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="144" spans="43:43">
-      <c r="AQ144" t="s">
+    <row r="115" spans="57:57">
+      <c r="BE115" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="145" spans="43:43">
-      <c r="AQ145" t="s">
+    <row r="116" spans="57:57">
+      <c r="BE116" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="43:43">
-      <c r="AQ146" t="s">
+    <row r="117" spans="57:57">
+      <c r="BE117" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="147" spans="43:43">
-      <c r="AQ147" t="s">
+    <row r="118" spans="57:57">
+      <c r="BE118" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="148" spans="43:43">
-      <c r="AQ148" t="s">
+    <row r="119" spans="57:57">
+      <c r="BE119" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="149" spans="43:43">
-      <c r="AQ149" t="s">
+    <row r="120" spans="57:57">
+      <c r="BE120" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="150" spans="43:43">
-      <c r="AQ150" t="s">
+    <row r="121" spans="57:57">
+      <c r="BE121" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="151" spans="43:43">
-      <c r="AQ151" t="s">
+    <row r="122" spans="57:57">
+      <c r="BE122" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="152" spans="43:43">
-      <c r="AQ152" t="s">
+    <row r="123" spans="57:57">
+      <c r="BE123" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="153" spans="43:43">
-      <c r="AQ153" t="s">
+    <row r="124" spans="57:57">
+      <c r="BE124" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="154" spans="43:43">
-      <c r="AQ154" t="s">
+    <row r="125" spans="57:57">
+      <c r="BE125" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="155" spans="43:43">
-      <c r="AQ155" t="s">
+    <row r="126" spans="57:57">
+      <c r="BE126" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="156" spans="43:43">
-      <c r="AQ156" t="s">
+    <row r="127" spans="57:57">
+      <c r="BE127" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="157" spans="43:43">
-      <c r="AQ157" t="s">
+    <row r="128" spans="57:57">
+      <c r="BE128" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="158" spans="43:43">
-      <c r="AQ158" t="s">
+    <row r="129" spans="57:57">
+      <c r="BE129" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="159" spans="43:43">
-      <c r="AQ159" t="s">
+    <row r="130" spans="57:57">
+      <c r="BE130" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="160" spans="43:43">
-      <c r="AQ160" t="s">
+    <row r="131" spans="57:57">
+      <c r="BE131" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="161" spans="43:43">
-      <c r="AQ161" t="s">
+    <row r="132" spans="57:57">
+      <c r="BE132" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="162" spans="43:43">
-      <c r="AQ162" t="s">
+    <row r="133" spans="57:57">
+      <c r="BE133" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="163" spans="43:43">
-      <c r="AQ163" t="s">
+    <row r="134" spans="57:57">
+      <c r="BE134" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="164" spans="43:43">
-      <c r="AQ164" t="s">
+    <row r="135" spans="57:57">
+      <c r="BE135" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="165" spans="43:43">
-      <c r="AQ165" t="s">
+    <row r="136" spans="57:57">
+      <c r="BE136" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="166" spans="43:43">
-      <c r="AQ166" t="s">
+    <row r="137" spans="57:57">
+      <c r="BE137" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="167" spans="43:43">
-      <c r="AQ167" t="s">
+    <row r="138" spans="57:57">
+      <c r="BE138" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="168" spans="43:43">
-      <c r="AQ168" t="s">
+    <row r="139" spans="57:57">
+      <c r="BE139" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="169" spans="43:43">
-      <c r="AQ169" t="s">
+    <row r="140" spans="57:57">
+      <c r="BE140" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="170" spans="43:43">
-      <c r="AQ170" t="s">
+    <row r="141" spans="57:57">
+      <c r="BE141" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="171" spans="43:43">
-      <c r="AQ171" t="s">
+    <row r="142" spans="57:57">
+      <c r="BE142" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="172" spans="43:43">
-      <c r="AQ172" t="s">
+    <row r="143" spans="57:57">
+      <c r="BE143" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="173" spans="43:43">
-      <c r="AQ173" t="s">
+    <row r="144" spans="57:57">
+      <c r="BE144" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="174" spans="43:43">
-      <c r="AQ174" t="s">
+    <row r="145" spans="57:57">
+      <c r="BE145" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="175" spans="43:43">
-      <c r="AQ175" t="s">
+    <row r="146" spans="57:57">
+      <c r="BE146" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="176" spans="43:43">
-      <c r="AQ176" t="s">
+    <row r="147" spans="57:57">
+      <c r="BE147" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="177" spans="43:43">
-      <c r="AQ177" t="s">
+    <row r="148" spans="57:57">
+      <c r="BE148" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="178" spans="43:43">
-      <c r="AQ178" t="s">
+    <row r="149" spans="57:57">
+      <c r="BE149" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="179" spans="43:43">
-      <c r="AQ179" t="s">
+    <row r="150" spans="57:57">
+      <c r="BE150" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="180" spans="43:43">
-      <c r="AQ180" t="s">
+    <row r="151" spans="57:57">
+      <c r="BE151" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="181" spans="43:43">
-      <c r="AQ181" t="s">
+    <row r="152" spans="57:57">
+      <c r="BE152" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="182" spans="43:43">
-      <c r="AQ182" t="s">
+    <row r="153" spans="57:57">
+      <c r="BE153" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="183" spans="43:43">
-      <c r="AQ183" t="s">
+    <row r="154" spans="57:57">
+      <c r="BE154" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="184" spans="43:43">
-      <c r="AQ184" t="s">
+    <row r="155" spans="57:57">
+      <c r="BE155" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="185" spans="43:43">
-      <c r="AQ185" t="s">
+    <row r="156" spans="57:57">
+      <c r="BE156" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="186" spans="43:43">
-      <c r="AQ186" t="s">
+    <row r="157" spans="57:57">
+      <c r="BE157" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="187" spans="43:43">
-      <c r="AQ187" t="s">
+    <row r="158" spans="57:57">
+      <c r="BE158" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="188" spans="43:43">
-      <c r="AQ188" t="s">
+    <row r="159" spans="57:57">
+      <c r="BE159" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="189" spans="43:43">
-      <c r="AQ189" t="s">
+    <row r="160" spans="57:57">
+      <c r="BE160" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="190" spans="43:43">
-      <c r="AQ190" t="s">
+    <row r="161" spans="57:57">
+      <c r="BE161" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="191" spans="43:43">
-      <c r="AQ191" t="s">
+    <row r="162" spans="57:57">
+      <c r="BE162" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="192" spans="43:43">
-      <c r="AQ192" t="s">
+    <row r="163" spans="57:57">
+      <c r="BE163" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="193" spans="43:43">
-      <c r="AQ193" t="s">
+    <row r="164" spans="57:57">
+      <c r="BE164" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="194" spans="43:43">
-      <c r="AQ194" t="s">
+    <row r="165" spans="57:57">
+      <c r="BE165" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="195" spans="43:43">
-      <c r="AQ195" t="s">
+    <row r="166" spans="57:57">
+      <c r="BE166" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="196" spans="43:43">
-      <c r="AQ196" t="s">
+    <row r="167" spans="57:57">
+      <c r="BE167" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="197" spans="43:43">
-      <c r="AQ197" t="s">
+    <row r="168" spans="57:57">
+      <c r="BE168" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="198" spans="43:43">
-      <c r="AQ198" t="s">
+    <row r="169" spans="57:57">
+      <c r="BE169" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="199" spans="43:43">
-      <c r="AQ199" t="s">
+    <row r="170" spans="57:57">
+      <c r="BE170" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="200" spans="43:43">
-      <c r="AQ200" t="s">
+    <row r="171" spans="57:57">
+      <c r="BE171" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="201" spans="43:43">
-      <c r="AQ201" t="s">
+    <row r="172" spans="57:57">
+      <c r="BE172" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="202" spans="43:43">
-      <c r="AQ202" t="s">
+    <row r="173" spans="57:57">
+      <c r="BE173" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="203" spans="43:43">
-      <c r="AQ203" t="s">
+    <row r="174" spans="57:57">
+      <c r="BE174" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="204" spans="43:43">
-      <c r="AQ204" t="s">
+    <row r="175" spans="57:57">
+      <c r="BE175" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="205" spans="43:43">
-      <c r="AQ205" t="s">
+    <row r="176" spans="57:57">
+      <c r="BE176" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="206" spans="43:43">
-      <c r="AQ206" t="s">
+    <row r="177" spans="57:57">
+      <c r="BE177" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="207" spans="43:43">
-      <c r="AQ207" t="s">
+    <row r="178" spans="57:57">
+      <c r="BE178" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="208" spans="43:43">
-      <c r="AQ208" t="s">
+    <row r="179" spans="57:57">
+      <c r="BE179" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="209" spans="43:43">
-      <c r="AQ209" t="s">
+    <row r="180" spans="57:57">
+      <c r="BE180" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="210" spans="43:43">
-      <c r="AQ210" t="s">
+    <row r="181" spans="57:57">
+      <c r="BE181" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="211" spans="43:43">
-      <c r="AQ211" t="s">
+    <row r="182" spans="57:57">
+      <c r="BE182" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="43:43">
-      <c r="AQ212" t="s">
+    <row r="183" spans="57:57">
+      <c r="BE183" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="213" spans="43:43">
-      <c r="AQ213" t="s">
+    <row r="184" spans="57:57">
+      <c r="BE184" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="214" spans="43:43">
-      <c r="AQ214" t="s">
+    <row r="185" spans="57:57">
+      <c r="BE185" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="215" spans="43:43">
-      <c r="AQ215" t="s">
+    <row r="186" spans="57:57">
+      <c r="BE186" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="216" spans="43:43">
-      <c r="AQ216" t="s">
+    <row r="187" spans="57:57">
+      <c r="BE187" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="217" spans="43:43">
-      <c r="AQ217" t="s">
+    <row r="188" spans="57:57">
+      <c r="BE188" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="218" spans="43:43">
-      <c r="AQ218" t="s">
+    <row r="189" spans="57:57">
+      <c r="BE189" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="219" spans="43:43">
-      <c r="AQ219" t="s">
+    <row r="190" spans="57:57">
+      <c r="BE190" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="220" spans="43:43">
-      <c r="AQ220" t="s">
+    <row r="191" spans="57:57">
+      <c r="BE191" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="221" spans="43:43">
-      <c r="AQ221" t="s">
+    <row r="192" spans="57:57">
+      <c r="BE192" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="222" spans="43:43">
-      <c r="AQ222" t="s">
+    <row r="193" spans="57:57">
+      <c r="BE193" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="223" spans="43:43">
-      <c r="AQ223" t="s">
+    <row r="194" spans="57:57">
+      <c r="BE194" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="224" spans="43:43">
-      <c r="AQ224" t="s">
+    <row r="195" spans="57:57">
+      <c r="BE195" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="225" spans="43:43">
-      <c r="AQ225" t="s">
+    <row r="196" spans="57:57">
+      <c r="BE196" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="226" spans="43:43">
-      <c r="AQ226" t="s">
+    <row r="197" spans="57:57">
+      <c r="BE197" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="227" spans="43:43">
-      <c r="AQ227" t="s">
+    <row r="198" spans="57:57">
+      <c r="BE198" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="228" spans="43:43">
-      <c r="AQ228" t="s">
+    <row r="199" spans="57:57">
+      <c r="BE199" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="229" spans="43:43">
-      <c r="AQ229" t="s">
+    <row r="200" spans="57:57">
+      <c r="BE200" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="230" spans="43:43">
-      <c r="AQ230" t="s">
+    <row r="201" spans="57:57">
+      <c r="BE201" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="231" spans="43:43">
-      <c r="AQ231" t="s">
+    <row r="202" spans="57:57">
+      <c r="BE202" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="232" spans="43:43">
-      <c r="AQ232" t="s">
+    <row r="203" spans="57:57">
+      <c r="BE203" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="233" spans="43:43">
-      <c r="AQ233" t="s">
+    <row r="204" spans="57:57">
+      <c r="BE204" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="234" spans="43:43">
-      <c r="AQ234" t="s">
+    <row r="205" spans="57:57">
+      <c r="BE205" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="235" spans="43:43">
-      <c r="AQ235" t="s">
+    <row r="206" spans="57:57">
+      <c r="BE206" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="236" spans="43:43">
-      <c r="AQ236" t="s">
+    <row r="207" spans="57:57">
+      <c r="BE207" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="237" spans="43:43">
-      <c r="AQ237" t="s">
+    <row r="208" spans="57:57">
+      <c r="BE208" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="238" spans="43:43">
-      <c r="AQ238" t="s">
+    <row r="209" spans="57:57">
+      <c r="BE209" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="239" spans="43:43">
-      <c r="AQ239" t="s">
+    <row r="210" spans="57:57">
+      <c r="BE210" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="240" spans="43:43">
-      <c r="AQ240" t="s">
+    <row r="211" spans="57:57">
+      <c r="BE211" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="241" spans="43:43">
-      <c r="AQ241" t="s">
+    <row r="212" spans="57:57">
+      <c r="BE212" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="242" spans="43:43">
-      <c r="AQ242" t="s">
+    <row r="213" spans="57:57">
+      <c r="BE213" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="243" spans="43:43">
-      <c r="AQ243" t="s">
+    <row r="214" spans="57:57">
+      <c r="BE214" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="244" spans="43:43">
-      <c r="AQ244" t="s">
+    <row r="215" spans="57:57">
+      <c r="BE215" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="245" spans="43:43">
-      <c r="AQ245" t="s">
+    <row r="216" spans="57:57">
+      <c r="BE216" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="246" spans="43:43">
-      <c r="AQ246" t="s">
+    <row r="217" spans="57:57">
+      <c r="BE217" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="247" spans="43:43">
-      <c r="AQ247" t="s">
+    <row r="218" spans="57:57">
+      <c r="BE218" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="248" spans="43:43">
-      <c r="AQ248" t="s">
+    <row r="219" spans="57:57">
+      <c r="BE219" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="249" spans="43:43">
-      <c r="AQ249" t="s">
+    <row r="220" spans="57:57">
+      <c r="BE220" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="250" spans="43:43">
-      <c r="AQ250" t="s">
+    <row r="221" spans="57:57">
+      <c r="BE221" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="251" spans="43:43">
-      <c r="AQ251" t="s">
+    <row r="222" spans="57:57">
+      <c r="BE222" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="252" spans="43:43">
-      <c r="AQ252" t="s">
+    <row r="223" spans="57:57">
+      <c r="BE223" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="253" spans="43:43">
-      <c r="AQ253" t="s">
+    <row r="224" spans="57:57">
+      <c r="BE224" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="254" spans="43:43">
-      <c r="AQ254" t="s">
+    <row r="225" spans="57:57">
+      <c r="BE225" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="255" spans="43:43">
-      <c r="AQ255" t="s">
+    <row r="226" spans="57:57">
+      <c r="BE226" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="256" spans="43:43">
-      <c r="AQ256" t="s">
+    <row r="227" spans="57:57">
+      <c r="BE227" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="257" spans="43:43">
-      <c r="AQ257" t="s">
+    <row r="228" spans="57:57">
+      <c r="BE228" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="258" spans="43:43">
-      <c r="AQ258" t="s">
+    <row r="229" spans="57:57">
+      <c r="BE229" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="259" spans="43:43">
-      <c r="AQ259" t="s">
+    <row r="230" spans="57:57">
+      <c r="BE230" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="260" spans="43:43">
-      <c r="AQ260" t="s">
+    <row r="231" spans="57:57">
+      <c r="BE231" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="261" spans="43:43">
-      <c r="AQ261" t="s">
+    <row r="232" spans="57:57">
+      <c r="BE232" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="262" spans="43:43">
-      <c r="AQ262" t="s">
+    <row r="233" spans="57:57">
+      <c r="BE233" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="263" spans="43:43">
-      <c r="AQ263" t="s">
+    <row r="234" spans="57:57">
+      <c r="BE234" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="264" spans="43:43">
-      <c r="AQ264" t="s">
+    <row r="235" spans="57:57">
+      <c r="BE235" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="265" spans="43:43">
-      <c r="AQ265" t="s">
+    <row r="236" spans="57:57">
+      <c r="BE236" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="266" spans="43:43">
-      <c r="AQ266" t="s">
+    <row r="237" spans="57:57">
+      <c r="BE237" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="267" spans="43:43">
-      <c r="AQ267" t="s">
+    <row r="238" spans="57:57">
+      <c r="BE238" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="268" spans="43:43">
-      <c r="AQ268" t="s">
+    <row r="239" spans="57:57">
+      <c r="BE239" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="269" spans="43:43">
-      <c r="AQ269" t="s">
+    <row r="240" spans="57:57">
+      <c r="BE240" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="270" spans="43:43">
-      <c r="AQ270" t="s">
+    <row r="241" spans="57:57">
+      <c r="BE241" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="271" spans="43:43">
-      <c r="AQ271" t="s">
+    <row r="242" spans="57:57">
+      <c r="BE242" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="272" spans="43:43">
-      <c r="AQ272" t="s">
+    <row r="243" spans="57:57">
+      <c r="BE243" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="273" spans="43:43">
-      <c r="AQ273" t="s">
+    <row r="244" spans="57:57">
+      <c r="BE244" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="274" spans="43:43">
-      <c r="AQ274" t="s">
+    <row r="245" spans="57:57">
+      <c r="BE245" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="275" spans="43:43">
-      <c r="AQ275" t="s">
+    <row r="246" spans="57:57">
+      <c r="BE246" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="276" spans="43:43">
-      <c r="AQ276" t="s">
+    <row r="247" spans="57:57">
+      <c r="BE247" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="277" spans="43:43">
-      <c r="AQ277" t="s">
+    <row r="248" spans="57:57">
+      <c r="BE248" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="278" spans="43:43">
-      <c r="AQ278" t="s">
+    <row r="249" spans="57:57">
+      <c r="BE249" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="279" spans="43:43">
-      <c r="AQ279" t="s">
+    <row r="250" spans="57:57">
+      <c r="BE250" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="280" spans="43:43">
-      <c r="AQ280" t="s">
+    <row r="251" spans="57:57">
+      <c r="BE251" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="281" spans="43:43">
-      <c r="AQ281" t="s">
+    <row r="252" spans="57:57">
+      <c r="BE252" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="282" spans="43:43">
-      <c r="AQ282" t="s">
+    <row r="253" spans="57:57">
+      <c r="BE253" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="283" spans="43:43">
-      <c r="AQ283" t="s">
+    <row r="254" spans="57:57">
+      <c r="BE254" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="284" spans="43:43">
-      <c r="AQ284" t="s">
+    <row r="255" spans="57:57">
+      <c r="BE255" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="285" spans="43:43">
-      <c r="AQ285" t="s">
+    <row r="256" spans="57:57">
+      <c r="BE256" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="286" spans="43:43">
-      <c r="AQ286" t="s">
+    <row r="257" spans="57:57">
+      <c r="BE257" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="287" spans="43:43">
-      <c r="AQ287" t="s">
+    <row r="258" spans="57:57">
+      <c r="BE258" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="288" spans="43:43">
-      <c r="AQ288" t="s">
+    <row r="259" spans="57:57">
+      <c r="BE259" t="s">
         <v>677</v>
+      </c>
+    </row>
+    <row r="260" spans="57:57">
+      <c r="BE260" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="261" spans="57:57">
+      <c r="BE261" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="262" spans="57:57">
+      <c r="BE262" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="263" spans="57:57">
+      <c r="BE263" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="264" spans="57:57">
+      <c r="BE264" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="265" spans="57:57">
+      <c r="BE265" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="266" spans="57:57">
+      <c r="BE266" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="267" spans="57:57">
+      <c r="BE267" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="268" spans="57:57">
+      <c r="BE268" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="269" spans="57:57">
+      <c r="BE269" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="270" spans="57:57">
+      <c r="BE270" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="271" spans="57:57">
+      <c r="BE271" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="272" spans="57:57">
+      <c r="BE272" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="273" spans="57:57">
+      <c r="BE273" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="274" spans="57:57">
+      <c r="BE274" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="275" spans="57:57">
+      <c r="BE275" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="276" spans="57:57">
+      <c r="BE276" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="277" spans="57:57">
+      <c r="BE277" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="278" spans="57:57">
+      <c r="BE278" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="279" spans="57:57">
+      <c r="BE279" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="280" spans="57:57">
+      <c r="BE280" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="281" spans="57:57">
+      <c r="BE281" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="282" spans="57:57">
+      <c r="BE282" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="283" spans="57:57">
+      <c r="BE283" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="284" spans="57:57">
+      <c r="BE284" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="285" spans="57:57">
+      <c r="BE285" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="286" spans="57:57">
+      <c r="BE286" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="287" spans="57:57">
+      <c r="BE287" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="288" spans="57:57">
+      <c r="BE288" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="289" spans="57:57">
+      <c r="BE289" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -117,7 +117,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -135,7 +135,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="904">
   <si>
     <t>alias</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3284,7 +3287,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3328,7 +3331,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3358,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4067,6 +4070,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4091,27 +4099,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4134,122 +4142,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4276,912 +4284,912 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:152" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -5225,1606 +5233,1606 @@
   <sheetData>
     <row r="1" spans="6:123">
       <c r="F1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BE1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="DS1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="6:123">
       <c r="F2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="U2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AJ2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BE2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="DS2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="6:123">
       <c r="F3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="BE3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="DS3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="6:123">
       <c r="F4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BE4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DS4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="6:123">
       <c r="F5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BE5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="6:123">
       <c r="F6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BE6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="6:123">
       <c r="F7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BE7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="6:123">
       <c r="F8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BE8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="6:123">
       <c r="F9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BE9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="6:123">
       <c r="F10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BE10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="6:123">
       <c r="F11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BE11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="6:123">
       <c r="F12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BE12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="6:123">
       <c r="F13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BE13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="6:123">
       <c r="F14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BE14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="6:123">
       <c r="F15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BE15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="6:123">
       <c r="F16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BE16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="6:57">
       <c r="F17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BE17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="6:57">
       <c r="F18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BE18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="6:57">
       <c r="F19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BE19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="6:57">
       <c r="F20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BE20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="6:57">
       <c r="F21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BE21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="6:57">
       <c r="F22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BE22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="6:57">
       <c r="F23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BE23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="6:57">
       <c r="F24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BE24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="6:57">
       <c r="F25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BE25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="6:57">
       <c r="F26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BE26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="6:57">
       <c r="F27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BE27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="6:57">
       <c r="F28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BE28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="6:57">
       <c r="F29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BE29" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="6:57">
       <c r="F30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BE30" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="6:57">
       <c r="BE31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="6:57">
       <c r="BE32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="57:57">
       <c r="BE33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="57:57">
       <c r="BE34" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="57:57">
       <c r="BE35" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="57:57">
       <c r="BE36" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="57:57">
       <c r="BE37" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="57:57">
       <c r="BE38" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="57:57">
       <c r="BE39" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="57:57">
       <c r="BE40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="57:57">
       <c r="BE41" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="57:57">
       <c r="BE42" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="57:57">
       <c r="BE43" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="57:57">
       <c r="BE44" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="57:57">
       <c r="BE45" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="57:57">
       <c r="BE46" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="57:57">
       <c r="BE47" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="57:57">
       <c r="BE48" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="57:57">
       <c r="BE49" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="57:57">
       <c r="BE50" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="57:57">
       <c r="BE51" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="57:57">
       <c r="BE52" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="57:57">
       <c r="BE53" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="57:57">
       <c r="BE54" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="57:57">
       <c r="BE55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="57:57">
       <c r="BE56" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="57:57">
       <c r="BE57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="57:57">
       <c r="BE58" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="57:57">
       <c r="BE59" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="57:57">
       <c r="BE60" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="57:57">
       <c r="BE61" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="57:57">
       <c r="BE62" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="57:57">
       <c r="BE63" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="57:57">
       <c r="BE64" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="57:57">
       <c r="BE65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="57:57">
       <c r="BE66" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="57:57">
       <c r="BE67" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="68" spans="57:57">
       <c r="BE68" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" spans="57:57">
       <c r="BE69" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="57:57">
       <c r="BE70" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="57:57">
       <c r="BE71" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" spans="57:57">
       <c r="BE72" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="57:57">
       <c r="BE73" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="57:57">
       <c r="BE74" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="57:57">
       <c r="BE75" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="57:57">
       <c r="BE76" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="57:57">
       <c r="BE77" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78" spans="57:57">
       <c r="BE78" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="57:57">
       <c r="BE79" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="57:57">
       <c r="BE80" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="57:57">
       <c r="BE81" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="57:57">
       <c r="BE82" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" spans="57:57">
       <c r="BE83" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="57:57">
       <c r="BE84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85" spans="57:57">
       <c r="BE85" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="57:57">
       <c r="BE86" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="57:57">
       <c r="BE87" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="57:57">
       <c r="BE88" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="89" spans="57:57">
       <c r="BE89" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="57:57">
       <c r="BE90" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="57:57">
       <c r="BE91" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="92" spans="57:57">
       <c r="BE92" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="57:57">
       <c r="BE93" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94" spans="57:57">
       <c r="BE94" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95" spans="57:57">
       <c r="BE95" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="96" spans="57:57">
       <c r="BE96" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="97" spans="57:57">
       <c r="BE97" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="57:57">
       <c r="BE98" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="99" spans="57:57">
       <c r="BE99" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="100" spans="57:57">
       <c r="BE100" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="57:57">
       <c r="BE101" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="57:57">
       <c r="BE102" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="103" spans="57:57">
       <c r="BE103" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="104" spans="57:57">
       <c r="BE104" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="105" spans="57:57">
       <c r="BE105" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="57:57">
       <c r="BE106" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="57:57">
       <c r="BE107" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="108" spans="57:57">
       <c r="BE108" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="109" spans="57:57">
       <c r="BE109" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110" spans="57:57">
       <c r="BE110" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111" spans="57:57">
       <c r="BE111" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="112" spans="57:57">
       <c r="BE112" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="57:57">
       <c r="BE113" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="57:57">
       <c r="BE114" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="57:57">
       <c r="BE115" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="116" spans="57:57">
       <c r="BE116" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="117" spans="57:57">
       <c r="BE117" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="57:57">
       <c r="BE118" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="119" spans="57:57">
       <c r="BE119" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="120" spans="57:57">
       <c r="BE120" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="57:57">
       <c r="BE121" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="57:57">
       <c r="BE122" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="123" spans="57:57">
       <c r="BE123" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="124" spans="57:57">
       <c r="BE124" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="57:57">
       <c r="BE125" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="126" spans="57:57">
       <c r="BE126" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="127" spans="57:57">
       <c r="BE127" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="128" spans="57:57">
       <c r="BE128" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="57:57">
       <c r="BE129" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130" spans="57:57">
       <c r="BE130" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="131" spans="57:57">
       <c r="BE131" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="57:57">
       <c r="BE132" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133" spans="57:57">
       <c r="BE133" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="134" spans="57:57">
       <c r="BE134" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="57:57">
       <c r="BE135" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="136" spans="57:57">
       <c r="BE136" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="137" spans="57:57">
       <c r="BE137" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="138" spans="57:57">
       <c r="BE138" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="139" spans="57:57">
       <c r="BE139" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140" spans="57:57">
       <c r="BE140" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="141" spans="57:57">
       <c r="BE141" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="142" spans="57:57">
       <c r="BE142" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="143" spans="57:57">
       <c r="BE143" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="57:57">
       <c r="BE144" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="145" spans="57:57">
       <c r="BE145" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="57:57">
       <c r="BE146" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147" spans="57:57">
       <c r="BE147" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="148" spans="57:57">
       <c r="BE148" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="57:57">
       <c r="BE149" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="150" spans="57:57">
       <c r="BE150" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="151" spans="57:57">
       <c r="BE151" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="152" spans="57:57">
       <c r="BE152" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="57:57">
       <c r="BE153" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="57:57">
       <c r="BE154" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="57:57">
       <c r="BE155" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="156" spans="57:57">
       <c r="BE156" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157" spans="57:57">
       <c r="BE157" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="57:57">
       <c r="BE158" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="57:57">
       <c r="BE159" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="57:57">
       <c r="BE160" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="57:57">
       <c r="BE161" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="57:57">
       <c r="BE162" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="57:57">
       <c r="BE163" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="57:57">
       <c r="BE164" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="165" spans="57:57">
       <c r="BE165" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="166" spans="57:57">
       <c r="BE166" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="167" spans="57:57">
       <c r="BE167" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="168" spans="57:57">
       <c r="BE168" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="169" spans="57:57">
       <c r="BE169" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" spans="57:57">
       <c r="BE170" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="171" spans="57:57">
       <c r="BE171" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="172" spans="57:57">
       <c r="BE172" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="173" spans="57:57">
       <c r="BE173" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="174" spans="57:57">
       <c r="BE174" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="175" spans="57:57">
       <c r="BE175" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="176" spans="57:57">
       <c r="BE176" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="177" spans="57:57">
       <c r="BE177" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="178" spans="57:57">
       <c r="BE178" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="179" spans="57:57">
       <c r="BE179" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="180" spans="57:57">
       <c r="BE180" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="181" spans="57:57">
       <c r="BE181" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="182" spans="57:57">
       <c r="BE182" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="183" spans="57:57">
       <c r="BE183" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="184" spans="57:57">
       <c r="BE184" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="185" spans="57:57">
       <c r="BE185" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="186" spans="57:57">
       <c r="BE186" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="187" spans="57:57">
       <c r="BE187" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="188" spans="57:57">
       <c r="BE188" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="189" spans="57:57">
       <c r="BE189" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="190" spans="57:57">
       <c r="BE190" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="191" spans="57:57">
       <c r="BE191" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="192" spans="57:57">
       <c r="BE192" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="193" spans="57:57">
       <c r="BE193" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="194" spans="57:57">
       <c r="BE194" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="195" spans="57:57">
       <c r="BE195" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="196" spans="57:57">
       <c r="BE196" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="197" spans="57:57">
       <c r="BE197" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="198" spans="57:57">
       <c r="BE198" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="199" spans="57:57">
       <c r="BE199" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="200" spans="57:57">
       <c r="BE200" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="201" spans="57:57">
       <c r="BE201" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="202" spans="57:57">
       <c r="BE202" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="203" spans="57:57">
       <c r="BE203" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="204" spans="57:57">
       <c r="BE204" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="205" spans="57:57">
       <c r="BE205" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="206" spans="57:57">
       <c r="BE206" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="207" spans="57:57">
       <c r="BE207" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="208" spans="57:57">
       <c r="BE208" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="209" spans="57:57">
       <c r="BE209" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="210" spans="57:57">
       <c r="BE210" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="211" spans="57:57">
       <c r="BE211" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="212" spans="57:57">
       <c r="BE212" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="213" spans="57:57">
       <c r="BE213" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="214" spans="57:57">
       <c r="BE214" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="215" spans="57:57">
       <c r="BE215" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="216" spans="57:57">
       <c r="BE216" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="217" spans="57:57">
       <c r="BE217" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="218" spans="57:57">
       <c r="BE218" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="219" spans="57:57">
       <c r="BE219" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="220" spans="57:57">
       <c r="BE220" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="221" spans="57:57">
       <c r="BE221" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="222" spans="57:57">
       <c r="BE222" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="223" spans="57:57">
       <c r="BE223" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="224" spans="57:57">
       <c r="BE224" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="225" spans="57:57">
       <c r="BE225" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="226" spans="57:57">
       <c r="BE226" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="227" spans="57:57">
       <c r="BE227" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="228" spans="57:57">
       <c r="BE228" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="229" spans="57:57">
       <c r="BE229" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="230" spans="57:57">
       <c r="BE230" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="231" spans="57:57">
       <c r="BE231" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="232" spans="57:57">
       <c r="BE232" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="233" spans="57:57">
       <c r="BE233" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="234" spans="57:57">
       <c r="BE234" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="235" spans="57:57">
       <c r="BE235" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="236" spans="57:57">
       <c r="BE236" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="237" spans="57:57">
       <c r="BE237" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="238" spans="57:57">
       <c r="BE238" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="239" spans="57:57">
       <c r="BE239" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="240" spans="57:57">
       <c r="BE240" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="241" spans="57:57">
       <c r="BE241" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="242" spans="57:57">
       <c r="BE242" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="243" spans="57:57">
       <c r="BE243" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="244" spans="57:57">
       <c r="BE244" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="245" spans="57:57">
       <c r="BE245" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="246" spans="57:57">
       <c r="BE246" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="247" spans="57:57">
       <c r="BE247" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="248" spans="57:57">
       <c r="BE248" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="249" spans="57:57">
       <c r="BE249" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="250" spans="57:57">
       <c r="BE250" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="251" spans="57:57">
       <c r="BE251" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="252" spans="57:57">
       <c r="BE252" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="253" spans="57:57">
       <c r="BE253" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="254" spans="57:57">
       <c r="BE254" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="255" spans="57:57">
       <c r="BE255" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="256" spans="57:57">
       <c r="BE256" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="257" spans="57:57">
       <c r="BE257" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="258" spans="57:57">
       <c r="BE258" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="259" spans="57:57">
       <c r="BE259" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="260" spans="57:57">
       <c r="BE260" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="261" spans="57:57">
       <c r="BE261" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="262" spans="57:57">
       <c r="BE262" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="263" spans="57:57">
       <c r="BE263" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="264" spans="57:57">
       <c r="BE264" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="265" spans="57:57">
       <c r="BE265" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="266" spans="57:57">
       <c r="BE266" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="267" spans="57:57">
       <c r="BE267" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="268" spans="57:57">
       <c r="BE268" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="269" spans="57:57">
       <c r="BE269" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="270" spans="57:57">
       <c r="BE270" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="271" spans="57:57">
       <c r="BE271" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="272" spans="57:57">
       <c r="BE272" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="273" spans="57:57">
       <c r="BE273" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="274" spans="57:57">
       <c r="BE274" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="275" spans="57:57">
       <c r="BE275" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="276" spans="57:57">
       <c r="BE276" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="277" spans="57:57">
       <c r="BE277" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="278" spans="57:57">
       <c r="BE278" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="279" spans="57:57">
       <c r="BE279" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="280" spans="57:57">
       <c r="BE280" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="281" spans="57:57">
       <c r="BE281" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="282" spans="57:57">
       <c r="BE282" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="283" spans="57:57">
       <c r="BE283" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="284" spans="57:57">
       <c r="BE284" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="285" spans="57:57">
       <c r="BE285" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="286" spans="57:57">
       <c r="BE286" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="287" spans="57:57">
       <c r="BE287" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="288" spans="57:57">
       <c r="BE288" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="289" spans="57:57">
       <c r="BE289" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="905">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3287,7 +3290,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3331,7 +3334,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3361,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4075,6 +4078,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4099,27 +4107,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4142,122 +4150,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4284,912 +4292,912 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:152" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -5233,1606 +5241,1606 @@
   <sheetData>
     <row r="1" spans="6:123">
       <c r="F1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="U1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AJ1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BE1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="DS1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="6:123">
       <c r="F2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BE2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="DS2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="6:123">
       <c r="F3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="BE3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DS3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="6:123">
       <c r="F4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BE4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="DS4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="6:123">
       <c r="F5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BE5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="6:123">
       <c r="F6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BE6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="6:123">
       <c r="F7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BE7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="6:123">
       <c r="F8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BE8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="6:123">
       <c r="F9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BE9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="6:123">
       <c r="F10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BE10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="6:123">
       <c r="F11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BE11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="6:123">
       <c r="F12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BE12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="6:123">
       <c r="F13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BE13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="6:123">
       <c r="F14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BE14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="6:123">
       <c r="F15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BE15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="6:123">
       <c r="F16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BE16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="6:57">
       <c r="F17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BE17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="6:57">
       <c r="F18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BE18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="6:57">
       <c r="F19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BE19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="6:57">
       <c r="F20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BE20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="6:57">
       <c r="F21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BE21" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="6:57">
       <c r="F22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BE22" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="6:57">
       <c r="F23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BE23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="6:57">
       <c r="F24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BE24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="6:57">
       <c r="F25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BE25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="6:57">
       <c r="F26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BE26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="6:57">
       <c r="F27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BE27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="6:57">
       <c r="F28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BE28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="6:57">
       <c r="F29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BE29" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="6:57">
       <c r="F30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BE30" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="6:57">
       <c r="BE31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="6:57">
       <c r="BE32" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="57:57">
       <c r="BE33" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="57:57">
       <c r="BE34" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="57:57">
       <c r="BE35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="57:57">
       <c r="BE36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="57:57">
       <c r="BE37" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="57:57">
       <c r="BE38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="57:57">
       <c r="BE39" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="57:57">
       <c r="BE40" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="57:57">
       <c r="BE41" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="57:57">
       <c r="BE42" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="57:57">
       <c r="BE43" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="57:57">
       <c r="BE44" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="57:57">
       <c r="BE45" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="57:57">
       <c r="BE46" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="57:57">
       <c r="BE47" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="57:57">
       <c r="BE48" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="57:57">
       <c r="BE49" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="57:57">
       <c r="BE50" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="57:57">
       <c r="BE51" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="57:57">
       <c r="BE52" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="57:57">
       <c r="BE53" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="57:57">
       <c r="BE54" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="57:57">
       <c r="BE55" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="57:57">
       <c r="BE56" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="57:57">
       <c r="BE57" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="57:57">
       <c r="BE58" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="57:57">
       <c r="BE59" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="57:57">
       <c r="BE60" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="57:57">
       <c r="BE61" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="57:57">
       <c r="BE62" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="57:57">
       <c r="BE63" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="57:57">
       <c r="BE64" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="57:57">
       <c r="BE65" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="57:57">
       <c r="BE66" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="57:57">
       <c r="BE67" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68" spans="57:57">
       <c r="BE68" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="57:57">
       <c r="BE69" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="57:57">
       <c r="BE70" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="57:57">
       <c r="BE71" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="57:57">
       <c r="BE72" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="57:57">
       <c r="BE73" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="57:57">
       <c r="BE74" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="57:57">
       <c r="BE75" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="57:57">
       <c r="BE76" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" spans="57:57">
       <c r="BE77" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="57:57">
       <c r="BE78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" spans="57:57">
       <c r="BE79" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="57:57">
       <c r="BE80" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="57:57">
       <c r="BE81" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="57:57">
       <c r="BE82" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="57:57">
       <c r="BE83" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="57:57">
       <c r="BE84" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="57:57">
       <c r="BE85" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="57:57">
       <c r="BE86" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="57:57">
       <c r="BE87" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="57:57">
       <c r="BE88" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" spans="57:57">
       <c r="BE89" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90" spans="57:57">
       <c r="BE90" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="91" spans="57:57">
       <c r="BE91" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="57:57">
       <c r="BE92" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93" spans="57:57">
       <c r="BE93" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94" spans="57:57">
       <c r="BE94" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="57:57">
       <c r="BE95" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" spans="57:57">
       <c r="BE96" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="57:57">
       <c r="BE97" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="98" spans="57:57">
       <c r="BE98" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="57:57">
       <c r="BE99" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="100" spans="57:57">
       <c r="BE100" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="101" spans="57:57">
       <c r="BE101" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="102" spans="57:57">
       <c r="BE102" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="103" spans="57:57">
       <c r="BE103" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="104" spans="57:57">
       <c r="BE104" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="105" spans="57:57">
       <c r="BE105" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="106" spans="57:57">
       <c r="BE106" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="57:57">
       <c r="BE107" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="108" spans="57:57">
       <c r="BE108" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="109" spans="57:57">
       <c r="BE109" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="110" spans="57:57">
       <c r="BE110" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="111" spans="57:57">
       <c r="BE111" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112" spans="57:57">
       <c r="BE112" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="57:57">
       <c r="BE113" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="114" spans="57:57">
       <c r="BE114" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="115" spans="57:57">
       <c r="BE115" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116" spans="57:57">
       <c r="BE116" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="117" spans="57:57">
       <c r="BE117" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="118" spans="57:57">
       <c r="BE118" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="119" spans="57:57">
       <c r="BE119" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="57:57">
       <c r="BE120" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="121" spans="57:57">
       <c r="BE121" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="122" spans="57:57">
       <c r="BE122" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="123" spans="57:57">
       <c r="BE123" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="124" spans="57:57">
       <c r="BE124" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="125" spans="57:57">
       <c r="BE125" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="126" spans="57:57">
       <c r="BE126" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="127" spans="57:57">
       <c r="BE127" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128" spans="57:57">
       <c r="BE128" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="129" spans="57:57">
       <c r="BE129" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="130" spans="57:57">
       <c r="BE130" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="131" spans="57:57">
       <c r="BE131" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="132" spans="57:57">
       <c r="BE132" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="133" spans="57:57">
       <c r="BE133" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="57:57">
       <c r="BE134" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="135" spans="57:57">
       <c r="BE135" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="136" spans="57:57">
       <c r="BE136" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="137" spans="57:57">
       <c r="BE137" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="138" spans="57:57">
       <c r="BE138" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139" spans="57:57">
       <c r="BE139" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="140" spans="57:57">
       <c r="BE140" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="141" spans="57:57">
       <c r="BE141" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="142" spans="57:57">
       <c r="BE142" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="143" spans="57:57">
       <c r="BE143" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="57:57">
       <c r="BE144" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="57:57">
       <c r="BE145" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="57:57">
       <c r="BE146" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="57:57">
       <c r="BE147" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="57:57">
       <c r="BE148" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="149" spans="57:57">
       <c r="BE149" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="57:57">
       <c r="BE150" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="151" spans="57:57">
       <c r="BE151" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="57:57">
       <c r="BE152" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="153" spans="57:57">
       <c r="BE153" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="57:57">
       <c r="BE154" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="155" spans="57:57">
       <c r="BE155" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="156" spans="57:57">
       <c r="BE156" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="157" spans="57:57">
       <c r="BE157" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="158" spans="57:57">
       <c r="BE158" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159" spans="57:57">
       <c r="BE159" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="57:57">
       <c r="BE160" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="57:57">
       <c r="BE161" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="57:57">
       <c r="BE162" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="163" spans="57:57">
       <c r="BE163" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="164" spans="57:57">
       <c r="BE164" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="57:57">
       <c r="BE165" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="166" spans="57:57">
       <c r="BE166" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="167" spans="57:57">
       <c r="BE167" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="168" spans="57:57">
       <c r="BE168" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="169" spans="57:57">
       <c r="BE169" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="170" spans="57:57">
       <c r="BE170" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="171" spans="57:57">
       <c r="BE171" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="172" spans="57:57">
       <c r="BE172" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="173" spans="57:57">
       <c r="BE173" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="174" spans="57:57">
       <c r="BE174" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="175" spans="57:57">
       <c r="BE175" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="176" spans="57:57">
       <c r="BE176" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="177" spans="57:57">
       <c r="BE177" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="178" spans="57:57">
       <c r="BE178" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="179" spans="57:57">
       <c r="BE179" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="180" spans="57:57">
       <c r="BE180" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="57:57">
       <c r="BE181" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="182" spans="57:57">
       <c r="BE182" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="183" spans="57:57">
       <c r="BE183" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="184" spans="57:57">
       <c r="BE184" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="57:57">
       <c r="BE185" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="186" spans="57:57">
       <c r="BE186" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="187" spans="57:57">
       <c r="BE187" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="188" spans="57:57">
       <c r="BE188" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="189" spans="57:57">
       <c r="BE189" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="190" spans="57:57">
       <c r="BE190" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="191" spans="57:57">
       <c r="BE191" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="192" spans="57:57">
       <c r="BE192" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="193" spans="57:57">
       <c r="BE193" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="57:57">
       <c r="BE194" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="195" spans="57:57">
       <c r="BE195" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="57:57">
       <c r="BE196" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="197" spans="57:57">
       <c r="BE197" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="198" spans="57:57">
       <c r="BE198" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="199" spans="57:57">
       <c r="BE199" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="200" spans="57:57">
       <c r="BE200" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="201" spans="57:57">
       <c r="BE201" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="202" spans="57:57">
       <c r="BE202" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="203" spans="57:57">
       <c r="BE203" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204" spans="57:57">
       <c r="BE204" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="205" spans="57:57">
       <c r="BE205" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="206" spans="57:57">
       <c r="BE206" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="207" spans="57:57">
       <c r="BE207" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="208" spans="57:57">
       <c r="BE208" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="209" spans="57:57">
       <c r="BE209" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="210" spans="57:57">
       <c r="BE210" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="211" spans="57:57">
       <c r="BE211" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="212" spans="57:57">
       <c r="BE212" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="213" spans="57:57">
       <c r="BE213" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="214" spans="57:57">
       <c r="BE214" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="215" spans="57:57">
       <c r="BE215" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="216" spans="57:57">
       <c r="BE216" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="217" spans="57:57">
       <c r="BE217" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="218" spans="57:57">
       <c r="BE218" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="219" spans="57:57">
       <c r="BE219" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="220" spans="57:57">
       <c r="BE220" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="221" spans="57:57">
       <c r="BE221" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="222" spans="57:57">
       <c r="BE222" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="223" spans="57:57">
       <c r="BE223" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="224" spans="57:57">
       <c r="BE224" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="57:57">
       <c r="BE225" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="226" spans="57:57">
       <c r="BE226" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="227" spans="57:57">
       <c r="BE227" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="228" spans="57:57">
       <c r="BE228" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="229" spans="57:57">
       <c r="BE229" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="230" spans="57:57">
       <c r="BE230" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="231" spans="57:57">
       <c r="BE231" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="232" spans="57:57">
       <c r="BE232" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="233" spans="57:57">
       <c r="BE233" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="234" spans="57:57">
       <c r="BE234" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="235" spans="57:57">
       <c r="BE235" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="236" spans="57:57">
       <c r="BE236" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="237" spans="57:57">
       <c r="BE237" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="238" spans="57:57">
       <c r="BE238" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="239" spans="57:57">
       <c r="BE239" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="240" spans="57:57">
       <c r="BE240" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="241" spans="57:57">
       <c r="BE241" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="242" spans="57:57">
       <c r="BE242" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="243" spans="57:57">
       <c r="BE243" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="244" spans="57:57">
       <c r="BE244" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="245" spans="57:57">
       <c r="BE245" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="246" spans="57:57">
       <c r="BE246" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="247" spans="57:57">
       <c r="BE247" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="248" spans="57:57">
       <c r="BE248" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="249" spans="57:57">
       <c r="BE249" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="250" spans="57:57">
       <c r="BE250" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="251" spans="57:57">
       <c r="BE251" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="252" spans="57:57">
       <c r="BE252" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="253" spans="57:57">
       <c r="BE253" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="254" spans="57:57">
       <c r="BE254" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="255" spans="57:57">
       <c r="BE255" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="256" spans="57:57">
       <c r="BE256" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="257" spans="57:57">
       <c r="BE257" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="258" spans="57:57">
       <c r="BE258" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="259" spans="57:57">
       <c r="BE259" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="260" spans="57:57">
       <c r="BE260" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="261" spans="57:57">
       <c r="BE261" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="262" spans="57:57">
       <c r="BE262" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="263" spans="57:57">
       <c r="BE263" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="264" spans="57:57">
       <c r="BE264" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="265" spans="57:57">
       <c r="BE265" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="266" spans="57:57">
       <c r="BE266" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="267" spans="57:57">
       <c r="BE267" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="268" spans="57:57">
       <c r="BE268" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="269" spans="57:57">
       <c r="BE269" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="270" spans="57:57">
       <c r="BE270" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="271" spans="57:57">
       <c r="BE271" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="272" spans="57:57">
       <c r="BE272" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="273" spans="57:57">
       <c r="BE273" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="274" spans="57:57">
       <c r="BE274" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="275" spans="57:57">
       <c r="BE275" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="276" spans="57:57">
       <c r="BE276" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="277" spans="57:57">
       <c r="BE277" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="278" spans="57:57">
       <c r="BE278" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="279" spans="57:57">
       <c r="BE279" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="280" spans="57:57">
       <c r="BE280" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="281" spans="57:57">
       <c r="BE281" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="282" spans="57:57">
       <c r="BE282" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="283" spans="57:57">
       <c r="BE283" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="284" spans="57:57">
       <c r="BE284" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="285" spans="57:57">
       <c r="BE285" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="286" spans="57:57">
       <c r="BE286" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="287" spans="57:57">
       <c r="BE287" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="288" spans="57:57">
       <c r="BE288" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="289" spans="57:57">
       <c r="BE289" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="906">
   <si>
     <t>alias</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3290,7 +3293,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3334,7 +3337,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3361,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4083,6 +4086,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4107,27 +4115,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4150,122 +4158,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4292,912 +4300,912 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:152" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -5241,1606 +5249,1606 @@
   <sheetData>
     <row r="1" spans="6:123">
       <c r="F1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BE1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="DS1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="6:123">
       <c r="F2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BE2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DS2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="6:123">
       <c r="F3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="BE3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="DS3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="6:123">
       <c r="F4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BE4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DS4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="6:123">
       <c r="F5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BE5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="6:123">
       <c r="F6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BE6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="6:123">
       <c r="F7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BE7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="6:123">
       <c r="F8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BE8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="6:123">
       <c r="F9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BE9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="6:123">
       <c r="F10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BE10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="6:123">
       <c r="F11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BE11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="6:123">
       <c r="F12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BE12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="6:123">
       <c r="F13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BE13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="6:123">
       <c r="F14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BE14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="6:123">
       <c r="F15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BE15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="6:123">
       <c r="F16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BE16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="6:57">
       <c r="F17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BE17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="6:57">
       <c r="F18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BE18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="6:57">
       <c r="F19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BE19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="6:57">
       <c r="F20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BE20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="6:57">
       <c r="F21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BE21" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="6:57">
       <c r="F22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BE22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="6:57">
       <c r="F23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BE23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="6:57">
       <c r="F24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BE24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="6:57">
       <c r="F25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BE25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="6:57">
       <c r="F26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BE26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="6:57">
       <c r="F27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BE27" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="6:57">
       <c r="F28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BE28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="6:57">
       <c r="F29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BE29" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="6:57">
       <c r="F30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BE30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="6:57">
       <c r="BE31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="6:57">
       <c r="BE32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="57:57">
       <c r="BE33" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="57:57">
       <c r="BE34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="57:57">
       <c r="BE35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="57:57">
       <c r="BE36" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="57:57">
       <c r="BE37" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="57:57">
       <c r="BE38" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="57:57">
       <c r="BE39" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="57:57">
       <c r="BE40" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="57:57">
       <c r="BE41" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="57:57">
       <c r="BE42" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="57:57">
       <c r="BE43" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="57:57">
       <c r="BE44" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="57:57">
       <c r="BE45" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="57:57">
       <c r="BE46" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="57:57">
       <c r="BE47" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="57:57">
       <c r="BE48" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="57:57">
       <c r="BE49" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="57:57">
       <c r="BE50" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="57:57">
       <c r="BE51" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="57:57">
       <c r="BE52" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="57:57">
       <c r="BE53" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" spans="57:57">
       <c r="BE54" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="57:57">
       <c r="BE55" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="57:57">
       <c r="BE56" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="57:57">
       <c r="BE57" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="57:57">
       <c r="BE58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="57:57">
       <c r="BE59" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="57:57">
       <c r="BE60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="57:57">
       <c r="BE61" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="57:57">
       <c r="BE62" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="57:57">
       <c r="BE63" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="57:57">
       <c r="BE64" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="57:57">
       <c r="BE65" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="57:57">
       <c r="BE66" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="57:57">
       <c r="BE67" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68" spans="57:57">
       <c r="BE68" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="57:57">
       <c r="BE69" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="57:57">
       <c r="BE70" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="57:57">
       <c r="BE71" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="57:57">
       <c r="BE72" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="57:57">
       <c r="BE73" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="57:57">
       <c r="BE74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="57:57">
       <c r="BE75" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="57:57">
       <c r="BE76" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="57:57">
       <c r="BE77" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="57:57">
       <c r="BE78" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="57:57">
       <c r="BE79" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="57:57">
       <c r="BE80" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="57:57">
       <c r="BE81" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="57:57">
       <c r="BE82" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="57:57">
       <c r="BE83" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="57:57">
       <c r="BE84" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="57:57">
       <c r="BE85" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86" spans="57:57">
       <c r="BE86" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="57:57">
       <c r="BE87" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="57:57">
       <c r="BE88" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89" spans="57:57">
       <c r="BE89" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="90" spans="57:57">
       <c r="BE90" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="91" spans="57:57">
       <c r="BE91" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="92" spans="57:57">
       <c r="BE92" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="93" spans="57:57">
       <c r="BE93" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94" spans="57:57">
       <c r="BE94" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="95" spans="57:57">
       <c r="BE95" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="57:57">
       <c r="BE96" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="97" spans="57:57">
       <c r="BE97" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="57:57">
       <c r="BE98" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="99" spans="57:57">
       <c r="BE99" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" spans="57:57">
       <c r="BE100" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="101" spans="57:57">
       <c r="BE101" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="57:57">
       <c r="BE102" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103" spans="57:57">
       <c r="BE103" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="57:57">
       <c r="BE104" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" spans="57:57">
       <c r="BE105" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="57:57">
       <c r="BE106" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107" spans="57:57">
       <c r="BE107" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="57:57">
       <c r="BE108" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" spans="57:57">
       <c r="BE109" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="57:57">
       <c r="BE110" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="57:57">
       <c r="BE111" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="57:57">
       <c r="BE112" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113" spans="57:57">
       <c r="BE113" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114" spans="57:57">
       <c r="BE114" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="115" spans="57:57">
       <c r="BE115" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="116" spans="57:57">
       <c r="BE116" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="117" spans="57:57">
       <c r="BE117" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="118" spans="57:57">
       <c r="BE118" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="57:57">
       <c r="BE119" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="57:57">
       <c r="BE120" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="121" spans="57:57">
       <c r="BE121" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="122" spans="57:57">
       <c r="BE122" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="123" spans="57:57">
       <c r="BE123" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="124" spans="57:57">
       <c r="BE124" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="125" spans="57:57">
       <c r="BE125" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="126" spans="57:57">
       <c r="BE126" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127" spans="57:57">
       <c r="BE127" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="57:57">
       <c r="BE128" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="129" spans="57:57">
       <c r="BE129" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="57:57">
       <c r="BE130" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="131" spans="57:57">
       <c r="BE131" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="132" spans="57:57">
       <c r="BE132" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="57:57">
       <c r="BE133" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134" spans="57:57">
       <c r="BE134" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="135" spans="57:57">
       <c r="BE135" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="136" spans="57:57">
       <c r="BE136" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="137" spans="57:57">
       <c r="BE137" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="138" spans="57:57">
       <c r="BE138" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="139" spans="57:57">
       <c r="BE139" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="140" spans="57:57">
       <c r="BE140" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="141" spans="57:57">
       <c r="BE141" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="142" spans="57:57">
       <c r="BE142" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="143" spans="57:57">
       <c r="BE143" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="57:57">
       <c r="BE144" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="57:57">
       <c r="BE145" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="57:57">
       <c r="BE146" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="57:57">
       <c r="BE147" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="57:57">
       <c r="BE148" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="57:57">
       <c r="BE149" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="150" spans="57:57">
       <c r="BE150" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="57:57">
       <c r="BE151" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="152" spans="57:57">
       <c r="BE152" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="57:57">
       <c r="BE153" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="57:57">
       <c r="BE154" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="155" spans="57:57">
       <c r="BE155" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="156" spans="57:57">
       <c r="BE156" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="157" spans="57:57">
       <c r="BE157" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="158" spans="57:57">
       <c r="BE158" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" spans="57:57">
       <c r="BE159" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="160" spans="57:57">
       <c r="BE160" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="57:57">
       <c r="BE161" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="57:57">
       <c r="BE162" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="163" spans="57:57">
       <c r="BE163" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="164" spans="57:57">
       <c r="BE164" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="165" spans="57:57">
       <c r="BE165" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="166" spans="57:57">
       <c r="BE166" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="167" spans="57:57">
       <c r="BE167" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="168" spans="57:57">
       <c r="BE168" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="169" spans="57:57">
       <c r="BE169" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="170" spans="57:57">
       <c r="BE170" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="171" spans="57:57">
       <c r="BE171" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="172" spans="57:57">
       <c r="BE172" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" spans="57:57">
       <c r="BE173" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="174" spans="57:57">
       <c r="BE174" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="175" spans="57:57">
       <c r="BE175" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="176" spans="57:57">
       <c r="BE176" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="177" spans="57:57">
       <c r="BE177" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="178" spans="57:57">
       <c r="BE178" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="179" spans="57:57">
       <c r="BE179" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="57:57">
       <c r="BE180" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="181" spans="57:57">
       <c r="BE181" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="182" spans="57:57">
       <c r="BE182" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="183" spans="57:57">
       <c r="BE183" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="184" spans="57:57">
       <c r="BE184" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="185" spans="57:57">
       <c r="BE185" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="186" spans="57:57">
       <c r="BE186" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="187" spans="57:57">
       <c r="BE187" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="57:57">
       <c r="BE188" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="189" spans="57:57">
       <c r="BE189" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="190" spans="57:57">
       <c r="BE190" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="191" spans="57:57">
       <c r="BE191" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="192" spans="57:57">
       <c r="BE192" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="193" spans="57:57">
       <c r="BE193" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="194" spans="57:57">
       <c r="BE194" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="195" spans="57:57">
       <c r="BE195" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="196" spans="57:57">
       <c r="BE196" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="197" spans="57:57">
       <c r="BE197" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="198" spans="57:57">
       <c r="BE198" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="199" spans="57:57">
       <c r="BE199" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="200" spans="57:57">
       <c r="BE200" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="201" spans="57:57">
       <c r="BE201" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="202" spans="57:57">
       <c r="BE202" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="203" spans="57:57">
       <c r="BE203" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="204" spans="57:57">
       <c r="BE204" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="205" spans="57:57">
       <c r="BE205" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="206" spans="57:57">
       <c r="BE206" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="207" spans="57:57">
       <c r="BE207" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="208" spans="57:57">
       <c r="BE208" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="209" spans="57:57">
       <c r="BE209" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="210" spans="57:57">
       <c r="BE210" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="211" spans="57:57">
       <c r="BE211" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="212" spans="57:57">
       <c r="BE212" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="213" spans="57:57">
       <c r="BE213" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="214" spans="57:57">
       <c r="BE214" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="215" spans="57:57">
       <c r="BE215" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="216" spans="57:57">
       <c r="BE216" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="217" spans="57:57">
       <c r="BE217" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="218" spans="57:57">
       <c r="BE218" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="219" spans="57:57">
       <c r="BE219" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="220" spans="57:57">
       <c r="BE220" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="221" spans="57:57">
       <c r="BE221" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="222" spans="57:57">
       <c r="BE222" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="223" spans="57:57">
       <c r="BE223" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="224" spans="57:57">
       <c r="BE224" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="225" spans="57:57">
       <c r="BE225" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="226" spans="57:57">
       <c r="BE226" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="227" spans="57:57">
       <c r="BE227" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="228" spans="57:57">
       <c r="BE228" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="229" spans="57:57">
       <c r="BE229" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="230" spans="57:57">
       <c r="BE230" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="231" spans="57:57">
       <c r="BE231" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="232" spans="57:57">
       <c r="BE232" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="233" spans="57:57">
       <c r="BE233" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="234" spans="57:57">
       <c r="BE234" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="235" spans="57:57">
       <c r="BE235" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="236" spans="57:57">
       <c r="BE236" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="237" spans="57:57">
       <c r="BE237" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="238" spans="57:57">
       <c r="BE238" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="239" spans="57:57">
       <c r="BE239" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="240" spans="57:57">
       <c r="BE240" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="241" spans="57:57">
       <c r="BE241" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="242" spans="57:57">
       <c r="BE242" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="243" spans="57:57">
       <c r="BE243" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="244" spans="57:57">
       <c r="BE244" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="245" spans="57:57">
       <c r="BE245" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="246" spans="57:57">
       <c r="BE246" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="247" spans="57:57">
       <c r="BE247" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="248" spans="57:57">
       <c r="BE248" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="249" spans="57:57">
       <c r="BE249" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="250" spans="57:57">
       <c r="BE250" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="251" spans="57:57">
       <c r="BE251" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="252" spans="57:57">
       <c r="BE252" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="253" spans="57:57">
       <c r="BE253" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="254" spans="57:57">
       <c r="BE254" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="255" spans="57:57">
       <c r="BE255" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="256" spans="57:57">
       <c r="BE256" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="257" spans="57:57">
       <c r="BE257" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="258" spans="57:57">
       <c r="BE258" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="259" spans="57:57">
       <c r="BE259" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="260" spans="57:57">
       <c r="BE260" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="261" spans="57:57">
       <c r="BE261" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="262" spans="57:57">
       <c r="BE262" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="263" spans="57:57">
       <c r="BE263" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="264" spans="57:57">
       <c r="BE264" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="265" spans="57:57">
       <c r="BE265" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="266" spans="57:57">
       <c r="BE266" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="267" spans="57:57">
       <c r="BE267" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="268" spans="57:57">
       <c r="BE268" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="269" spans="57:57">
       <c r="BE269" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="270" spans="57:57">
       <c r="BE270" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="271" spans="57:57">
       <c r="BE271" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="272" spans="57:57">
       <c r="BE272" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="273" spans="57:57">
       <c r="BE273" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="274" spans="57:57">
       <c r="BE274" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="275" spans="57:57">
       <c r="BE275" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="276" spans="57:57">
       <c r="BE276" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="277" spans="57:57">
       <c r="BE277" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="278" spans="57:57">
       <c r="BE278" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="279" spans="57:57">
       <c r="BE279" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="280" spans="57:57">
       <c r="BE280" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="281" spans="57:57">
       <c r="BE281" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="282" spans="57:57">
       <c r="BE282" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="283" spans="57:57">
       <c r="BE283" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="284" spans="57:57">
       <c r="BE284" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="285" spans="57:57">
       <c r="BE285" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="286" spans="57:57">
       <c r="BE286" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="287" spans="57:57">
       <c r="BE287" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="288" spans="57:57">
       <c r="BE288" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="289" spans="57:57">
       <c r="BE289" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="907">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3293,7 +3296,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3337,7 +3340,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3364,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4091,6 +4094,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4115,27 +4123,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4158,122 +4166,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4300,912 +4308,912 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:152" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -5249,1606 +5257,1606 @@
   <sheetData>
     <row r="1" spans="6:123">
       <c r="F1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AJ1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BE1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="DS1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="6:123">
       <c r="F2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BE2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="DS2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="6:123">
       <c r="F3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="BE3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="DS3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="6:123">
       <c r="F4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BE4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="DS4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="6:123">
       <c r="F5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BE5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="6:123">
       <c r="F6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BE6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="6:123">
       <c r="F7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BE7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="6:123">
       <c r="F8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BE8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="6:123">
       <c r="F9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BE9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="6:123">
       <c r="F10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BE10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="6:123">
       <c r="F11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BE11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="6:123">
       <c r="F12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BE12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="6:123">
       <c r="F13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BE13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="6:123">
       <c r="F14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BE14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="6:123">
       <c r="F15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BE15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="6:123">
       <c r="F16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BE16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="6:57">
       <c r="F17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BE17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="6:57">
       <c r="F18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BE18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="6:57">
       <c r="F19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BE19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="6:57">
       <c r="F20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BE20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="6:57">
       <c r="F21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BE21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="6:57">
       <c r="F22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BE22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="6:57">
       <c r="F23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BE23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="6:57">
       <c r="F24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BE24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="6:57">
       <c r="F25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BE25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="6:57">
       <c r="F26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BE26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="6:57">
       <c r="F27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BE27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="6:57">
       <c r="F28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BE28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="6:57">
       <c r="F29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BE29" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="6:57">
       <c r="F30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BE30" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="6:57">
       <c r="BE31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="6:57">
       <c r="BE32" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="57:57">
       <c r="BE33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="57:57">
       <c r="BE34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="57:57">
       <c r="BE35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="57:57">
       <c r="BE36" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="57:57">
       <c r="BE37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="57:57">
       <c r="BE38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="57:57">
       <c r="BE39" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="57:57">
       <c r="BE40" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="57:57">
       <c r="BE41" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="57:57">
       <c r="BE42" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="57:57">
       <c r="BE43" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="57:57">
       <c r="BE44" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="57:57">
       <c r="BE45" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="57:57">
       <c r="BE46" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="57:57">
       <c r="BE47" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="57:57">
       <c r="BE48" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="57:57">
       <c r="BE49" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="57:57">
       <c r="BE50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="57:57">
       <c r="BE51" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="57:57">
       <c r="BE52" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="57:57">
       <c r="BE53" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="57:57">
       <c r="BE54" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="57:57">
       <c r="BE55" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="57:57">
       <c r="BE56" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="57:57">
       <c r="BE57" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="57:57">
       <c r="BE58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="57:57">
       <c r="BE59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="57:57">
       <c r="BE60" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="57:57">
       <c r="BE61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="57:57">
       <c r="BE62" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="57:57">
       <c r="BE63" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="57:57">
       <c r="BE64" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="57:57">
       <c r="BE65" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="57:57">
       <c r="BE66" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="57:57">
       <c r="BE67" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="68" spans="57:57">
       <c r="BE68" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="57:57">
       <c r="BE69" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="57:57">
       <c r="BE70" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="57:57">
       <c r="BE71" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="57:57">
       <c r="BE72" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="57:57">
       <c r="BE73" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="57:57">
       <c r="BE74" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="57:57">
       <c r="BE75" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="57:57">
       <c r="BE76" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="57:57">
       <c r="BE77" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="57:57">
       <c r="BE78" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="57:57">
       <c r="BE79" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="57:57">
       <c r="BE80" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="57:57">
       <c r="BE81" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="57:57">
       <c r="BE82" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="57:57">
       <c r="BE83" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="57:57">
       <c r="BE84" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="57:57">
       <c r="BE85" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="57:57">
       <c r="BE86" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="57:57">
       <c r="BE87" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="88" spans="57:57">
       <c r="BE88" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="57:57">
       <c r="BE89" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="57:57">
       <c r="BE90" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="57:57">
       <c r="BE91" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" spans="57:57">
       <c r="BE92" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="93" spans="57:57">
       <c r="BE93" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="57:57">
       <c r="BE94" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="57:57">
       <c r="BE95" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="57:57">
       <c r="BE96" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="57:57">
       <c r="BE97" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="57:57">
       <c r="BE98" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="99" spans="57:57">
       <c r="BE99" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="100" spans="57:57">
       <c r="BE100" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="101" spans="57:57">
       <c r="BE101" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="57:57">
       <c r="BE102" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="57:57">
       <c r="BE103" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="104" spans="57:57">
       <c r="BE104" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="105" spans="57:57">
       <c r="BE105" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="106" spans="57:57">
       <c r="BE106" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107" spans="57:57">
       <c r="BE107" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="57:57">
       <c r="BE108" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109" spans="57:57">
       <c r="BE109" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="57:57">
       <c r="BE110" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="57:57">
       <c r="BE111" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112" spans="57:57">
       <c r="BE112" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113" spans="57:57">
       <c r="BE113" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114" spans="57:57">
       <c r="BE114" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="57:57">
       <c r="BE115" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="57:57">
       <c r="BE116" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="57:57">
       <c r="BE117" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="57:57">
       <c r="BE118" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="57:57">
       <c r="BE119" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="120" spans="57:57">
       <c r="BE120" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="57:57">
       <c r="BE121" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="57:57">
       <c r="BE122" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="57:57">
       <c r="BE123" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="57:57">
       <c r="BE124" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="125" spans="57:57">
       <c r="BE125" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="57:57">
       <c r="BE126" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="57:57">
       <c r="BE127" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="128" spans="57:57">
       <c r="BE128" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="57:57">
       <c r="BE129" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="57:57">
       <c r="BE130" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="131" spans="57:57">
       <c r="BE131" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="57:57">
       <c r="BE132" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="57:57">
       <c r="BE133" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" spans="57:57">
       <c r="BE134" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" spans="57:57">
       <c r="BE135" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" spans="57:57">
       <c r="BE136" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="137" spans="57:57">
       <c r="BE137" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="138" spans="57:57">
       <c r="BE138" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="139" spans="57:57">
       <c r="BE139" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="140" spans="57:57">
       <c r="BE140" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="57:57">
       <c r="BE141" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="57:57">
       <c r="BE142" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="57:57">
       <c r="BE143" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="57:57">
       <c r="BE144" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="57:57">
       <c r="BE145" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="57:57">
       <c r="BE146" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="147" spans="57:57">
       <c r="BE147" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="57:57">
       <c r="BE148" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="149" spans="57:57">
       <c r="BE149" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="150" spans="57:57">
       <c r="BE150" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="151" spans="57:57">
       <c r="BE151" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="57:57">
       <c r="BE152" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="57:57">
       <c r="BE153" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="57:57">
       <c r="BE154" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="155" spans="57:57">
       <c r="BE155" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="57:57">
       <c r="BE156" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157" spans="57:57">
       <c r="BE157" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="57:57">
       <c r="BE158" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="57:57">
       <c r="BE159" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="57:57">
       <c r="BE160" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="161" spans="57:57">
       <c r="BE161" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="162" spans="57:57">
       <c r="BE162" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" spans="57:57">
       <c r="BE163" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="164" spans="57:57">
       <c r="BE164" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="57:57">
       <c r="BE165" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="166" spans="57:57">
       <c r="BE166" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="167" spans="57:57">
       <c r="BE167" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="168" spans="57:57">
       <c r="BE168" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="57:57">
       <c r="BE169" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="170" spans="57:57">
       <c r="BE170" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="171" spans="57:57">
       <c r="BE171" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="172" spans="57:57">
       <c r="BE172" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="173" spans="57:57">
       <c r="BE173" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="174" spans="57:57">
       <c r="BE174" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="175" spans="57:57">
       <c r="BE175" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="176" spans="57:57">
       <c r="BE176" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="177" spans="57:57">
       <c r="BE177" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="57:57">
       <c r="BE178" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="57:57">
       <c r="BE179" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="180" spans="57:57">
       <c r="BE180" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="181" spans="57:57">
       <c r="BE181" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="182" spans="57:57">
       <c r="BE182" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="57:57">
       <c r="BE183" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="184" spans="57:57">
       <c r="BE184" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="185" spans="57:57">
       <c r="BE185" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="186" spans="57:57">
       <c r="BE186" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="187" spans="57:57">
       <c r="BE187" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="188" spans="57:57">
       <c r="BE188" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="189" spans="57:57">
       <c r="BE189" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="190" spans="57:57">
       <c r="BE190" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="191" spans="57:57">
       <c r="BE191" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="192" spans="57:57">
       <c r="BE192" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="193" spans="57:57">
       <c r="BE193" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="194" spans="57:57">
       <c r="BE194" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="195" spans="57:57">
       <c r="BE195" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="196" spans="57:57">
       <c r="BE196" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="197" spans="57:57">
       <c r="BE197" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="198" spans="57:57">
       <c r="BE198" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="199" spans="57:57">
       <c r="BE199" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="200" spans="57:57">
       <c r="BE200" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="201" spans="57:57">
       <c r="BE201" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="202" spans="57:57">
       <c r="BE202" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="203" spans="57:57">
       <c r="BE203" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="204" spans="57:57">
       <c r="BE204" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="205" spans="57:57">
       <c r="BE205" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="206" spans="57:57">
       <c r="BE206" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="207" spans="57:57">
       <c r="BE207" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="208" spans="57:57">
       <c r="BE208" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="209" spans="57:57">
       <c r="BE209" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="210" spans="57:57">
       <c r="BE210" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="211" spans="57:57">
       <c r="BE211" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="212" spans="57:57">
       <c r="BE212" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="213" spans="57:57">
       <c r="BE213" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="214" spans="57:57">
       <c r="BE214" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="215" spans="57:57">
       <c r="BE215" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="216" spans="57:57">
       <c r="BE216" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="217" spans="57:57">
       <c r="BE217" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="218" spans="57:57">
       <c r="BE218" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="219" spans="57:57">
       <c r="BE219" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="220" spans="57:57">
       <c r="BE220" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="221" spans="57:57">
       <c r="BE221" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="222" spans="57:57">
       <c r="BE222" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="57:57">
       <c r="BE223" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="57:57">
       <c r="BE224" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="225" spans="57:57">
       <c r="BE225" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="226" spans="57:57">
       <c r="BE226" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="227" spans="57:57">
       <c r="BE227" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="228" spans="57:57">
       <c r="BE228" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="229" spans="57:57">
       <c r="BE229" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="230" spans="57:57">
       <c r="BE230" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="231" spans="57:57">
       <c r="BE231" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="232" spans="57:57">
       <c r="BE232" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="233" spans="57:57">
       <c r="BE233" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="234" spans="57:57">
       <c r="BE234" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="235" spans="57:57">
       <c r="BE235" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="236" spans="57:57">
       <c r="BE236" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="237" spans="57:57">
       <c r="BE237" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="238" spans="57:57">
       <c r="BE238" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="239" spans="57:57">
       <c r="BE239" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="240" spans="57:57">
       <c r="BE240" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="241" spans="57:57">
       <c r="BE241" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="242" spans="57:57">
       <c r="BE242" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="243" spans="57:57">
       <c r="BE243" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="244" spans="57:57">
       <c r="BE244" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="245" spans="57:57">
       <c r="BE245" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="246" spans="57:57">
       <c r="BE246" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="247" spans="57:57">
       <c r="BE247" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="248" spans="57:57">
       <c r="BE248" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="249" spans="57:57">
       <c r="BE249" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="250" spans="57:57">
       <c r="BE250" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="251" spans="57:57">
       <c r="BE251" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="252" spans="57:57">
       <c r="BE252" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="253" spans="57:57">
       <c r="BE253" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="254" spans="57:57">
       <c r="BE254" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="255" spans="57:57">
       <c r="BE255" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="256" spans="57:57">
       <c r="BE256" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="257" spans="57:57">
       <c r="BE257" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="258" spans="57:57">
       <c r="BE258" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="259" spans="57:57">
       <c r="BE259" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="260" spans="57:57">
       <c r="BE260" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="261" spans="57:57">
       <c r="BE261" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="262" spans="57:57">
       <c r="BE262" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="263" spans="57:57">
       <c r="BE263" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="264" spans="57:57">
       <c r="BE264" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="265" spans="57:57">
       <c r="BE265" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="266" spans="57:57">
       <c r="BE266" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="267" spans="57:57">
       <c r="BE267" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="268" spans="57:57">
       <c r="BE268" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="269" spans="57:57">
       <c r="BE269" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="270" spans="57:57">
       <c r="BE270" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="271" spans="57:57">
       <c r="BE271" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="272" spans="57:57">
       <c r="BE272" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="273" spans="57:57">
       <c r="BE273" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="274" spans="57:57">
       <c r="BE274" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="275" spans="57:57">
       <c r="BE275" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="276" spans="57:57">
       <c r="BE276" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="277" spans="57:57">
       <c r="BE277" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="278" spans="57:57">
       <c r="BE278" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="279" spans="57:57">
       <c r="BE279" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="280" spans="57:57">
       <c r="BE280" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="281" spans="57:57">
       <c r="BE281" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="282" spans="57:57">
       <c r="BE282" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="283" spans="57:57">
       <c r="BE283" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="284" spans="57:57">
       <c r="BE284" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="285" spans="57:57">
       <c r="BE285" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="286" spans="57:57">
       <c r="BE286" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="287" spans="57:57">
       <c r="BE287" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="288" spans="57:57">
       <c r="BE288" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="289" spans="57:57">
       <c r="BE289" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="912">
   <si>
     <t>alias</t>
   </si>
@@ -849,7 +849,7 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample true vertical depth subsea</t>
+    <t>sample_true_vertical_depth_subsea</t>
   </si>
   <si>
     <t>(Optional) Depth of the sample i.e. the vertical distance between the sea level and the sampled position in the subsurface. depth can be reported as an interval for subsurface samples e.g. 1325.75-1362.25 m</t>
@@ -945,7 +945,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -966,13 +966,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -999,7 +999,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1011,61 +1011,61 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample transport conditions</t>
-  </si>
-  <si>
-    <t>(Optional) Sample transport duration (in days or hrs) and temperature the sample was exposed to (e.g. 5.5 days; 20 °c) (Units: m2)</t>
-  </si>
-  <si>
-    <t>sample collection device</t>
+    <t>sample_transport_conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Sample transport duration (in days or hrs) and temperature the sample was exposed to (e.g. 5.5 days; 20 °c) (Units: ha)</t>
+  </si>
+  <si>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>source rock depositional environment</t>
+    <t>source_rock_depositional_environment</t>
   </si>
   <si>
     <t>(Optional) Source rock depositional environment (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field</t>
   </si>
   <si>
-    <t>sample measured depth</t>
-  </si>
-  <si>
-    <t>(Optional) In non deviated well, measured depth is equal to the true vertical depth, tvd (tvd=tvdss plus the reference or datum it refers to). in deviated wells, the md is the length of trajectory of the borehole measured from the same reference or datum. common datums used are ground level (gl), drilling rig floor (df), rotary table (rt), kelly bushing (kb) and mean sea level (msl). if "other" is specified, please propose entry in "additional info" field (Units: mm)</t>
-  </si>
-  <si>
-    <t>corrosion rate at sample location</t>
+    <t>sample_measured_depth</t>
+  </si>
+  <si>
+    <t>(Optional) In non deviated well, measured depth is equal to the true vertical depth, tvd (tvd=tvdss plus the reference or datum it refers to). in deviated wells, the md is the length of trajectory of the borehole measured from the same reference or datum. common datums used are ground level (gl), drilling rig floor (df), rotary table (rt), kelly bushing (kb) and mean sea level (msl). if "other" is specified, please propose entry in "additional info" field (Units: m)</t>
+  </si>
+  <si>
+    <t>corrosion_rate_at_sample_location</t>
   </si>
   <si>
     <t>(Optional) Metal corrosion rate is the speed of metal deterioration due to environmental conditions. as environmental conditions change corrosion rates change accordingly. therefore, long term corrosion rates are generally more informative than short term rates and for that reason they are preferred during reporting. in the case of suspected mic, corrosion rate measurements at the time of sampling might provide insights into the involvement of certain microbial community members in mic as well as potential microbial interplays</t>
   </si>
   <si>
-    <t>sample collection point</t>
+    <t>sample_collection_point</t>
   </si>
   <si>
     <t>(Optional) Sampling point on the asset were sample was collected (e.g. wellhead, storage tank, separator, etc). if "other" is specified, please propose entry in "additional info" field</t>
   </si>
   <si>
-    <t>depth (tvdss) of hydrocarbon resource temperature</t>
+    <t>depth_tvdss_of_hydrocarbon_resource_temperature</t>
   </si>
   <si>
     <t>(Optional) True vertical depth subsea (tvdss) of the hydrocarbon resource where the original temperature was measured (e.g. 1345 m). (Units: m)</t>
@@ -1077,7 +1077,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1089,13 +1089,13 @@
     <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
-    <t>sample well name</t>
+    <t>sample_well_name</t>
   </si>
   <si>
     <t>(Optional) Name of the well (e.g. bxa1123) where sample was taken</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Optional) Name of the project within which the sequencing was organized</t>
@@ -1107,37 +1107,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1152,25 +1152,25 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
@@ -1182,37 +1182,37 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>16s recovered</t>
+    <t>_16s_recovered</t>
   </si>
   <si>
     <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
   </si>
   <si>
-    <t>well identification number</t>
-  </si>
-  <si>
-    <t>(Optional) A unique identifier of a well or wellbore. this is part of the global framework for well identification initiative which is compiled by the professional petroleum data management association (ppdm) in an effort to improve well identification systems. (supporting information: https://ppdm.org/ and http://dl.ppdm.org/dl/690) (Units: year)</t>
-  </si>
-  <si>
-    <t>water cut</t>
-  </si>
-  <si>
-    <t>(Optional) Current amount of water (%) in a produced fluid stream; or the average of the combined streams (Units: year)</t>
-  </si>
-  <si>
-    <t>production rate</t>
+    <t>well_identification_number</t>
+  </si>
+  <si>
+    <t>(Optional) A unique identifier of a well or wellbore. this is part of the global framework for well identification initiative which is compiled by the professional petroleum data management association (ppdm) in an effort to improve well identification systems. (supporting information: https://ppdm.org/ and http://dl.ppdm.org/dl/690) (Units: minute)</t>
+  </si>
+  <si>
+    <t>water_cut</t>
+  </si>
+  <si>
+    <t>(Optional) Current amount of water (%) in a produced fluid stream; or the average of the combined streams (Units: minute)</t>
+  </si>
+  <si>
+    <t>production_rate</t>
   </si>
   <si>
     <t>(Optional) Oil and/or gas production rates per well (e.g. 524 m3 / day) (Units: °C)</t>
   </si>
   <si>
-    <t>field name</t>
+    <t>field_name</t>
   </si>
   <si>
     <t>(Optional) Name of the hydrocarbon field (e.g. albacora)</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1224,37 +1224,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Optional) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Optional) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Optional) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1266,43 +1266,43 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>secondary and tertiary recovery methods and start date</t>
+    <t>secondary_and_tertiary_recovery_methods_and_start_date</t>
   </si>
   <si>
     <t>(Optional) Additional (i.e. secondary, tertiary, etc.) recovery methods deployed for increase of hydrocarbon recovery from resource and start date for each one of them. if "other" is specified, please propose entry in "additional info" field.</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>organism count qpcr information</t>
+    <t>organism_count_qpcr_information</t>
   </si>
   <si>
     <t>(Optional) If qpcr was used for the cell count, the target gene name, the primer sequence and the cycling conditions should also be provided. (example: 16s rrna; fwd:acgtagctatgacgt rev:gtgctagtcgagtac; initial denaturation:90c_5min; denaturation:90c_2min; annealing:52c_30 sec; elongation:72c_30 sec; 90 c for 1 min; final elongation:72c_5min; 30 cycles) (Units: year)</t>
   </si>
   <si>
-    <t>hydrocarbon type produced</t>
-  </si>
-  <si>
-    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
-  </si>
-  <si>
-    <t>api gravity</t>
+    <t>hydrocarbon_type_produced</t>
+  </si>
+  <si>
+    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
+  </si>
+  <si>
+    <t>api_gravity</t>
   </si>
   <si>
     <t>(Optional) Api gravity is a measure of how heavy or light a petroleum liquid is compared to water (source: https://en.wikipedia.org/wiki/api_gravity) (e.g. 31.1api) (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1521,9 +1521,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1542,6 +1539,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1743,6 +1743,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1752,9 +1755,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1794,7 +1794,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1863,6 +1863,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1938,6 +1941,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1959,6 +1965,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2004,6 +2013,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2016,6 +2028,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2025,9 +2040,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2052,6 +2064,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2112,12 +2127,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2175,19 +2190,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -2196,7 +2211,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2205,7 +2220,7 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>pH</t>
+    <t>ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
@@ -2220,22 +2235,22 @@
     <t>permeability</t>
   </si>
   <si>
-    <t>(Optional) Measure of the ability of a hydrocarbon resource to allow fluids to pass through it. (additional information: https://en.wikipedia.org/wiki/permeability_(earth_sciences)) (Units: mm)</t>
-  </si>
-  <si>
-    <t>oil water contact depth</t>
+    <t>(Optional) Measure of the ability of a hydrocarbon resource to allow fluids to pass through it. (additional information: https://en.wikipedia.org/wiki/permeability_(earth_sciences)) (Units: m)</t>
+  </si>
+  <si>
+    <t>oil_water_contact_depth</t>
   </si>
   <si>
     <t>(Optional) Depth of the original oil water contact (owc) zone (average) (m tvdss) (Units: m)</t>
   </si>
   <si>
-    <t>hydrocarbon resource original pressure</t>
-  </si>
-  <si>
-    <t>(Optional) Original pressure of the hydrocarbon resource (Units: Pa)</t>
-  </si>
-  <si>
-    <t>source rock geological age</t>
+    <t>hydrocarbon_resource_original_pressure</t>
+  </si>
+  <si>
+    <t>(Optional) Original pressure of the hydrocarbon resource (Units: N/m2)</t>
+  </si>
+  <si>
+    <t>source_rock_geological_age</t>
   </si>
   <si>
     <t>(Optional) Geological age of source rock (additional info: https://en.wikipedia.org/wiki/period_(geology)). if "other" is specified, please propose entry in "additional info" field (Units: °C)</t>
@@ -2247,7 +2262,7 @@
     <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>sample salinity</t>
+    <t>sample_salinity</t>
   </si>
   <si>
     <t>(Optional) Salinity is the total concentration of all dissolved salts in a liquid or solid (in the form of an extract obtained by centrifugation) sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater (Units: psu)</t>
@@ -2256,7 +2271,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
   </si>
   <si>
     <t>chloride</t>
@@ -2265,31 +2280,31 @@
     <t>(Optional) Concentration of chloride (Units: mg/L)</t>
   </si>
   <si>
-    <t>suspended solids</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
-  </si>
-  <si>
-    <t>dissolved carbon dioxide</t>
+    <t>suspended_solids</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: g/L)</t>
+  </si>
+  <si>
+    <t>dissolved_carbon_dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved inorganic carbon</t>
+    <t>dissolved_inorganic_carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved inorganic phosphorus</t>
+    <t>dissolved_inorganic_phosphorus</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved inorganic phosphorus (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved organic carbon</t>
+    <t>dissolved_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
@@ -2298,7 +2313,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
   </si>
   <si>
     <t>nitrate</t>
@@ -2313,7 +2328,7 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total nitrogen concentration</t>
+    <t>total_nitrogen_concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
@@ -2340,58 +2355,58 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>total phosphorus</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>total_phosphorus</t>
   </si>
   <si>
     <t>(Optional) Total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. can also be measured without filtering, reported as phosphorus (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total iron</t>
+    <t>total_iron</t>
   </si>
   <si>
     <t>(Optional) Concentration of total iron in the sample</t>
   </si>
   <si>
-    <t>volatile fatty acids</t>
+    <t>volatile_fatty_acids</t>
   </si>
   <si>
     <t>(Optional) Concentration of volatile fatty acids in the sample</t>
   </si>
   <si>
-    <t>dissolved iron</t>
+    <t>dissolved_iron</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved iron in the sample (Units: µl/L)</t>
   </si>
   <si>
-    <t>resins wt%</t>
+    <t>resins_wt</t>
   </si>
   <si>
     <t>(Optional) Saturate, aromatic, resin and asphaltene(sara) is an analysis method that divides crude oil components according to their polarizability and polarity. there are three main methods to obtain sara results. the most popular one is known as the iatroscan tlc-fid and is referred to as ip-143 (source: https://en.wikipedia.org/wiki/saturate,_aromatic,_resin_and_asphaltene)</t>
   </si>
   <si>
-    <t>dissolved oxygen in fluids</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of dissolved oxygen in the oil field produced fluids as it contributes to oxgyen-corrosion and microbial activity (e.g. mic). (Units: µmol/kg)</t>
-  </si>
-  <si>
-    <t>total sulfur</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of total sulfur in the sample (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>injection water fraction</t>
+    <t>dissolved_oxygen_in_fluids</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of dissolved oxygen in the oil field produced fluids as it contributes to oxgyen-corrosion and microbial activity (e.g. mic). (Units: µg/L)</t>
+  </si>
+  <si>
+    <t>total_sulfur</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of total sulfur in the sample (Units: µg/L)</t>
+  </si>
+  <si>
+    <t>injection_water_fraction</t>
   </si>
   <si>
     <t>(Optional) Proportion of the produced fluids derived from injected water at the time of sampling. (e.g. 87%) (Units: %)</t>
@@ -2400,34 +2415,34 @@
     <t>ethylbenzene</t>
   </si>
   <si>
-    <t>(Optional) Concentration of ethylbenzene in the sample (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>vfa in formation water</t>
+    <t>(Optional) Concentration of ethylbenzene in the sample (Units: µg/L)</t>
+  </si>
+  <si>
+    <t>vfa_in_formation_water</t>
   </si>
   <si>
     <t>(Optional) Original volatile fatty acid concentration in the hydrocarbon resource</t>
   </si>
   <si>
-    <t>total acid number</t>
+    <t>total_acid_number</t>
   </si>
   <si>
     <t>(Optional) Total acid number(tan) is a measurement of acidity that is determined by the amount of potassium hydroxide in milligrams that is needed to neutralize the acids in one gram of oil. it is an important quality measurement of crude oil. (source: https://en.wikipedia.org/wiki/total_acid_number) (Units: year)</t>
   </si>
   <si>
-    <t>sulfate in formation water</t>
-  </si>
-  <si>
-    <t>(Optional) Original sulfate concentration in the hydrocarbon resource (Units: year)</t>
+    <t>sulfate_in_formation_water</t>
+  </si>
+  <si>
+    <t>(Optional) Original sulfate concentration in the hydrocarbon resource (Units: minute)</t>
   </si>
   <si>
     <t>toluene</t>
   </si>
   <si>
-    <t>(Optional) Concentration of toluene in the sample (Units: year)</t>
-  </si>
-  <si>
-    <t>asphaltenes wt%</t>
+    <t>(Optional) Concentration of toluene in the sample (Units: minute)</t>
+  </si>
+  <si>
+    <t>asphaltenes_wt</t>
   </si>
   <si>
     <t>(Optional) Saturate, aromatic, resin and asphaltene(sara) is an analysis method that divides crude oil components according to their polarizability and polarity. there are three main methods to obtain sara results. the most popular one is known as the iatroscan tlc-fid and is referred to as ip-143 (source: https://en.wikipedia.org/wiki/saturate,_aromatic,_resin_and_asphaltene) (Units: %)</t>
@@ -2439,7 +2454,7 @@
     <t>(Optional) Concentration of xylene in the sample (Units: m2)</t>
   </si>
   <si>
-    <t>alkalinity method</t>
+    <t>alkalinity_method</t>
   </si>
   <si>
     <t>(Optional) Method used for alkalinity measurement (Units: m2)</t>
@@ -2457,115 +2472,115 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>source rock lithology</t>
-  </si>
-  <si>
-    <t>(Optional) Lithology of source rock (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
-  </si>
-  <si>
-    <t>sample material type</t>
+    <t>source_rock_lithology</t>
+  </si>
+  <si>
+    <t>(Optional) Lithology of source rock (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
+  </si>
+  <si>
+    <t>sample_material_type</t>
   </si>
   <si>
     <t>(Optional) The type of material from which the sample was obtained. for the hydrocarbon package, samples include types like core, rock trimmings, drill cuttings, piping section, coupon, pigging debris, solid deposit, produced fluid, produced water, injected water, swabs, etc. for the food package, samples are usually categorized as food, body products or tissues, or environmental material. this field accepts terms listed under environmental specimen (http://purl.obolibrary.org/obo/genepio_0001246).</t>
   </si>
   <si>
-    <t>host of the symbiotic host phenotype</t>
+    <t>host_of_the_symbiotic_host_phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of the host of the symbiotic host organism. for phenotypic quality ontology (pato) terms, see http://purl.bioontology.org/ontology/pato.</t>
   </si>
   <si>
-    <t>biocide administration method</t>
+    <t>biocide_administration_method</t>
   </si>
   <si>
     <t>(Optional) Method of biocide administration (dose, frequency, duration, time elapsed between last biociding and sampling) (e.g. 150 mg/l; weekly; 4 hr; 3 days)</t>
   </si>
   <si>
-    <t>chemical treatment</t>
+    <t>chemical_treatment</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered upstream the sampling location where sampling occurred (e.g. glycols, h2s scavenger, corrosion and scale inhibitors, demulsifiers, and other production chemicals etc.). the commercial name of the product and name of the supplier should be provided. the date of administration should also be included</t>
   </si>
   <si>
-    <t>biocide administration</t>
-  </si>
-  <si>
-    <t>(Optional) List of biocides (commercial name of product and supplier) and date of administration (Units: year)</t>
-  </si>
-  <si>
-    <t>chemical treatment method</t>
+    <t>biocide_administration</t>
+  </si>
+  <si>
+    <t>(Optional) List of biocides (commercial name of product and supplier) and date of administration (Units: minute)</t>
+  </si>
+  <si>
+    <t>chemical_treatment_method</t>
   </si>
   <si>
     <t>(Optional) Method of chemical administration(dose, frequency, duration, time elapsed between administration and sampling) (e.g. 50 mg/l; twice a week; 1 hr; 0 days) (Units: J/K)</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample subtype</t>
+    <t>sample_subtype</t>
   </si>
   <si>
     <t>(Optional) Name of sample sub-type. for example if "sample type" is "produced water" then subtype could be "oil phase" or "water phase". if "other" is specified, please propose entry in "additional info" field (Units: m2)</t>
   </si>
   <si>
-    <t>preservative added to sample</t>
+    <t>preservative_added_to_sample</t>
   </si>
   <si>
     <t>(Optional) Preservative added to the sample (e.g. rnalater, alcohol, formaldehyde, etc.). where appropriate include volume added (e.g. rnalater; 2 ml)</t>
@@ -2583,73 +2598,73 @@
     <t>physical</t>
   </si>
   <si>
-    <t>single cell or viral particle lysis approach</t>
+    <t>single_cell_or_viral_particle_lysis_approach</t>
   </si>
   <si>
     <t>(Optional) Method used to free dna from interior of the cell(s) or particle(s)</t>
   </si>
   <si>
-    <t>single cell or viral particle lysis kit protocol</t>
+    <t>single_cell_or_viral_particle_lysis_kit_protocol</t>
   </si>
   <si>
     <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2661,16 +2676,16 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>production start date</t>
+    <t>production_start_date</t>
   </si>
   <si>
     <t>(Optional) Date of field's first production (Units: m)</t>
   </si>
   <si>
-    <t>aromatics wt%</t>
-  </si>
-  <si>
-    <t>saturates wt%</t>
+    <t>aromatics_wt</t>
+  </si>
+  <si>
+    <t>saturates_wt</t>
   </si>
   <si>
     <t>(Optional) Saturate, aromatic, resin and asphaltene¬†(sara) is an analysis method that divides¬†crude oil¬†components according to their polarizability and polarity. there are three main methods to obtain sara results. the most popular one is known as the iatroscan tlc-fid and is referred to as ip-143 (source: https://en.wikipedia.org/wiki/saturate,_aromatic,_resin_and_asphaltene) (Units: %)</t>
@@ -2682,55 +2697,55 @@
     <t>(Optional) Porosity of deposited sediment is volume of voids divided by the total volume of sample</t>
   </si>
   <si>
-    <t>formation water salinity</t>
+    <t>formation_water_salinity</t>
   </si>
   <si>
     <t>(Optional) Original formation water salinity (prior to secondary recovery e.g. waterflooding) expressed as tds (Units: ppm)</t>
   </si>
   <si>
-    <t>basin name</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the basin (e.g. campos) (Units: g/m3)</t>
-  </si>
-  <si>
-    <t>pour point</t>
+    <t>basin_name</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the basin (e.g. campos) (Units: %)</t>
+  </si>
+  <si>
+    <t>pour_point</t>
   </si>
   <si>
     <t>(Optional) Temperature at which a liquid becomes semi solid and loses its flow characteristics. in crude oil a high pour point is generally associated with a high paraffin content, typically found in crude deriving from a larger proportion of plant material. (source: https://en.wikipedia.org/wiki/pour_point) (Units: °C)</t>
   </si>
   <si>
-    <t>reservoir name</t>
+    <t>reservoir_name</t>
   </si>
   <si>
     <t>(Optional) Name of the reservoir (e.g. carapebus) (Units: °C)</t>
   </si>
   <si>
-    <t>hydrocarbon resource geological age</t>
+    <t>hydrocarbon_resource_geological_age</t>
   </si>
   <si>
     <t>(Optional) Geological age of hydrocarbon resource (additional info: https://en.wikipedia.org/wiki/period_(geology)). if "other" is specified, please propose entry in "additional info" field</t>
   </si>
   <si>
-    <t>depositional environment</t>
+    <t>depositional_environment</t>
   </si>
   <si>
     <t>(Optional) Main depositional environment (https://en.wikipedia.org/wiki/depositional_environment). if "other" is specified, please propose entry in "additional info" field (Units: m)</t>
   </si>
   <si>
-    <t>source rock kerogen type</t>
+    <t>source_rock_kerogen_type</t>
   </si>
   <si>
     <t>(Optional) Origin of kerogen. type i: algal (aquatic), type ii: planktonic and soft plant material (aquatic or terrestrial), type iii: terrestrial woody/ fibrous plant material (terrestrial), type iv: oxidized recycled woody debris (terrestrial) (additional information: https://en.wikipedia.org/wiki/kerogen). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
   </si>
   <si>
-    <t>hydrocarbon resource type</t>
+    <t>hydrocarbon_resource_type</t>
   </si>
   <si>
     <t>(Optional) Main hydrocarbon resource type. the term "hydrocarbon resource" hcr defined as a natural environmental feature containing large amounts of hydrocarbons at high concentrations potentially suitable for commercial exploitation. this term should not be confused with the hydrocarbon occurrence term which also includes hydrocarbon-rich environments with currently limited commercial interest such as seeps, outcrops, gas hydrates etc. if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
   </si>
   <si>
-    <t>water production rate</t>
+    <t>water_production_rate</t>
   </si>
   <si>
     <t>(Optional) Water production rates per well (e.g. 987 m3 / day) (Units: m3/day)</t>
@@ -2739,10 +2754,10 @@
     <t>lithology</t>
   </si>
   <si>
-    <t>(Optional) Hydrocarbon resource main lithology (additional information: http://petrowiki.org/lithology_and_rock_type_determination). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
-  </si>
-  <si>
-    <t>hydrocarbon resource original temperature</t>
+    <t>(Optional) Hydrocarbon resource main lithology (additional information: http://petrowiki.org/lithology_and_rock_type_determination). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
+  </si>
+  <si>
+    <t>hydrocarbon_resource_original_temperature</t>
   </si>
   <si>
     <t>(Optional) Original temperature of the hydrocarbon resource (Units: °C)</t>
@@ -2751,10 +2766,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>injection water breakthrough date of specific well</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>injection_water_breakthrough_date_of_specific_well</t>
   </si>
   <si>
     <t>(Optional) Injection water breakthrough date per well following a secondary and/or tertiary recovery (Units: %)</t>
@@ -4470,292 +4485,292 @@
         <v>421</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
     </row>
     <row r="2" spans="1:152" ht="150" customHeight="1">
@@ -4928,292 +4943,292 @@
         <v>422</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -5249,7 +5264,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:DS289"/>
+  <dimension ref="F1:DS294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5278,7 +5293,7 @@
         <v>423</v>
       </c>
       <c r="DS1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="6:123">
@@ -5304,7 +5319,7 @@
         <v>424</v>
       </c>
       <c r="DS2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="6:123">
@@ -5324,7 +5339,7 @@
         <v>425</v>
       </c>
       <c r="DS3" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="6:123">
@@ -5341,7 +5356,7 @@
         <v>426</v>
       </c>
       <c r="DS4" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="6:123">
@@ -6857,6 +6872,31 @@
     <row r="289" spans="57:57">
       <c r="BE289" t="s">
         <v>711</v>
+      </c>
+    </row>
+    <row r="290" spans="57:57">
+      <c r="BE290" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="291" spans="57:57">
+      <c r="BE291" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="292" spans="57:57">
+      <c r="BE292" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="293" spans="57:57">
+      <c r="BE293" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="294" spans="57:57">
+      <c r="BE294" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="907">
   <si>
     <t>alias</t>
   </si>
@@ -849,7 +849,7 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample_true_vertical_depth_subsea</t>
+    <t>sample true vertical depth subsea</t>
   </si>
   <si>
     <t>(Optional) Depth of the sample i.e. the vertical distance between the sea level and the sampled position in the subsurface. depth can be reported as an interval for subsurface samples e.g. 1325.75-1362.25 m</t>
@@ -945,7 +945,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -966,13 +966,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -999,7 +999,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1011,61 +1011,61 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_transport_conditions</t>
-  </si>
-  <si>
-    <t>(Optional) Sample transport duration (in days or hrs) and temperature the sample was exposed to (e.g. 5.5 days; 20 °c) (Units: ha)</t>
-  </si>
-  <si>
-    <t>sample_collection_device</t>
+    <t>sample transport conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Sample transport duration (in days or hrs) and temperature the sample was exposed to (e.g. 5.5 days; 20 °c) (Units: m2)</t>
+  </si>
+  <si>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>source_rock_depositional_environment</t>
+    <t>source rock depositional environment</t>
   </si>
   <si>
     <t>(Optional) Source rock depositional environment (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field</t>
   </si>
   <si>
-    <t>sample_measured_depth</t>
-  </si>
-  <si>
-    <t>(Optional) In non deviated well, measured depth is equal to the true vertical depth, tvd (tvd=tvdss plus the reference or datum it refers to). in deviated wells, the md is the length of trajectory of the borehole measured from the same reference or datum. common datums used are ground level (gl), drilling rig floor (df), rotary table (rt), kelly bushing (kb) and mean sea level (msl). if "other" is specified, please propose entry in "additional info" field (Units: m)</t>
-  </si>
-  <si>
-    <t>corrosion_rate_at_sample_location</t>
+    <t>sample measured depth</t>
+  </si>
+  <si>
+    <t>(Optional) In non deviated well, measured depth is equal to the true vertical depth, tvd (tvd=tvdss plus the reference or datum it refers to). in deviated wells, the md is the length of trajectory of the borehole measured from the same reference or datum. common datums used are ground level (gl), drilling rig floor (df), rotary table (rt), kelly bushing (kb) and mean sea level (msl). if "other" is specified, please propose entry in "additional info" field (Units: mm)</t>
+  </si>
+  <si>
+    <t>corrosion rate at sample location</t>
   </si>
   <si>
     <t>(Optional) Metal corrosion rate is the speed of metal deterioration due to environmental conditions. as environmental conditions change corrosion rates change accordingly. therefore, long term corrosion rates are generally more informative than short term rates and for that reason they are preferred during reporting. in the case of suspected mic, corrosion rate measurements at the time of sampling might provide insights into the involvement of certain microbial community members in mic as well as potential microbial interplays</t>
   </si>
   <si>
-    <t>sample_collection_point</t>
+    <t>sample collection point</t>
   </si>
   <si>
     <t>(Optional) Sampling point on the asset were sample was collected (e.g. wellhead, storage tank, separator, etc). if "other" is specified, please propose entry in "additional info" field</t>
   </si>
   <si>
-    <t>depth_tvdss_of_hydrocarbon_resource_temperature</t>
+    <t>depth (tvdss) of hydrocarbon resource temperature</t>
   </si>
   <si>
     <t>(Optional) True vertical depth subsea (tvdss) of the hydrocarbon resource where the original temperature was measured (e.g. 1345 m). (Units: m)</t>
@@ -1077,7 +1077,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1089,13 +1089,13 @@
     <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
-    <t>sample_well_name</t>
+    <t>sample well name</t>
   </si>
   <si>
     <t>(Optional) Name of the well (e.g. bxa1123) where sample was taken</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Optional) Name of the project within which the sequencing was organized</t>
@@ -1107,37 +1107,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1152,25 +1152,25 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
@@ -1182,37 +1182,37 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>_16s_recovered</t>
+    <t>16s recovered</t>
   </si>
   <si>
     <t>(Optional) Can a 16s gene be recovered from the submitted bin, sag or mag?</t>
   </si>
   <si>
-    <t>well_identification_number</t>
-  </si>
-  <si>
-    <t>(Optional) A unique identifier of a well or wellbore. this is part of the global framework for well identification initiative which is compiled by the professional petroleum data management association (ppdm) in an effort to improve well identification systems. (supporting information: https://ppdm.org/ and http://dl.ppdm.org/dl/690) (Units: minute)</t>
-  </si>
-  <si>
-    <t>water_cut</t>
-  </si>
-  <si>
-    <t>(Optional) Current amount of water (%) in a produced fluid stream; or the average of the combined streams (Units: minute)</t>
-  </si>
-  <si>
-    <t>production_rate</t>
+    <t>well identification number</t>
+  </si>
+  <si>
+    <t>(Optional) A unique identifier of a well or wellbore. this is part of the global framework for well identification initiative which is compiled by the professional petroleum data management association (ppdm) in an effort to improve well identification systems. (supporting information: https://ppdm.org/ and http://dl.ppdm.org/dl/690) (Units: year)</t>
+  </si>
+  <si>
+    <t>water cut</t>
+  </si>
+  <si>
+    <t>(Optional) Current amount of water (%) in a produced fluid stream; or the average of the combined streams (Units: year)</t>
+  </si>
+  <si>
+    <t>production rate</t>
   </si>
   <si>
     <t>(Optional) Oil and/or gas production rates per well (e.g. 524 m3 / day) (Units: °C)</t>
   </si>
   <si>
-    <t>field_name</t>
+    <t>field name</t>
   </si>
   <si>
     <t>(Optional) Name of the hydrocarbon field (e.g. albacora)</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1224,37 +1224,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Optional) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Optional) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Optional) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1266,43 +1266,43 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>secondary_and_tertiary_recovery_methods_and_start_date</t>
+    <t>secondary and tertiary recovery methods and start date</t>
   </si>
   <si>
     <t>(Optional) Additional (i.e. secondary, tertiary, etc.) recovery methods deployed for increase of hydrocarbon recovery from resource and start date for each one of them. if "other" is specified, please propose entry in "additional info" field.</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>organism_count_qpcr_information</t>
+    <t>organism count qpcr information</t>
   </si>
   <si>
     <t>(Optional) If qpcr was used for the cell count, the target gene name, the primer sequence and the cycling conditions should also be provided. (example: 16s rrna; fwd:acgtagctatgacgt rev:gtgctagtcgagtac; initial denaturation:90c_5min; denaturation:90c_2min; annealing:52c_30 sec; elongation:72c_30 sec; 90 c for 1 min; final elongation:72c_5min; 30 cycles) (Units: year)</t>
   </si>
   <si>
-    <t>hydrocarbon_type_produced</t>
-  </si>
-  <si>
-    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
-  </si>
-  <si>
-    <t>api_gravity</t>
+    <t>hydrocarbon type produced</t>
+  </si>
+  <si>
+    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+  </si>
+  <si>
+    <t>api gravity</t>
   </si>
   <si>
     <t>(Optional) Api gravity is a measure of how heavy or light a petroleum liquid is compared to water (source: https://en.wikipedia.org/wiki/api_gravity) (e.g. 31.1api) (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1521,6 +1521,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1539,9 +1542,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1743,9 +1743,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1755,6 +1752,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1794,7 +1794,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1863,9 +1863,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1941,9 +1938,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1965,9 +1959,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2013,9 +2004,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2028,9 +2016,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2040,6 +2025,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2064,9 +2052,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2127,12 +2112,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2190,19 +2175,19 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -2211,7 +2196,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2220,7 +2205,7 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>ph</t>
+    <t>pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
@@ -2235,22 +2220,22 @@
     <t>permeability</t>
   </si>
   <si>
-    <t>(Optional) Measure of the ability of a hydrocarbon resource to allow fluids to pass through it. (additional information: https://en.wikipedia.org/wiki/permeability_(earth_sciences)) (Units: m)</t>
-  </si>
-  <si>
-    <t>oil_water_contact_depth</t>
+    <t>(Optional) Measure of the ability of a hydrocarbon resource to allow fluids to pass through it. (additional information: https://en.wikipedia.org/wiki/permeability_(earth_sciences)) (Units: mm)</t>
+  </si>
+  <si>
+    <t>oil water contact depth</t>
   </si>
   <si>
     <t>(Optional) Depth of the original oil water contact (owc) zone (average) (m tvdss) (Units: m)</t>
   </si>
   <si>
-    <t>hydrocarbon_resource_original_pressure</t>
-  </si>
-  <si>
-    <t>(Optional) Original pressure of the hydrocarbon resource (Units: N/m2)</t>
-  </si>
-  <si>
-    <t>source_rock_geological_age</t>
+    <t>hydrocarbon resource original pressure</t>
+  </si>
+  <si>
+    <t>(Optional) Original pressure of the hydrocarbon resource (Units: Pa)</t>
+  </si>
+  <si>
+    <t>source rock geological age</t>
   </si>
   <si>
     <t>(Optional) Geological age of source rock (additional info: https://en.wikipedia.org/wiki/period_(geology)). if "other" is specified, please propose entry in "additional info" field (Units: °C)</t>
@@ -2262,7 +2247,7 @@
     <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>sample_salinity</t>
+    <t>sample salinity</t>
   </si>
   <si>
     <t>(Optional) Salinity is the total concentration of all dissolved salts in a liquid or solid (in the form of an extract obtained by centrifugation) sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater (Units: psu)</t>
@@ -2271,7 +2256,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
   </si>
   <si>
     <t>chloride</t>
@@ -2280,31 +2265,31 @@
     <t>(Optional) Concentration of chloride (Units: mg/L)</t>
   </si>
   <si>
-    <t>suspended_solids</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: g/L)</t>
-  </si>
-  <si>
-    <t>dissolved_carbon_dioxide</t>
+    <t>suspended solids</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
+  </si>
+  <si>
+    <t>dissolved carbon dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_inorganic_carbon</t>
+    <t>dissolved inorganic carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_inorganic_phosphorus</t>
+    <t>dissolved inorganic phosphorus</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved inorganic phosphorus (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_organic_carbon</t>
+    <t>dissolved organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
@@ -2313,7 +2298,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
   </si>
   <si>
     <t>nitrate</t>
@@ -2328,7 +2313,7 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_nitrogen_concentration</t>
+    <t>total nitrogen concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
@@ -2355,58 +2340,58 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>total_phosphorus</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>total phosphorus</t>
   </si>
   <si>
     <t>(Optional) Total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. can also be measured without filtering, reported as phosphorus (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_iron</t>
+    <t>total iron</t>
   </si>
   <si>
     <t>(Optional) Concentration of total iron in the sample</t>
   </si>
   <si>
-    <t>volatile_fatty_acids</t>
+    <t>volatile fatty acids</t>
   </si>
   <si>
     <t>(Optional) Concentration of volatile fatty acids in the sample</t>
   </si>
   <si>
-    <t>dissolved_iron</t>
+    <t>dissolved iron</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved iron in the sample (Units: µl/L)</t>
   </si>
   <si>
-    <t>resins_wt</t>
+    <t>resins wt%</t>
   </si>
   <si>
     <t>(Optional) Saturate, aromatic, resin and asphaltene(sara) is an analysis method that divides crude oil components according to their polarizability and polarity. there are three main methods to obtain sara results. the most popular one is known as the iatroscan tlc-fid and is referred to as ip-143 (source: https://en.wikipedia.org/wiki/saturate,_aromatic,_resin_and_asphaltene)</t>
   </si>
   <si>
-    <t>dissolved_oxygen_in_fluids</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of dissolved oxygen in the oil field produced fluids as it contributes to oxgyen-corrosion and microbial activity (e.g. mic). (Units: µg/L)</t>
-  </si>
-  <si>
-    <t>total_sulfur</t>
-  </si>
-  <si>
-    <t>(Optional) Concentration of total sulfur in the sample (Units: µg/L)</t>
-  </si>
-  <si>
-    <t>injection_water_fraction</t>
+    <t>dissolved oxygen in fluids</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of dissolved oxygen in the oil field produced fluids as it contributes to oxgyen-corrosion and microbial activity (e.g. mic). (Units: µmol/kg)</t>
+  </si>
+  <si>
+    <t>total sulfur</t>
+  </si>
+  <si>
+    <t>(Optional) Concentration of total sulfur in the sample (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>injection water fraction</t>
   </si>
   <si>
     <t>(Optional) Proportion of the produced fluids derived from injected water at the time of sampling. (e.g. 87%) (Units: %)</t>
@@ -2415,34 +2400,34 @@
     <t>ethylbenzene</t>
   </si>
   <si>
-    <t>(Optional) Concentration of ethylbenzene in the sample (Units: µg/L)</t>
-  </si>
-  <si>
-    <t>vfa_in_formation_water</t>
+    <t>(Optional) Concentration of ethylbenzene in the sample (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>vfa in formation water</t>
   </si>
   <si>
     <t>(Optional) Original volatile fatty acid concentration in the hydrocarbon resource</t>
   </si>
   <si>
-    <t>total_acid_number</t>
+    <t>total acid number</t>
   </si>
   <si>
     <t>(Optional) Total acid number(tan) is a measurement of acidity that is determined by the amount of potassium hydroxide in milligrams that is needed to neutralize the acids in one gram of oil. it is an important quality measurement of crude oil. (source: https://en.wikipedia.org/wiki/total_acid_number) (Units: year)</t>
   </si>
   <si>
-    <t>sulfate_in_formation_water</t>
-  </si>
-  <si>
-    <t>(Optional) Original sulfate concentration in the hydrocarbon resource (Units: minute)</t>
+    <t>sulfate in formation water</t>
+  </si>
+  <si>
+    <t>(Optional) Original sulfate concentration in the hydrocarbon resource (Units: year)</t>
   </si>
   <si>
     <t>toluene</t>
   </si>
   <si>
-    <t>(Optional) Concentration of toluene in the sample (Units: minute)</t>
-  </si>
-  <si>
-    <t>asphaltenes_wt</t>
+    <t>(Optional) Concentration of toluene in the sample (Units: year)</t>
+  </si>
+  <si>
+    <t>asphaltenes wt%</t>
   </si>
   <si>
     <t>(Optional) Saturate, aromatic, resin and asphaltene(sara) is an analysis method that divides crude oil components according to their polarizability and polarity. there are three main methods to obtain sara results. the most popular one is known as the iatroscan tlc-fid and is referred to as ip-143 (source: https://en.wikipedia.org/wiki/saturate,_aromatic,_resin_and_asphaltene) (Units: %)</t>
@@ -2454,7 +2439,7 @@
     <t>(Optional) Concentration of xylene in the sample (Units: m2)</t>
   </si>
   <si>
-    <t>alkalinity_method</t>
+    <t>alkalinity method</t>
   </si>
   <si>
     <t>(Optional) Method used for alkalinity measurement (Units: m2)</t>
@@ -2472,115 +2457,115 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>source_rock_lithology</t>
-  </si>
-  <si>
-    <t>(Optional) Lithology of source rock (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
-  </si>
-  <si>
-    <t>sample_material_type</t>
+    <t>source rock lithology</t>
+  </si>
+  <si>
+    <t>(Optional) Lithology of source rock (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+  </si>
+  <si>
+    <t>sample material type</t>
   </si>
   <si>
     <t>(Optional) The type of material from which the sample was obtained. for the hydrocarbon package, samples include types like core, rock trimmings, drill cuttings, piping section, coupon, pigging debris, solid deposit, produced fluid, produced water, injected water, swabs, etc. for the food package, samples are usually categorized as food, body products or tissues, or environmental material. this field accepts terms listed under environmental specimen (http://purl.obolibrary.org/obo/genepio_0001246).</t>
   </si>
   <si>
-    <t>host_of_the_symbiotic_host_phenotype</t>
+    <t>host of the symbiotic host phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of the host of the symbiotic host organism. for phenotypic quality ontology (pato) terms, see http://purl.bioontology.org/ontology/pato.</t>
   </si>
   <si>
-    <t>biocide_administration_method</t>
+    <t>biocide administration method</t>
   </si>
   <si>
     <t>(Optional) Method of biocide administration (dose, frequency, duration, time elapsed between last biociding and sampling) (e.g. 150 mg/l; weekly; 4 hr; 3 days)</t>
   </si>
   <si>
-    <t>chemical_treatment</t>
+    <t>chemical treatment</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered upstream the sampling location where sampling occurred (e.g. glycols, h2s scavenger, corrosion and scale inhibitors, demulsifiers, and other production chemicals etc.). the commercial name of the product and name of the supplier should be provided. the date of administration should also be included</t>
   </si>
   <si>
-    <t>biocide_administration</t>
-  </si>
-  <si>
-    <t>(Optional) List of biocides (commercial name of product and supplier) and date of administration (Units: minute)</t>
-  </si>
-  <si>
-    <t>chemical_treatment_method</t>
+    <t>biocide administration</t>
+  </si>
+  <si>
+    <t>(Optional) List of biocides (commercial name of product and supplier) and date of administration (Units: year)</t>
+  </si>
+  <si>
+    <t>chemical treatment method</t>
   </si>
   <si>
     <t>(Optional) Method of chemical administration(dose, frequency, duration, time elapsed between administration and sampling) (e.g. 50 mg/l; twice a week; 1 hr; 0 days) (Units: J/K)</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_subtype</t>
+    <t>sample subtype</t>
   </si>
   <si>
     <t>(Optional) Name of sample sub-type. for example if "sample type" is "produced water" then subtype could be "oil phase" or "water phase". if "other" is specified, please propose entry in "additional info" field (Units: m2)</t>
   </si>
   <si>
-    <t>preservative_added_to_sample</t>
+    <t>preservative added to sample</t>
   </si>
   <si>
     <t>(Optional) Preservative added to the sample (e.g. rnalater, alcohol, formaldehyde, etc.). where appropriate include volume added (e.g. rnalater; 2 ml)</t>
@@ -2598,73 +2583,73 @@
     <t>physical</t>
   </si>
   <si>
-    <t>single_cell_or_viral_particle_lysis_approach</t>
+    <t>single cell or viral particle lysis approach</t>
   </si>
   <si>
     <t>(Optional) Method used to free dna from interior of the cell(s) or particle(s)</t>
   </si>
   <si>
-    <t>single_cell_or_viral_particle_lysis_kit_protocol</t>
+    <t>single cell or viral particle lysis kit protocol</t>
   </si>
   <si>
     <t>(Optional) Name of the kit or standard protocol used for cell(s) or particle(s) lysis</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2676,16 +2661,16 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>production_start_date</t>
+    <t>production start date</t>
   </si>
   <si>
     <t>(Optional) Date of field's first production (Units: m)</t>
   </si>
   <si>
-    <t>aromatics_wt</t>
-  </si>
-  <si>
-    <t>saturates_wt</t>
+    <t>aromatics wt%</t>
+  </si>
+  <si>
+    <t>saturates wt%</t>
   </si>
   <si>
     <t>(Optional) Saturate, aromatic, resin and asphaltene¬†(sara) is an analysis method that divides¬†crude oil¬†components according to their polarizability and polarity. there are three main methods to obtain sara results. the most popular one is known as the iatroscan tlc-fid and is referred to as ip-143 (source: https://en.wikipedia.org/wiki/saturate,_aromatic,_resin_and_asphaltene) (Units: %)</t>
@@ -2697,55 +2682,55 @@
     <t>(Optional) Porosity of deposited sediment is volume of voids divided by the total volume of sample</t>
   </si>
   <si>
-    <t>formation_water_salinity</t>
+    <t>formation water salinity</t>
   </si>
   <si>
     <t>(Optional) Original formation water salinity (prior to secondary recovery e.g. waterflooding) expressed as tds (Units: ppm)</t>
   </si>
   <si>
-    <t>basin_name</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the basin (e.g. campos) (Units: %)</t>
-  </si>
-  <si>
-    <t>pour_point</t>
+    <t>basin name</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the basin (e.g. campos) (Units: g/m3)</t>
+  </si>
+  <si>
+    <t>pour point</t>
   </si>
   <si>
     <t>(Optional) Temperature at which a liquid becomes semi solid and loses its flow characteristics. in crude oil a high pour point is generally associated with a high paraffin content, typically found in crude deriving from a larger proportion of plant material. (source: https://en.wikipedia.org/wiki/pour_point) (Units: °C)</t>
   </si>
   <si>
-    <t>reservoir_name</t>
+    <t>reservoir name</t>
   </si>
   <si>
     <t>(Optional) Name of the reservoir (e.g. carapebus) (Units: °C)</t>
   </si>
   <si>
-    <t>hydrocarbon_resource_geological_age</t>
+    <t>hydrocarbon resource geological age</t>
   </si>
   <si>
     <t>(Optional) Geological age of hydrocarbon resource (additional info: https://en.wikipedia.org/wiki/period_(geology)). if "other" is specified, please propose entry in "additional info" field</t>
   </si>
   <si>
-    <t>depositional_environment</t>
+    <t>depositional environment</t>
   </si>
   <si>
     <t>(Optional) Main depositional environment (https://en.wikipedia.org/wiki/depositional_environment). if "other" is specified, please propose entry in "additional info" field (Units: m)</t>
   </si>
   <si>
-    <t>source_rock_kerogen_type</t>
+    <t>source rock kerogen type</t>
   </si>
   <si>
     <t>(Optional) Origin of kerogen. type i: algal (aquatic), type ii: planktonic and soft plant material (aquatic or terrestrial), type iii: terrestrial woody/ fibrous plant material (terrestrial), type iv: oxidized recycled woody debris (terrestrial) (additional information: https://en.wikipedia.org/wiki/kerogen). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
   </si>
   <si>
-    <t>hydrocarbon_resource_type</t>
+    <t>hydrocarbon resource type</t>
   </si>
   <si>
     <t>(Optional) Main hydrocarbon resource type. the term "hydrocarbon resource" hcr defined as a natural environmental feature containing large amounts of hydrocarbons at high concentrations potentially suitable for commercial exploitation. this term should not be confused with the hydrocarbon occurrence term which also includes hydrocarbon-rich environments with currently limited commercial interest such as seeps, outcrops, gas hydrates etc. if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
   </si>
   <si>
-    <t>water_production_rate</t>
+    <t>water production rate</t>
   </si>
   <si>
     <t>(Optional) Water production rates per well (e.g. 987 m3 / day) (Units: m3/day)</t>
@@ -2754,10 +2739,10 @@
     <t>lithology</t>
   </si>
   <si>
-    <t>(Optional) Hydrocarbon resource main lithology (additional information: http://petrowiki.org/lithology_and_rock_type_determination). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
-  </si>
-  <si>
-    <t>hydrocarbon_resource_original_temperature</t>
+    <t>(Optional) Hydrocarbon resource main lithology (additional information: http://petrowiki.org/lithology_and_rock_type_determination). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+  </si>
+  <si>
+    <t>hydrocarbon resource original temperature</t>
   </si>
   <si>
     <t>(Optional) Original temperature of the hydrocarbon resource (Units: °C)</t>
@@ -2766,10 +2751,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>injection_water_breakthrough_date_of_specific_well</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>injection water breakthrough date of specific well</t>
   </si>
   <si>
     <t>(Optional) Injection water breakthrough date per well following a secondary and/or tertiary recovery (Units: %)</t>
@@ -4485,292 +4470,292 @@
         <v>421</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="EE1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="EH1" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="EH1" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>886</v>
-      </c>
       <c r="EK1" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:152" ht="150" customHeight="1">
@@ -4943,292 +4928,292 @@
         <v>422</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="EE2" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="EH2" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="EF2" s="2" t="s">
+      <c r="EI2" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="EG2" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>885</v>
-      </c>
       <c r="EJ2" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -5264,7 +5249,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:DS294"/>
+  <dimension ref="F1:DS289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5293,7 +5278,7 @@
         <v>423</v>
       </c>
       <c r="DS1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="6:123">
@@ -5319,7 +5304,7 @@
         <v>424</v>
       </c>
       <c r="DS2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="6:123">
@@ -5339,7 +5324,7 @@
         <v>425</v>
       </c>
       <c r="DS3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="6:123">
@@ -5356,7 +5341,7 @@
         <v>426</v>
       </c>
       <c r="DS4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="6:123">
@@ -6872,31 +6857,6 @@
     <row r="289" spans="57:57">
       <c r="BE289" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="290" spans="57:57">
-      <c r="BE290" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="291" spans="57:57">
-      <c r="BE291" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="292" spans="57:57">
-      <c r="BE292" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="293" spans="57:57">
-      <c r="BE293" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="294" spans="57:57">
-      <c r="BE294" t="s">
-        <v>716</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -18,26 +18,26 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BE$1:$BE$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BG$1:$BG$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$G$1:$G$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$U$1:$U$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$I$1:$I$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$W$1:$W$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$I$1:$I$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$AF$1:$AF$3</definedName>
-    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$DS$1:$DS$4</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$K$1:$K$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$AH$1:$AH$3</definedName>
+    <definedName name="singlecellorviralparticlelysisapproach">'cv_sample'!$DU$1:$DU$4</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$F$1:$F$30</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$H$1:$H$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="911">
   <si>
     <t>alias</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4291,7 +4303,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EV2"/>
+  <dimension ref="A1:EX2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4300,7 +4312,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152">
+    <row r="1" spans="1:154">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4317,19 +4329,19 @@
         <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>324</v>
@@ -4362,10 +4374,10 @@
         <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>350</v>
@@ -4395,10 +4407,10 @@
         <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>375</v>
@@ -4407,10 +4419,10 @@
         <v>377</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>385</v>
@@ -4470,10 +4482,10 @@
         <v>421</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>712</v>
+        <v>423</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>714</v>
+        <v>425</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>716</v>
@@ -4668,10 +4680,10 @@
         <v>842</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="DU1" s="1" t="s">
         <v>852</v>
@@ -4713,10 +4725,10 @@
         <v>876</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="EJ1" s="1" t="s">
         <v>881</v>
@@ -4757,8 +4769,14 @@
       <c r="EV1" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="2" spans="1:152" ht="150" customHeight="1">
+      <c r="EW1" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="2" spans="1:154" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4775,19 +4793,19 @@
         <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>325</v>
@@ -4820,10 +4838,10 @@
         <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>351</v>
@@ -4853,10 +4871,10 @@
         <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>376</v>
@@ -4865,10 +4883,10 @@
         <v>378</v>
       </c>
       <c r="AJ2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>386</v>
@@ -4928,10 +4946,10 @@
         <v>422</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>713</v>
+        <v>424</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>715</v>
+        <v>426</v>
       </c>
       <c r="BG2" s="2" t="s">
         <v>717</v>
@@ -5126,10 +5144,10 @@
         <v>843</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="DU2" s="2" t="s">
         <v>853</v>
@@ -5168,13 +5186,13 @@
         <v>875</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>797</v>
+        <v>877</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>880</v>
+        <v>801</v>
       </c>
       <c r="EJ2" s="2" t="s">
         <v>882</v>
@@ -5215,31 +5233,37 @@
       <c r="EV2" s="2" t="s">
         <v>906</v>
       </c>
+      <c r="EW2" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="EX2" s="2" t="s">
+        <v>910</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
       <formula1>16srecovered</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE3:BE101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DS3:DS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DU3:DU101">
       <formula1>singlecellorviralparticlelysisapproach</formula1>
     </dataValidation>
   </dataValidations>
@@ -5249,1614 +5273,1614 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:DS289"/>
+  <dimension ref="H1:DU289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="6:123">
-      <c r="F1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="8:125">
+      <c r="H1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" t="s">
+        <v>317</v>
+      </c>
+      <c r="W1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>427</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2" spans="8:125">
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" t="s">
+        <v>318</v>
+      </c>
+      <c r="W2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>384</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>428</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3" spans="8:125">
+      <c r="H3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>374</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>429</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="8:125">
+      <c r="H4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" t="s">
+        <v>320</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>430</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="5" spans="8:125">
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="8:125">
+      <c r="H6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K6" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="8:125">
+      <c r="H7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" t="s">
+        <v>323</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="8:125">
+      <c r="H8" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="8:125">
+      <c r="H9" t="s">
+        <v>284</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="8:125">
+      <c r="H10" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="8:125">
+      <c r="H11" t="s">
+        <v>286</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="8:125">
+      <c r="H12" t="s">
+        <v>287</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="8:125">
+      <c r="H13" t="s">
+        <v>288</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="8:125">
+      <c r="H14" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="8:125">
+      <c r="H15" t="s">
+        <v>290</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="8:125">
+      <c r="H16" t="s">
+        <v>291</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="8:59">
+      <c r="H17" t="s">
+        <v>292</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="8:59">
+      <c r="H18" t="s">
+        <v>293</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="8:59">
+      <c r="H19" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="8:59">
+      <c r="H20" t="s">
+        <v>295</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="8:59">
+      <c r="H21" t="s">
+        <v>296</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="8:59">
+      <c r="H22" t="s">
+        <v>297</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="8:59">
+      <c r="H23" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="8:59">
+      <c r="H24" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="8:59">
+      <c r="H25" t="s">
+        <v>300</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="8:59">
+      <c r="H26" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="8:59">
+      <c r="H27" t="s">
+        <v>302</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="8:59">
+      <c r="H28" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="8:59">
+      <c r="H29" t="s">
         <v>304</v>
       </c>
-      <c r="I1" t="s">
-        <v>313</v>
-      </c>
-      <c r="U1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>379</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>423</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="2" spans="6:123">
-      <c r="F2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="BG29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="8:59">
+      <c r="H30" t="s">
         <v>305</v>
       </c>
-      <c r="I2" t="s">
-        <v>314</v>
-      </c>
-      <c r="U2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>369</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>424</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="3" spans="6:123">
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I3" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>370</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>425</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="6:123">
-      <c r="F4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I4" t="s">
-        <v>316</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>426</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="5" spans="6:123">
-      <c r="F5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I5" t="s">
-        <v>317</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="6:123">
-      <c r="F6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" t="s">
-        <v>318</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="7" spans="6:123">
-      <c r="F7" t="s">
-        <v>278</v>
-      </c>
-      <c r="I7" t="s">
-        <v>319</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="6:123">
-      <c r="F8" t="s">
-        <v>279</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="9" spans="6:123">
-      <c r="F9" t="s">
-        <v>280</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="6:123">
-      <c r="F10" t="s">
-        <v>281</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" spans="6:123">
-      <c r="F11" t="s">
-        <v>282</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="6:123">
-      <c r="F12" t="s">
-        <v>283</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="6:123">
-      <c r="F13" t="s">
-        <v>284</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="14" spans="6:123">
-      <c r="F14" t="s">
-        <v>285</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="15" spans="6:123">
-      <c r="F15" t="s">
-        <v>286</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="6:123">
-      <c r="F16" t="s">
-        <v>287</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="6:57">
-      <c r="F17" t="s">
-        <v>288</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="6:57">
-      <c r="F18" t="s">
-        <v>289</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="6:57">
-      <c r="F19" t="s">
-        <v>290</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="6:57">
-      <c r="F20" t="s">
-        <v>291</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="6:57">
-      <c r="F21" t="s">
-        <v>292</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22" spans="6:57">
-      <c r="F22" t="s">
-        <v>293</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="6:57">
-      <c r="F23" t="s">
-        <v>294</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="24" spans="6:57">
-      <c r="F24" t="s">
-        <v>295</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="25" spans="6:57">
-      <c r="F25" t="s">
-        <v>296</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="26" spans="6:57">
-      <c r="F26" t="s">
-        <v>297</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="6:57">
-      <c r="F27" t="s">
-        <v>298</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="28" spans="6:57">
-      <c r="F28" t="s">
-        <v>299</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="6:57">
-      <c r="F29" t="s">
-        <v>300</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="30" spans="6:57">
-      <c r="F30" t="s">
-        <v>301</v>
-      </c>
-      <c r="BE30" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="31" spans="6:57">
-      <c r="BE31" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="32" spans="6:57">
-      <c r="BE32" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="33" spans="57:57">
-      <c r="BE33" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="34" spans="57:57">
-      <c r="BE34" t="s">
+      <c r="BG30" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="57:57">
-      <c r="BE35" t="s">
+    <row r="31" spans="8:59">
+      <c r="BG31" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="57:57">
-      <c r="BE36" t="s">
+    <row r="32" spans="8:59">
+      <c r="BG32" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="57:57">
-      <c r="BE37" t="s">
+    <row r="33" spans="59:59">
+      <c r="BG33" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="57:57">
-      <c r="BE38" t="s">
+    <row r="34" spans="59:59">
+      <c r="BG34" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="57:57">
-      <c r="BE39" t="s">
+    <row r="35" spans="59:59">
+      <c r="BG35" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="40" spans="57:57">
-      <c r="BE40" t="s">
+    <row r="36" spans="59:59">
+      <c r="BG36" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="41" spans="57:57">
-      <c r="BE41" t="s">
+    <row r="37" spans="59:59">
+      <c r="BG37" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="57:57">
-      <c r="BE42" t="s">
+    <row r="38" spans="59:59">
+      <c r="BG38" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="57:57">
-      <c r="BE43" t="s">
+    <row r="39" spans="59:59">
+      <c r="BG39" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="57:57">
-      <c r="BE44" t="s">
+    <row r="40" spans="59:59">
+      <c r="BG40" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="57:57">
-      <c r="BE45" t="s">
+    <row r="41" spans="59:59">
+      <c r="BG41" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="46" spans="57:57">
-      <c r="BE46" t="s">
+    <row r="42" spans="59:59">
+      <c r="BG42" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="47" spans="57:57">
-      <c r="BE47" t="s">
+    <row r="43" spans="59:59">
+      <c r="BG43" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="57:57">
-      <c r="BE48" t="s">
+    <row r="44" spans="59:59">
+      <c r="BG44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="57:57">
-      <c r="BE49" t="s">
+    <row r="45" spans="59:59">
+      <c r="BG45" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="57:57">
-      <c r="BE50" t="s">
+    <row r="46" spans="59:59">
+      <c r="BG46" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="51" spans="57:57">
-      <c r="BE51" t="s">
+    <row r="47" spans="59:59">
+      <c r="BG47" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="57:57">
-      <c r="BE52" t="s">
+    <row r="48" spans="59:59">
+      <c r="BG48" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="53" spans="57:57">
-      <c r="BE53" t="s">
+    <row r="49" spans="59:59">
+      <c r="BG49" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="57:57">
-      <c r="BE54" t="s">
+    <row r="50" spans="59:59">
+      <c r="BG50" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="57:57">
-      <c r="BE55" t="s">
+    <row r="51" spans="59:59">
+      <c r="BG51" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="56" spans="57:57">
-      <c r="BE56" t="s">
+    <row r="52" spans="59:59">
+      <c r="BG52" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="57:57">
-      <c r="BE57" t="s">
+    <row r="53" spans="59:59">
+      <c r="BG53" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="58" spans="57:57">
-      <c r="BE58" t="s">
+    <row r="54" spans="59:59">
+      <c r="BG54" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="59" spans="57:57">
-      <c r="BE59" t="s">
+    <row r="55" spans="59:59">
+      <c r="BG55" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="60" spans="57:57">
-      <c r="BE60" t="s">
+    <row r="56" spans="59:59">
+      <c r="BG56" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="61" spans="57:57">
-      <c r="BE61" t="s">
+    <row r="57" spans="59:59">
+      <c r="BG57" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="57:57">
-      <c r="BE62" t="s">
+    <row r="58" spans="59:59">
+      <c r="BG58" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="57:57">
-      <c r="BE63" t="s">
+    <row r="59" spans="59:59">
+      <c r="BG59" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="57:57">
-      <c r="BE64" t="s">
+    <row r="60" spans="59:59">
+      <c r="BG60" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="65" spans="57:57">
-      <c r="BE65" t="s">
+    <row r="61" spans="59:59">
+      <c r="BG61" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="66" spans="57:57">
-      <c r="BE66" t="s">
+    <row r="62" spans="59:59">
+      <c r="BG62" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="57:57">
-      <c r="BE67" t="s">
+    <row r="63" spans="59:59">
+      <c r="BG63" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="68" spans="57:57">
-      <c r="BE68" t="s">
+    <row r="64" spans="59:59">
+      <c r="BG64" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="69" spans="57:57">
-      <c r="BE69" t="s">
+    <row r="65" spans="59:59">
+      <c r="BG65" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="70" spans="57:57">
-      <c r="BE70" t="s">
+    <row r="66" spans="59:59">
+      <c r="BG66" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="57:57">
-      <c r="BE71" t="s">
+    <row r="67" spans="59:59">
+      <c r="BG67" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="72" spans="57:57">
-      <c r="BE72" t="s">
+    <row r="68" spans="59:59">
+      <c r="BG68" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="73" spans="57:57">
-      <c r="BE73" t="s">
+    <row r="69" spans="59:59">
+      <c r="BG69" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="74" spans="57:57">
-      <c r="BE74" t="s">
+    <row r="70" spans="59:59">
+      <c r="BG70" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="75" spans="57:57">
-      <c r="BE75" t="s">
+    <row r="71" spans="59:59">
+      <c r="BG71" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="76" spans="57:57">
-      <c r="BE76" t="s">
+    <row r="72" spans="59:59">
+      <c r="BG72" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="77" spans="57:57">
-      <c r="BE77" t="s">
+    <row r="73" spans="59:59">
+      <c r="BG73" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="78" spans="57:57">
-      <c r="BE78" t="s">
+    <row r="74" spans="59:59">
+      <c r="BG74" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="57:57">
-      <c r="BE79" t="s">
+    <row r="75" spans="59:59">
+      <c r="BG75" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="57:57">
-      <c r="BE80" t="s">
+    <row r="76" spans="59:59">
+      <c r="BG76" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="81" spans="57:57">
-      <c r="BE81" t="s">
+    <row r="77" spans="59:59">
+      <c r="BG77" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="82" spans="57:57">
-      <c r="BE82" t="s">
+    <row r="78" spans="59:59">
+      <c r="BG78" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="57:57">
-      <c r="BE83" t="s">
+    <row r="79" spans="59:59">
+      <c r="BG79" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="84" spans="57:57">
-      <c r="BE84" t="s">
+    <row r="80" spans="59:59">
+      <c r="BG80" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="85" spans="57:57">
-      <c r="BE85" t="s">
+    <row r="81" spans="59:59">
+      <c r="BG81" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="86" spans="57:57">
-      <c r="BE86" t="s">
+    <row r="82" spans="59:59">
+      <c r="BG82" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="87" spans="57:57">
-      <c r="BE87" t="s">
+    <row r="83" spans="59:59">
+      <c r="BG83" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="88" spans="57:57">
-      <c r="BE88" t="s">
+    <row r="84" spans="59:59">
+      <c r="BG84" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="89" spans="57:57">
-      <c r="BE89" t="s">
+    <row r="85" spans="59:59">
+      <c r="BG85" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="90" spans="57:57">
-      <c r="BE90" t="s">
+    <row r="86" spans="59:59">
+      <c r="BG86" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="91" spans="57:57">
-      <c r="BE91" t="s">
+    <row r="87" spans="59:59">
+      <c r="BG87" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="57:57">
-      <c r="BE92" t="s">
+    <row r="88" spans="59:59">
+      <c r="BG88" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="93" spans="57:57">
-      <c r="BE93" t="s">
+    <row r="89" spans="59:59">
+      <c r="BG89" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="94" spans="57:57">
-      <c r="BE94" t="s">
+    <row r="90" spans="59:59">
+      <c r="BG90" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="95" spans="57:57">
-      <c r="BE95" t="s">
+    <row r="91" spans="59:59">
+      <c r="BG91" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="96" spans="57:57">
-      <c r="BE96" t="s">
+    <row r="92" spans="59:59">
+      <c r="BG92" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="97" spans="57:57">
-      <c r="BE97" t="s">
+    <row r="93" spans="59:59">
+      <c r="BG93" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="98" spans="57:57">
-      <c r="BE98" t="s">
+    <row r="94" spans="59:59">
+      <c r="BG94" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="99" spans="57:57">
-      <c r="BE99" t="s">
+    <row r="95" spans="59:59">
+      <c r="BG95" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="100" spans="57:57">
-      <c r="BE100" t="s">
+    <row r="96" spans="59:59">
+      <c r="BG96" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="101" spans="57:57">
-      <c r="BE101" t="s">
+    <row r="97" spans="59:59">
+      <c r="BG97" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="102" spans="57:57">
-      <c r="BE102" t="s">
+    <row r="98" spans="59:59">
+      <c r="BG98" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="103" spans="57:57">
-      <c r="BE103" t="s">
+    <row r="99" spans="59:59">
+      <c r="BG99" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="104" spans="57:57">
-      <c r="BE104" t="s">
+    <row r="100" spans="59:59">
+      <c r="BG100" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="105" spans="57:57">
-      <c r="BE105" t="s">
+    <row r="101" spans="59:59">
+      <c r="BG101" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="106" spans="57:57">
-      <c r="BE106" t="s">
+    <row r="102" spans="59:59">
+      <c r="BG102" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="107" spans="57:57">
-      <c r="BE107" t="s">
+    <row r="103" spans="59:59">
+      <c r="BG103" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="108" spans="57:57">
-      <c r="BE108" t="s">
+    <row r="104" spans="59:59">
+      <c r="BG104" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="109" spans="57:57">
-      <c r="BE109" t="s">
+    <row r="105" spans="59:59">
+      <c r="BG105" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="110" spans="57:57">
-      <c r="BE110" t="s">
+    <row r="106" spans="59:59">
+      <c r="BG106" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="111" spans="57:57">
-      <c r="BE111" t="s">
+    <row r="107" spans="59:59">
+      <c r="BG107" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="112" spans="57:57">
-      <c r="BE112" t="s">
+    <row r="108" spans="59:59">
+      <c r="BG108" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="113" spans="57:57">
-      <c r="BE113" t="s">
+    <row r="109" spans="59:59">
+      <c r="BG109" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="114" spans="57:57">
-      <c r="BE114" t="s">
+    <row r="110" spans="59:59">
+      <c r="BG110" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="115" spans="57:57">
-      <c r="BE115" t="s">
+    <row r="111" spans="59:59">
+      <c r="BG111" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="116" spans="57:57">
-      <c r="BE116" t="s">
+    <row r="112" spans="59:59">
+      <c r="BG112" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="117" spans="57:57">
-      <c r="BE117" t="s">
+    <row r="113" spans="59:59">
+      <c r="BG113" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="118" spans="57:57">
-      <c r="BE118" t="s">
+    <row r="114" spans="59:59">
+      <c r="BG114" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="119" spans="57:57">
-      <c r="BE119" t="s">
+    <row r="115" spans="59:59">
+      <c r="BG115" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="120" spans="57:57">
-      <c r="BE120" t="s">
+    <row r="116" spans="59:59">
+      <c r="BG116" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="121" spans="57:57">
-      <c r="BE121" t="s">
+    <row r="117" spans="59:59">
+      <c r="BG117" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="122" spans="57:57">
-      <c r="BE122" t="s">
+    <row r="118" spans="59:59">
+      <c r="BG118" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="123" spans="57:57">
-      <c r="BE123" t="s">
+    <row r="119" spans="59:59">
+      <c r="BG119" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="124" spans="57:57">
-      <c r="BE124" t="s">
+    <row r="120" spans="59:59">
+      <c r="BG120" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="125" spans="57:57">
-      <c r="BE125" t="s">
+    <row r="121" spans="59:59">
+      <c r="BG121" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="126" spans="57:57">
-      <c r="BE126" t="s">
+    <row r="122" spans="59:59">
+      <c r="BG122" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="127" spans="57:57">
-      <c r="BE127" t="s">
+    <row r="123" spans="59:59">
+      <c r="BG123" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="128" spans="57:57">
-      <c r="BE128" t="s">
+    <row r="124" spans="59:59">
+      <c r="BG124" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="129" spans="57:57">
-      <c r="BE129" t="s">
+    <row r="125" spans="59:59">
+      <c r="BG125" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="130" spans="57:57">
-      <c r="BE130" t="s">
+    <row r="126" spans="59:59">
+      <c r="BG126" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="131" spans="57:57">
-      <c r="BE131" t="s">
+    <row r="127" spans="59:59">
+      <c r="BG127" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="132" spans="57:57">
-      <c r="BE132" t="s">
+    <row r="128" spans="59:59">
+      <c r="BG128" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="133" spans="57:57">
-      <c r="BE133" t="s">
+    <row r="129" spans="59:59">
+      <c r="BG129" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="134" spans="57:57">
-      <c r="BE134" t="s">
+    <row r="130" spans="59:59">
+      <c r="BG130" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="135" spans="57:57">
-      <c r="BE135" t="s">
+    <row r="131" spans="59:59">
+      <c r="BG131" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="136" spans="57:57">
-      <c r="BE136" t="s">
+    <row r="132" spans="59:59">
+      <c r="BG132" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="137" spans="57:57">
-      <c r="BE137" t="s">
+    <row r="133" spans="59:59">
+      <c r="BG133" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="138" spans="57:57">
-      <c r="BE138" t="s">
+    <row r="134" spans="59:59">
+      <c r="BG134" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="139" spans="57:57">
-      <c r="BE139" t="s">
+    <row r="135" spans="59:59">
+      <c r="BG135" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="57:57">
-      <c r="BE140" t="s">
+    <row r="136" spans="59:59">
+      <c r="BG136" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="141" spans="57:57">
-      <c r="BE141" t="s">
+    <row r="137" spans="59:59">
+      <c r="BG137" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="142" spans="57:57">
-      <c r="BE142" t="s">
+    <row r="138" spans="59:59">
+      <c r="BG138" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="143" spans="57:57">
-      <c r="BE143" t="s">
+    <row r="139" spans="59:59">
+      <c r="BG139" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="144" spans="57:57">
-      <c r="BE144" t="s">
+    <row r="140" spans="59:59">
+      <c r="BG140" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="145" spans="57:57">
-      <c r="BE145" t="s">
+    <row r="141" spans="59:59">
+      <c r="BG141" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="146" spans="57:57">
-      <c r="BE146" t="s">
+    <row r="142" spans="59:59">
+      <c r="BG142" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="147" spans="57:57">
-      <c r="BE147" t="s">
+    <row r="143" spans="59:59">
+      <c r="BG143" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="148" spans="57:57">
-      <c r="BE148" t="s">
+    <row r="144" spans="59:59">
+      <c r="BG144" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="149" spans="57:57">
-      <c r="BE149" t="s">
+    <row r="145" spans="59:59">
+      <c r="BG145" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="150" spans="57:57">
-      <c r="BE150" t="s">
+    <row r="146" spans="59:59">
+      <c r="BG146" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="151" spans="57:57">
-      <c r="BE151" t="s">
+    <row r="147" spans="59:59">
+      <c r="BG147" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="152" spans="57:57">
-      <c r="BE152" t="s">
+    <row r="148" spans="59:59">
+      <c r="BG148" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="153" spans="57:57">
-      <c r="BE153" t="s">
+    <row r="149" spans="59:59">
+      <c r="BG149" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="154" spans="57:57">
-      <c r="BE154" t="s">
+    <row r="150" spans="59:59">
+      <c r="BG150" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="155" spans="57:57">
-      <c r="BE155" t="s">
+    <row r="151" spans="59:59">
+      <c r="BG151" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="156" spans="57:57">
-      <c r="BE156" t="s">
+    <row r="152" spans="59:59">
+      <c r="BG152" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="157" spans="57:57">
-      <c r="BE157" t="s">
+    <row r="153" spans="59:59">
+      <c r="BG153" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="57:57">
-      <c r="BE158" t="s">
+    <row r="154" spans="59:59">
+      <c r="BG154" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="159" spans="57:57">
-      <c r="BE159" t="s">
+    <row r="155" spans="59:59">
+      <c r="BG155" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="57:57">
-      <c r="BE160" t="s">
+    <row r="156" spans="59:59">
+      <c r="BG156" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="161" spans="57:57">
-      <c r="BE161" t="s">
+    <row r="157" spans="59:59">
+      <c r="BG157" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="162" spans="57:57">
-      <c r="BE162" t="s">
+    <row r="158" spans="59:59">
+      <c r="BG158" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="163" spans="57:57">
-      <c r="BE163" t="s">
+    <row r="159" spans="59:59">
+      <c r="BG159" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="164" spans="57:57">
-      <c r="BE164" t="s">
+    <row r="160" spans="59:59">
+      <c r="BG160" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="165" spans="57:57">
-      <c r="BE165" t="s">
+    <row r="161" spans="59:59">
+      <c r="BG161" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="166" spans="57:57">
-      <c r="BE166" t="s">
+    <row r="162" spans="59:59">
+      <c r="BG162" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="167" spans="57:57">
-      <c r="BE167" t="s">
+    <row r="163" spans="59:59">
+      <c r="BG163" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="168" spans="57:57">
-      <c r="BE168" t="s">
+    <row r="164" spans="59:59">
+      <c r="BG164" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="169" spans="57:57">
-      <c r="BE169" t="s">
+    <row r="165" spans="59:59">
+      <c r="BG165" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="170" spans="57:57">
-      <c r="BE170" t="s">
+    <row r="166" spans="59:59">
+      <c r="BG166" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="171" spans="57:57">
-      <c r="BE171" t="s">
+    <row r="167" spans="59:59">
+      <c r="BG167" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="172" spans="57:57">
-      <c r="BE172" t="s">
+    <row r="168" spans="59:59">
+      <c r="BG168" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="173" spans="57:57">
-      <c r="BE173" t="s">
+    <row r="169" spans="59:59">
+      <c r="BG169" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="174" spans="57:57">
-      <c r="BE174" t="s">
+    <row r="170" spans="59:59">
+      <c r="BG170" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="175" spans="57:57">
-      <c r="BE175" t="s">
+    <row r="171" spans="59:59">
+      <c r="BG171" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="176" spans="57:57">
-      <c r="BE176" t="s">
+    <row r="172" spans="59:59">
+      <c r="BG172" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="177" spans="57:57">
-      <c r="BE177" t="s">
+    <row r="173" spans="59:59">
+      <c r="BG173" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="178" spans="57:57">
-      <c r="BE178" t="s">
+    <row r="174" spans="59:59">
+      <c r="BG174" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="179" spans="57:57">
-      <c r="BE179" t="s">
+    <row r="175" spans="59:59">
+      <c r="BG175" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="180" spans="57:57">
-      <c r="BE180" t="s">
+    <row r="176" spans="59:59">
+      <c r="BG176" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="181" spans="57:57">
-      <c r="BE181" t="s">
+    <row r="177" spans="59:59">
+      <c r="BG177" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="182" spans="57:57">
-      <c r="BE182" t="s">
+    <row r="178" spans="59:59">
+      <c r="BG178" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="183" spans="57:57">
-      <c r="BE183" t="s">
+    <row r="179" spans="59:59">
+      <c r="BG179" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="184" spans="57:57">
-      <c r="BE184" t="s">
+    <row r="180" spans="59:59">
+      <c r="BG180" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="185" spans="57:57">
-      <c r="BE185" t="s">
+    <row r="181" spans="59:59">
+      <c r="BG181" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="186" spans="57:57">
-      <c r="BE186" t="s">
+    <row r="182" spans="59:59">
+      <c r="BG182" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="187" spans="57:57">
-      <c r="BE187" t="s">
+    <row r="183" spans="59:59">
+      <c r="BG183" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="188" spans="57:57">
-      <c r="BE188" t="s">
+    <row r="184" spans="59:59">
+      <c r="BG184" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="189" spans="57:57">
-      <c r="BE189" t="s">
+    <row r="185" spans="59:59">
+      <c r="BG185" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="190" spans="57:57">
-      <c r="BE190" t="s">
+    <row r="186" spans="59:59">
+      <c r="BG186" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="191" spans="57:57">
-      <c r="BE191" t="s">
+    <row r="187" spans="59:59">
+      <c r="BG187" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="192" spans="57:57">
-      <c r="BE192" t="s">
+    <row r="188" spans="59:59">
+      <c r="BG188" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="193" spans="57:57">
-      <c r="BE193" t="s">
+    <row r="189" spans="59:59">
+      <c r="BG189" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="194" spans="57:57">
-      <c r="BE194" t="s">
+    <row r="190" spans="59:59">
+      <c r="BG190" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="195" spans="57:57">
-      <c r="BE195" t="s">
+    <row r="191" spans="59:59">
+      <c r="BG191" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="196" spans="57:57">
-      <c r="BE196" t="s">
+    <row r="192" spans="59:59">
+      <c r="BG192" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="197" spans="57:57">
-      <c r="BE197" t="s">
+    <row r="193" spans="59:59">
+      <c r="BG193" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="198" spans="57:57">
-      <c r="BE198" t="s">
+    <row r="194" spans="59:59">
+      <c r="BG194" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="199" spans="57:57">
-      <c r="BE199" t="s">
+    <row r="195" spans="59:59">
+      <c r="BG195" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="200" spans="57:57">
-      <c r="BE200" t="s">
+    <row r="196" spans="59:59">
+      <c r="BG196" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="201" spans="57:57">
-      <c r="BE201" t="s">
+    <row r="197" spans="59:59">
+      <c r="BG197" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="202" spans="57:57">
-      <c r="BE202" t="s">
+    <row r="198" spans="59:59">
+      <c r="BG198" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="203" spans="57:57">
-      <c r="BE203" t="s">
+    <row r="199" spans="59:59">
+      <c r="BG199" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="204" spans="57:57">
-      <c r="BE204" t="s">
+    <row r="200" spans="59:59">
+      <c r="BG200" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="205" spans="57:57">
-      <c r="BE205" t="s">
+    <row r="201" spans="59:59">
+      <c r="BG201" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="206" spans="57:57">
-      <c r="BE206" t="s">
+    <row r="202" spans="59:59">
+      <c r="BG202" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="207" spans="57:57">
-      <c r="BE207" t="s">
+    <row r="203" spans="59:59">
+      <c r="BG203" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="208" spans="57:57">
-      <c r="BE208" t="s">
+    <row r="204" spans="59:59">
+      <c r="BG204" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="209" spans="57:57">
-      <c r="BE209" t="s">
+    <row r="205" spans="59:59">
+      <c r="BG205" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="210" spans="57:57">
-      <c r="BE210" t="s">
+    <row r="206" spans="59:59">
+      <c r="BG206" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="211" spans="57:57">
-      <c r="BE211" t="s">
+    <row r="207" spans="59:59">
+      <c r="BG207" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="212" spans="57:57">
-      <c r="BE212" t="s">
+    <row r="208" spans="59:59">
+      <c r="BG208" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="213" spans="57:57">
-      <c r="BE213" t="s">
+    <row r="209" spans="59:59">
+      <c r="BG209" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="214" spans="57:57">
-      <c r="BE214" t="s">
+    <row r="210" spans="59:59">
+      <c r="BG210" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="215" spans="57:57">
-      <c r="BE215" t="s">
+    <row r="211" spans="59:59">
+      <c r="BG211" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="216" spans="57:57">
-      <c r="BE216" t="s">
+    <row r="212" spans="59:59">
+      <c r="BG212" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="217" spans="57:57">
-      <c r="BE217" t="s">
+    <row r="213" spans="59:59">
+      <c r="BG213" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="218" spans="57:57">
-      <c r="BE218" t="s">
+    <row r="214" spans="59:59">
+      <c r="BG214" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="219" spans="57:57">
-      <c r="BE219" t="s">
+    <row r="215" spans="59:59">
+      <c r="BG215" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="220" spans="57:57">
-      <c r="BE220" t="s">
+    <row r="216" spans="59:59">
+      <c r="BG216" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="221" spans="57:57">
-      <c r="BE221" t="s">
+    <row r="217" spans="59:59">
+      <c r="BG217" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="222" spans="57:57">
-      <c r="BE222" t="s">
+    <row r="218" spans="59:59">
+      <c r="BG218" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="223" spans="57:57">
-      <c r="BE223" t="s">
+    <row r="219" spans="59:59">
+      <c r="BG219" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="224" spans="57:57">
-      <c r="BE224" t="s">
+    <row r="220" spans="59:59">
+      <c r="BG220" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="57:57">
-      <c r="BE225" t="s">
+    <row r="221" spans="59:59">
+      <c r="BG221" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="226" spans="57:57">
-      <c r="BE226" t="s">
+    <row r="222" spans="59:59">
+      <c r="BG222" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="227" spans="57:57">
-      <c r="BE227" t="s">
+    <row r="223" spans="59:59">
+      <c r="BG223" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="228" spans="57:57">
-      <c r="BE228" t="s">
+    <row r="224" spans="59:59">
+      <c r="BG224" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="229" spans="57:57">
-      <c r="BE229" t="s">
+    <row r="225" spans="59:59">
+      <c r="BG225" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="230" spans="57:57">
-      <c r="BE230" t="s">
+    <row r="226" spans="59:59">
+      <c r="BG226" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="231" spans="57:57">
-      <c r="BE231" t="s">
+    <row r="227" spans="59:59">
+      <c r="BG227" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="232" spans="57:57">
-      <c r="BE232" t="s">
+    <row r="228" spans="59:59">
+      <c r="BG228" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="233" spans="57:57">
-      <c r="BE233" t="s">
+    <row r="229" spans="59:59">
+      <c r="BG229" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="234" spans="57:57">
-      <c r="BE234" t="s">
+    <row r="230" spans="59:59">
+      <c r="BG230" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="235" spans="57:57">
-      <c r="BE235" t="s">
+    <row r="231" spans="59:59">
+      <c r="BG231" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="236" spans="57:57">
-      <c r="BE236" t="s">
+    <row r="232" spans="59:59">
+      <c r="BG232" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="237" spans="57:57">
-      <c r="BE237" t="s">
+    <row r="233" spans="59:59">
+      <c r="BG233" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="238" spans="57:57">
-      <c r="BE238" t="s">
+    <row r="234" spans="59:59">
+      <c r="BG234" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="239" spans="57:57">
-      <c r="BE239" t="s">
+    <row r="235" spans="59:59">
+      <c r="BG235" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="240" spans="57:57">
-      <c r="BE240" t="s">
+    <row r="236" spans="59:59">
+      <c r="BG236" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="241" spans="57:57">
-      <c r="BE241" t="s">
+    <row r="237" spans="59:59">
+      <c r="BG237" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="242" spans="57:57">
-      <c r="BE242" t="s">
+    <row r="238" spans="59:59">
+      <c r="BG238" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="57:57">
-      <c r="BE243" t="s">
+    <row r="239" spans="59:59">
+      <c r="BG239" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="244" spans="57:57">
-      <c r="BE244" t="s">
+    <row r="240" spans="59:59">
+      <c r="BG240" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="245" spans="57:57">
-      <c r="BE245" t="s">
+    <row r="241" spans="59:59">
+      <c r="BG241" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="246" spans="57:57">
-      <c r="BE246" t="s">
+    <row r="242" spans="59:59">
+      <c r="BG242" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="247" spans="57:57">
-      <c r="BE247" t="s">
+    <row r="243" spans="59:59">
+      <c r="BG243" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="248" spans="57:57">
-      <c r="BE248" t="s">
+    <row r="244" spans="59:59">
+      <c r="BG244" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="249" spans="57:57">
-      <c r="BE249" t="s">
+    <row r="245" spans="59:59">
+      <c r="BG245" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="250" spans="57:57">
-      <c r="BE250" t="s">
+    <row r="246" spans="59:59">
+      <c r="BG246" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="251" spans="57:57">
-      <c r="BE251" t="s">
+    <row r="247" spans="59:59">
+      <c r="BG247" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="252" spans="57:57">
-      <c r="BE252" t="s">
+    <row r="248" spans="59:59">
+      <c r="BG248" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="253" spans="57:57">
-      <c r="BE253" t="s">
+    <row r="249" spans="59:59">
+      <c r="BG249" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="254" spans="57:57">
-      <c r="BE254" t="s">
+    <row r="250" spans="59:59">
+      <c r="BG250" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="255" spans="57:57">
-      <c r="BE255" t="s">
+    <row r="251" spans="59:59">
+      <c r="BG251" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="256" spans="57:57">
-      <c r="BE256" t="s">
+    <row r="252" spans="59:59">
+      <c r="BG252" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="257" spans="57:57">
-      <c r="BE257" t="s">
+    <row r="253" spans="59:59">
+      <c r="BG253" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="258" spans="57:57">
-      <c r="BE258" t="s">
+    <row r="254" spans="59:59">
+      <c r="BG254" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="259" spans="57:57">
-      <c r="BE259" t="s">
+    <row r="255" spans="59:59">
+      <c r="BG255" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="260" spans="57:57">
-      <c r="BE260" t="s">
+    <row r="256" spans="59:59">
+      <c r="BG256" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="261" spans="57:57">
-      <c r="BE261" t="s">
+    <row r="257" spans="59:59">
+      <c r="BG257" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="262" spans="57:57">
-      <c r="BE262" t="s">
+    <row r="258" spans="59:59">
+      <c r="BG258" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="263" spans="57:57">
-      <c r="BE263" t="s">
+    <row r="259" spans="59:59">
+      <c r="BG259" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="264" spans="57:57">
-      <c r="BE264" t="s">
+    <row r="260" spans="59:59">
+      <c r="BG260" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="265" spans="57:57">
-      <c r="BE265" t="s">
+    <row r="261" spans="59:59">
+      <c r="BG261" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="266" spans="57:57">
-      <c r="BE266" t="s">
+    <row r="262" spans="59:59">
+      <c r="BG262" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="267" spans="57:57">
-      <c r="BE267" t="s">
+    <row r="263" spans="59:59">
+      <c r="BG263" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="268" spans="57:57">
-      <c r="BE268" t="s">
+    <row r="264" spans="59:59">
+      <c r="BG264" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="269" spans="57:57">
-      <c r="BE269" t="s">
+    <row r="265" spans="59:59">
+      <c r="BG265" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="57:57">
-      <c r="BE270" t="s">
+    <row r="266" spans="59:59">
+      <c r="BG266" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="271" spans="57:57">
-      <c r="BE271" t="s">
+    <row r="267" spans="59:59">
+      <c r="BG267" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="272" spans="57:57">
-      <c r="BE272" t="s">
+    <row r="268" spans="59:59">
+      <c r="BG268" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="273" spans="57:57">
-      <c r="BE273" t="s">
+    <row r="269" spans="59:59">
+      <c r="BG269" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="274" spans="57:57">
-      <c r="BE274" t="s">
+    <row r="270" spans="59:59">
+      <c r="BG270" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="275" spans="57:57">
-      <c r="BE275" t="s">
+    <row r="271" spans="59:59">
+      <c r="BG271" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="276" spans="57:57">
-      <c r="BE276" t="s">
+    <row r="272" spans="59:59">
+      <c r="BG272" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="277" spans="57:57">
-      <c r="BE277" t="s">
+    <row r="273" spans="59:59">
+      <c r="BG273" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="278" spans="57:57">
-      <c r="BE278" t="s">
+    <row r="274" spans="59:59">
+      <c r="BG274" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="279" spans="57:57">
-      <c r="BE279" t="s">
+    <row r="275" spans="59:59">
+      <c r="BG275" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="280" spans="57:57">
-      <c r="BE280" t="s">
+    <row r="276" spans="59:59">
+      <c r="BG276" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="281" spans="57:57">
-      <c r="BE281" t="s">
+    <row r="277" spans="59:59">
+      <c r="BG277" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="282" spans="57:57">
-      <c r="BE282" t="s">
+    <row r="278" spans="59:59">
+      <c r="BG278" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="283" spans="57:57">
-      <c r="BE283" t="s">
+    <row r="279" spans="59:59">
+      <c r="BG279" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="284" spans="57:57">
-      <c r="BE284" t="s">
+    <row r="280" spans="59:59">
+      <c r="BG280" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="285" spans="57:57">
-      <c r="BE285" t="s">
+    <row r="281" spans="59:59">
+      <c r="BG281" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="286" spans="57:57">
-      <c r="BE286" t="s">
+    <row r="282" spans="59:59">
+      <c r="BG282" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="287" spans="57:57">
-      <c r="BE287" t="s">
+    <row r="283" spans="59:59">
+      <c r="BG283" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="288" spans="57:57">
-      <c r="BE288" t="s">
+    <row r="284" spans="59:59">
+      <c r="BG284" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="289" spans="57:57">
-      <c r="BE289" t="s">
+    <row r="285" spans="59:59">
+      <c r="BG285" t="s">
         <v>711</v>
+      </c>
+    </row>
+    <row r="286" spans="59:59">
+      <c r="BG286" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="287" spans="59:59">
+      <c r="BG287" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="288" spans="59:59">
+      <c r="BG288" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="289" spans="59:59">
+      <c r="BG289" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BG$1:$BG$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BG$1:$BG$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="916">
   <si>
     <t>alias</t>
   </si>
@@ -1026,7 +1026,7 @@
     <t>sample transport conditions</t>
   </si>
   <si>
-    <t>(Optional) Sample transport duration (in days or hrs) and temperature the sample was exposed to (e.g. 5.5 days; 20 °c) (Units: m2)</t>
+    <t>(Optional) Sample transport duration (in days or hrs) and temperature the sample was exposed to (e.g. 5.5 days; 20 °c) (Units: km2, m2, cm2, ha)</t>
   </si>
   <si>
     <t>sample collection device</t>
@@ -1062,7 +1062,7 @@
     <t>sample measured depth</t>
   </si>
   <si>
-    <t>(Optional) In non deviated well, measured depth is equal to the true vertical depth, tvd (tvd=tvdss plus the reference or datum it refers to). in deviated wells, the md is the length of trajectory of the borehole measured from the same reference or datum. common datums used are ground level (gl), drilling rig floor (df), rotary table (rt), kelly bushing (kb) and mean sea level (msl). if "other" is specified, please propose entry in "additional info" field (Units: mm)</t>
+    <t>(Optional) In non deviated well, measured depth is equal to the true vertical depth, tvd (tvd=tvdss plus the reference or datum it refers to). in deviated wells, the md is the length of trajectory of the borehole measured from the same reference or datum. common datums used are ground level (gl), drilling rig floor (df), rotary table (rt), kelly bushing (kb) and mean sea level (msl). if "other" is specified, please propose entry in "additional info" field (Units: mm, km, m)</t>
   </si>
   <si>
     <t>corrosion rate at sample location</t>
@@ -1203,13 +1203,13 @@
     <t>well identification number</t>
   </si>
   <si>
-    <t>(Optional) A unique identifier of a well or wellbore. this is part of the global framework for well identification initiative which is compiled by the professional petroleum data management association (ppdm) in an effort to improve well identification systems. (supporting information: https://ppdm.org/ and http://dl.ppdm.org/dl/690) (Units: year)</t>
+    <t>(Optional) A unique identifier of a well or wellbore. this is part of the global framework for well identification initiative which is compiled by the professional petroleum data management association (ppdm) in an effort to improve well identification systems. (supporting information: https://ppdm.org/ and http://dl.ppdm.org/dl/690) (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>water cut</t>
   </si>
   <si>
-    <t>(Optional) Current amount of water (%) in a produced fluid stream; or the average of the combined streams (Units: year)</t>
+    <t>(Optional) Current amount of water (%) in a produced fluid stream; or the average of the combined streams (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>production rate</t>
@@ -1287,7 +1287,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1299,13 +1299,13 @@
     <t>organism count qpcr information</t>
   </si>
   <si>
-    <t>(Optional) If qpcr was used for the cell count, the target gene name, the primer sequence and the cycling conditions should also be provided. (example: 16s rrna; fwd:acgtagctatgacgt rev:gtgctagtcgagtac; initial denaturation:90c_5min; denaturation:90c_2min; annealing:52c_30 sec; elongation:72c_30 sec; 90 c for 1 min; final elongation:72c_5min; 30 cycles) (Units: year)</t>
+    <t>(Optional) If qpcr was used for the cell count, the target gene name, the primer sequence and the cycling conditions should also be provided. (example: 16s rrna; fwd:acgtagctatgacgt rev:gtgctagtcgagtac; initial denaturation:90c_5min; denaturation:90c_2min; annealing:52c_30 sec; elongation:72c_30 sec; 90 c for 1 min; final elongation:72c_5min; 30 cycles) (Units: century, week, month, year)</t>
   </si>
   <si>
     <t>hydrocarbon type produced</t>
   </si>
   <si>
-    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>api gravity</t>
@@ -1533,9 +1533,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1554,6 +1551,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1755,6 +1755,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1764,9 +1767,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1806,7 +1806,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1875,6 +1875,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1950,6 +1953,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1971,6 +1977,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2016,6 +2025,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2028,6 +2040,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2037,9 +2052,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2064,6 +2076,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2124,12 +2139,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2208,7 +2223,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar, atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2232,7 +2247,7 @@
     <t>permeability</t>
   </si>
   <si>
-    <t>(Optional) Measure of the ability of a hydrocarbon resource to allow fluids to pass through it. (additional information: https://en.wikipedia.org/wiki/permeability_(earth_sciences)) (Units: mm)</t>
+    <t>(Optional) Measure of the ability of a hydrocarbon resource to allow fluids to pass through it. (additional information: https://en.wikipedia.org/wiki/permeability_(earth_sciences)) (Units: mm, km, m)</t>
   </si>
   <si>
     <t>oil water contact depth</t>
@@ -2244,7 +2259,7 @@
     <t>hydrocarbon resource original pressure</t>
   </si>
   <si>
-    <t>(Optional) Original pressure of the hydrocarbon resource (Units: Pa)</t>
+    <t>(Optional) Original pressure of the hydrocarbon resource (Units: Pa, N/m2)</t>
   </si>
   <si>
     <t>source rock geological age</t>
@@ -2268,7 +2283,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: parts/million, µmol/L, mg/L)</t>
   </si>
   <si>
     <t>chloride</t>
@@ -2280,7 +2295,7 @@
     <t>suspended solids</t>
   </si>
   <si>
-    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million, mol/L, g/L)</t>
   </si>
   <si>
     <t>dissolved carbon dioxide</t>
@@ -2310,7 +2325,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million, mol/L, mg/L)</t>
   </si>
   <si>
     <t>nitrate</t>
@@ -2334,7 +2349,7 @@
     <t>potassium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of potassium (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>salinity</t>
@@ -2346,19 +2361,19 @@
     <t>sodium</t>
   </si>
   <si>
-    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
+    <t>(Optional) Sodium concentration (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>total phosphorus</t>
@@ -2382,7 +2397,7 @@
     <t>dissolved iron</t>
   </si>
   <si>
-    <t>(Optional) Concentration of dissolved iron in the sample (Units: µl/L)</t>
+    <t>(Optional) Concentration of dissolved iron in the sample (Units: mg/L, µl/L)</t>
   </si>
   <si>
     <t>resins wt%</t>
@@ -2394,13 +2409,13 @@
     <t>dissolved oxygen in fluids</t>
   </si>
   <si>
-    <t>(Optional) Concentration of dissolved oxygen in the oil field produced fluids as it contributes to oxgyen-corrosion and microbial activity (e.g. mic). (Units: µmol/kg)</t>
+    <t>(Optional) Concentration of dissolved oxygen in the oil field produced fluids as it contributes to oxgyen-corrosion and microbial activity (e.g. mic). (Units: µmol/kg, µmol/L, mg/L, µg/L)</t>
   </si>
   <si>
     <t>total sulfur</t>
   </si>
   <si>
-    <t>(Optional) Concentration of total sulfur in the sample (Units: µmol/L)</t>
+    <t>(Optional) Concentration of total sulfur in the sample (Units: µmol/L, mg/L, µg/L)</t>
   </si>
   <si>
     <t>injection water fraction</t>
@@ -2412,7 +2427,7 @@
     <t>ethylbenzene</t>
   </si>
   <si>
-    <t>(Optional) Concentration of ethylbenzene in the sample (Units: µmol/L)</t>
+    <t>(Optional) Concentration of ethylbenzene in the sample (Units: µmol/L, mg/L, µg/L)</t>
   </si>
   <si>
     <t>vfa in formation water</t>
@@ -2424,19 +2439,19 @@
     <t>total acid number</t>
   </si>
   <si>
-    <t>(Optional) Total acid number(tan) is a measurement of acidity that is determined by the amount of potassium hydroxide in milligrams that is needed to neutralize the acids in one gram of oil. it is an important quality measurement of crude oil. (source: https://en.wikipedia.org/wiki/total_acid_number) (Units: year)</t>
+    <t>(Optional) Total acid number(tan) is a measurement of acidity that is determined by the amount of potassium hydroxide in milligrams that is needed to neutralize the acids in one gram of oil. it is an important quality measurement of crude oil. (source: https://en.wikipedia.org/wiki/total_acid_number) (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>sulfate in formation water</t>
   </si>
   <si>
-    <t>(Optional) Original sulfate concentration in the hydrocarbon resource (Units: year)</t>
+    <t>(Optional) Original sulfate concentration in the hydrocarbon resource (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>toluene</t>
   </si>
   <si>
-    <t>(Optional) Concentration of toluene in the sample (Units: year)</t>
+    <t>(Optional) Concentration of toluene in the sample (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>asphaltenes wt%</t>
@@ -2478,7 +2493,7 @@
     <t>source rock lithology</t>
   </si>
   <si>
-    <t>(Optional) Lithology of source rock (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+    <t>(Optional) Lithology of source rock (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>sample material type</t>
@@ -2508,13 +2523,13 @@
     <t>biocide administration</t>
   </si>
   <si>
-    <t>(Optional) List of biocides (commercial name of product and supplier) and date of administration (Units: year)</t>
+    <t>(Optional) List of biocides (commercial name of product and supplier) and date of administration (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>chemical treatment method</t>
   </si>
   <si>
-    <t>(Optional) Method of chemical administration(dose, frequency, duration, time elapsed between administration and sampling) (e.g. 50 mg/l; twice a week; 1 hr; 0 days) (Units: J/K)</t>
+    <t>(Optional) Method of chemical administration(dose, frequency, duration, time elapsed between administration and sampling) (e.g. 50 mg/l; twice a week; 1 hr; 0 days) (Units: Cth, J/K)</t>
   </si>
   <si>
     <t>negative control type</t>
@@ -2616,7 +2631,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2697,13 +2712,13 @@
     <t>formation water salinity</t>
   </si>
   <si>
-    <t>(Optional) Original formation water salinity (prior to secondary recovery e.g. waterflooding) expressed as tds (Units: ppm)</t>
+    <t>(Optional) Original formation water salinity (prior to secondary recovery e.g. waterflooding) expressed as tds (Units: mg/L, ppm)</t>
   </si>
   <si>
     <t>basin name</t>
   </si>
   <si>
-    <t>(Optional) Name of the basin (e.g. campos) (Units: g/m3)</t>
+    <t>(Optional) Name of the basin (e.g. campos) (Units: g/m3, %)</t>
   </si>
   <si>
     <t>pour point</t>
@@ -2733,13 +2748,13 @@
     <t>source rock kerogen type</t>
   </si>
   <si>
-    <t>(Optional) Origin of kerogen. type i: algal (aquatic), type ii: planktonic and soft plant material (aquatic or terrestrial), type iii: terrestrial woody/ fibrous plant material (terrestrial), type iv: oxidized recycled woody debris (terrestrial) (additional information: https://en.wikipedia.org/wiki/kerogen). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+    <t>(Optional) Origin of kerogen. type i: algal (aquatic), type ii: planktonic and soft plant material (aquatic or terrestrial), type iii: terrestrial woody/ fibrous plant material (terrestrial), type iv: oxidized recycled woody debris (terrestrial) (additional information: https://en.wikipedia.org/wiki/kerogen). if "other" is specified, please propose entry in "additional info" field (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>hydrocarbon resource type</t>
   </si>
   <si>
-    <t>(Optional) Main hydrocarbon resource type. the term "hydrocarbon resource" hcr defined as a natural environmental feature containing large amounts of hydrocarbons at high concentrations potentially suitable for commercial exploitation. this term should not be confused with the hydrocarbon occurrence term which also includes hydrocarbon-rich environments with currently limited commercial interest such as seeps, outcrops, gas hydrates etc. if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+    <t>(Optional) Main hydrocarbon resource type. the term "hydrocarbon resource" hcr defined as a natural environmental feature containing large amounts of hydrocarbons at high concentrations potentially suitable for commercial exploitation. this term should not be confused with the hydrocarbon occurrence term which also includes hydrocarbon-rich environments with currently limited commercial interest such as seeps, outcrops, gas hydrates etc. if "other" is specified, please propose entry in "additional info" field (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>water production rate</t>
@@ -2751,7 +2766,7 @@
     <t>lithology</t>
   </si>
   <si>
-    <t>(Optional) Hydrocarbon resource main lithology (additional information: http://petrowiki.org/lithology_and_rock_type_determination). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+    <t>(Optional) Hydrocarbon resource main lithology (additional information: http://petrowiki.org/lithology_and_rock_type_determination). if "other" is specified, please propose entry in "additional info" field (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>hydrocarbon resource original temperature</t>
@@ -2763,7 +2778,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>injection water breakthrough date of specific well</t>
@@ -4488,292 +4503,292 @@
         <v>425</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:154" ht="150" customHeight="1">
@@ -4952,292 +4967,292 @@
         <v>426</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -5273,7 +5288,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:DU289"/>
+  <dimension ref="H1:DU294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5302,7 +5317,7 @@
         <v>427</v>
       </c>
       <c r="DU1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2" spans="8:125">
@@ -5328,7 +5343,7 @@
         <v>428</v>
       </c>
       <c r="DU2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="8:125">
@@ -5348,7 +5363,7 @@
         <v>429</v>
       </c>
       <c r="DU3" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="8:125">
@@ -5365,7 +5380,7 @@
         <v>430</v>
       </c>
       <c r="DU4" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="8:125">
@@ -6881,6 +6896,31 @@
     <row r="289" spans="59:59">
       <c r="BG289" t="s">
         <v>715</v>
+      </c>
+    </row>
+    <row r="290" spans="59:59">
+      <c r="BG290" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="291" spans="59:59">
+      <c r="BG291" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="292" spans="59:59">
+      <c r="BG292" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="293" spans="59:59">
+      <c r="BG293" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="294" spans="59:59">
+      <c r="BG294" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000058/metadata_template_ERC000058.xlsx
+++ b/templates/ERC000058/metadata_template_ERC000058.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BG$1:$BG$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$BG$1:$BG$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="916">
   <si>
     <t>alias</t>
   </si>
@@ -1026,7 +1026,7 @@
     <t>sample transport conditions</t>
   </si>
   <si>
-    <t>(Optional) Sample transport duration (in days or hrs) and temperature the sample was exposed to (e.g. 5.5 days; 20 °c) (Units: m2)</t>
+    <t>(Optional) Sample transport duration (in days or hrs) and temperature the sample was exposed to (e.g. 5.5 days; 20 °c) (Units: ha)</t>
   </si>
   <si>
     <t>sample collection device</t>
@@ -1062,7 +1062,7 @@
     <t>sample measured depth</t>
   </si>
   <si>
-    <t>(Optional) In non deviated well, measured depth is equal to the true vertical depth, tvd (tvd=tvdss plus the reference or datum it refers to). in deviated wells, the md is the length of trajectory of the borehole measured from the same reference or datum. common datums used are ground level (gl), drilling rig floor (df), rotary table (rt), kelly bushing (kb) and mean sea level (msl). if "other" is specified, please propose entry in "additional info" field (Units: mm)</t>
+    <t>(Optional) In non deviated well, measured depth is equal to the true vertical depth, tvd (tvd=tvdss plus the reference or datum it refers to). in deviated wells, the md is the length of trajectory of the borehole measured from the same reference or datum. common datums used are ground level (gl), drilling rig floor (df), rotary table (rt), kelly bushing (kb) and mean sea level (msl). if "other" is specified, please propose entry in "additional info" field (Units: m)</t>
   </si>
   <si>
     <t>corrosion rate at sample location</t>
@@ -1203,13 +1203,13 @@
     <t>well identification number</t>
   </si>
   <si>
-    <t>(Optional) A unique identifier of a well or wellbore. this is part of the global framework for well identification initiative which is compiled by the professional petroleum data management association (ppdm) in an effort to improve well identification systems. (supporting information: https://ppdm.org/ and http://dl.ppdm.org/dl/690) (Units: year)</t>
+    <t>(Optional) A unique identifier of a well or wellbore. this is part of the global framework for well identification initiative which is compiled by the professional petroleum data management association (ppdm) in an effort to improve well identification systems. (supporting information: https://ppdm.org/ and http://dl.ppdm.org/dl/690) (Units: minute)</t>
   </si>
   <si>
     <t>water cut</t>
   </si>
   <si>
-    <t>(Optional) Current amount of water (%) in a produced fluid stream; or the average of the combined streams (Units: year)</t>
+    <t>(Optional) Current amount of water (%) in a produced fluid stream; or the average of the combined streams (Units: minute)</t>
   </si>
   <si>
     <t>production rate</t>
@@ -1287,7 +1287,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1305,7 +1305,7 @@
     <t>hydrocarbon type produced</t>
   </si>
   <si>
-    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+    <t>(Optional) Main hydrocarbon type produced from resource (i.e. oil, gas, condensate, etc). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
   </si>
   <si>
     <t>api gravity</t>
@@ -1533,9 +1533,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1554,6 +1551,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1755,6 +1755,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1764,9 +1767,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1806,7 +1806,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1875,6 +1875,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1950,6 +1953,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1971,6 +1977,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2016,6 +2025,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2028,6 +2040,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2037,9 +2052,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2064,6 +2076,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2124,12 +2139,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2208,7 +2223,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2232,7 +2247,7 @@
     <t>permeability</t>
   </si>
   <si>
-    <t>(Optional) Measure of the ability of a hydrocarbon resource to allow fluids to pass through it. (additional information: https://en.wikipedia.org/wiki/permeability_(earth_sciences)) (Units: mm)</t>
+    <t>(Optional) Measure of the ability of a hydrocarbon resource to allow fluids to pass through it. (additional information: https://en.wikipedia.org/wiki/permeability_(earth_sciences)) (Units: m)</t>
   </si>
   <si>
     <t>oil water contact depth</t>
@@ -2244,7 +2259,7 @@
     <t>hydrocarbon resource original pressure</t>
   </si>
   <si>
-    <t>(Optional) Original pressure of the hydrocarbon resource (Units: Pa)</t>
+    <t>(Optional) Original pressure of the hydrocarbon resource (Units: N/m2)</t>
   </si>
   <si>
     <t>source rock geological age</t>
@@ -2268,7 +2283,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
   </si>
   <si>
     <t>chloride</t>
@@ -2280,7 +2295,7 @@
     <t>suspended solids</t>
   </si>
   <si>
-    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: parts/million)</t>
+    <t>(Optional) Concentration of substances including a wide variety of material, such as silt, decaying plant and animal matter, etc,; can include multiple substances (Units: g/L)</t>
   </si>
   <si>
     <t>dissolved carbon dioxide</t>
@@ -2310,7 +2325,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
   </si>
   <si>
     <t>nitrate</t>
@@ -2352,13 +2367,13 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
   </si>
   <si>
     <t>total phosphorus</t>
@@ -2394,13 +2409,13 @@
     <t>dissolved oxygen in fluids</t>
   </si>
   <si>
-    <t>(Optional) Concentration of dissolved oxygen in the oil field produced fluids as it contributes to oxgyen-corrosion and microbial activity (e.g. mic). (Units: µmol/kg)</t>
+    <t>(Optional) Concentration of dissolved oxygen in the oil field produced fluids as it contributes to oxgyen-corrosion and microbial activity (e.g. mic). (Units: µg/L)</t>
   </si>
   <si>
     <t>total sulfur</t>
   </si>
   <si>
-    <t>(Optional) Concentration of total sulfur in the sample (Units: µmol/L)</t>
+    <t>(Optional) Concentration of total sulfur in the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>injection water fraction</t>
@@ -2412,7 +2427,7 @@
     <t>ethylbenzene</t>
   </si>
   <si>
-    <t>(Optional) Concentration of ethylbenzene in the sample (Units: µmol/L)</t>
+    <t>(Optional) Concentration of ethylbenzene in the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>vfa in formation water</t>
@@ -2430,13 +2445,13 @@
     <t>sulfate in formation water</t>
   </si>
   <si>
-    <t>(Optional) Original sulfate concentration in the hydrocarbon resource (Units: year)</t>
+    <t>(Optional) Original sulfate concentration in the hydrocarbon resource (Units: minute)</t>
   </si>
   <si>
     <t>toluene</t>
   </si>
   <si>
-    <t>(Optional) Concentration of toluene in the sample (Units: year)</t>
+    <t>(Optional) Concentration of toluene in the sample (Units: minute)</t>
   </si>
   <si>
     <t>asphaltenes wt%</t>
@@ -2478,7 +2493,7 @@
     <t>source rock lithology</t>
   </si>
   <si>
-    <t>(Optional) Lithology of source rock (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+    <t>(Optional) Lithology of source rock (https://en.wikipedia.org/wiki/source_rock). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
   </si>
   <si>
     <t>sample material type</t>
@@ -2508,7 +2523,7 @@
     <t>biocide administration</t>
   </si>
   <si>
-    <t>(Optional) List of biocides (commercial name of product and supplier) and date of administration (Units: year)</t>
+    <t>(Optional) List of biocides (commercial name of product and supplier) and date of administration (Units: minute)</t>
   </si>
   <si>
     <t>chemical treatment method</t>
@@ -2616,7 +2631,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2703,7 +2718,7 @@
     <t>basin name</t>
   </si>
   <si>
-    <t>(Optional) Name of the basin (e.g. campos) (Units: g/m3)</t>
+    <t>(Optional) Name of the basin (e.g. campos) (Units: %)</t>
   </si>
   <si>
     <t>pour point</t>
@@ -2751,7 +2766,7 @@
     <t>lithology</t>
   </si>
   <si>
-    <t>(Optional) Hydrocarbon resource main lithology (additional information: http://petrowiki.org/lithology_and_rock_type_determination). if "other" is specified, please propose entry in "additional info" field (Units: year)</t>
+    <t>(Optional) Hydrocarbon resource main lithology (additional information: http://petrowiki.org/lithology_and_rock_type_determination). if "other" is specified, please propose entry in "additional info" field (Units: minute)</t>
   </si>
   <si>
     <t>hydrocarbon resource original temperature</t>
@@ -2763,7 +2778,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>injection water breakthrough date of specific well</t>
@@ -4488,292 +4503,292 @@
         <v>425</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:154" ht="150" customHeight="1">
@@ -4952,292 +4967,292 @@
         <v>426</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -5273,7 +5288,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:DU289"/>
+  <dimension ref="H1:DU294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5302,7 +5317,7 @@
         <v>427</v>
       </c>
       <c r="DU1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2" spans="8:125">
@@ -5328,7 +5343,7 @@
         <v>428</v>
       </c>
       <c r="DU2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="8:125">
@@ -5348,7 +5363,7 @@
         <v>429</v>
       </c>
       <c r="DU3" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="8:125">
@@ -5365,7 +5380,7 @@
         <v>430</v>
       </c>
       <c r="DU4" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="8:125">
@@ -6881,6 +6896,31 @@
     <row r="289" spans="59:59">
       <c r="BG289" t="s">
         <v>715</v>
+      </c>
+    </row>
+    <row r="290" spans="59:59">
+      <c r="BG290" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="291" spans="59:59">
+      <c r="BG291" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="292" spans="59:59">
+      <c r="BG292" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="293" spans="59:59">
+      <c r="BG293" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="294" spans="59:59">
+      <c r="BG294" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
